--- a/Resources/fields_in_parts.xlsx
+++ b/Resources/fields_in_parts.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haeze\Documents\GitHub\Clinical_Trial_Machine_Learning\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{762BA091-1CB3-4D6B-9D7A-30FB173EAC4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49A55792-67F4-4E69-A4EB-3C9876A6930A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3FFC712F-3407-4154-8307-77CD6B123CFD}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{3FFC712F-3407-4154-8307-77CD6B123CFD}"/>
   </bookViews>
   <sheets>
     <sheet name="fields by part" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="697">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1110" uniqueCount="699">
   <si>
     <t>URL_Append</t>
   </si>
@@ -3716,6 +3717,13 @@
   </si>
   <si>
     <t>URL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NCTId','ConditionAncestorId','ConditionAncestorTerm','ConditionBrowseBranchAbbrev','ConditionBrowseBranchName','ConditionBrowseLeafAsFound','ConditionBrowseLeafId','ConditionBrowseLeafName','ConditionBrowseLeafRelevance','ConditionMeshId','ConditionMeshTerm']
+</t>
+  </si>
+  <si>
+    <t>part18 = ['NCTId','ConditionAncestorId','ConditionAncestorTerm','ConditionBrowseBranchAbbrev','ConditionBrowseBranchName','ConditionBrowseLeafAsFound','ConditionBrowseLeafId','ConditionBrowseLeafName','ConditionBrowseLeafRelevance','ConditionMeshId','ConditionMeshTerm']</t>
   </si>
 </sst>
 </file>
@@ -3785,7 +3793,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3802,11 +3810,44 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="9">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -4179,18 +4220,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F217A0D3-1C5D-44A9-AFB8-85D60B425BFF}">
   <dimension ref="A1:I440"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27:C47"/>
+    <sheetView tabSelected="1" topLeftCell="C373" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G374" sqref="G374:G384"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="2" max="2" width="35.81640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="41.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.453125" hidden="1" customWidth="1"/>
-    <col min="5" max="6" width="8.7265625" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="30.453125" customWidth="1"/>
-    <col min="8" max="8" width="8.7265625" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="41.453125" customWidth="1"/>
+    <col min="5" max="6" width="8.7265625" customWidth="1"/>
+    <col min="7" max="7" width="45" customWidth="1"/>
+    <col min="8" max="8" width="8.7265625" customWidth="1"/>
     <col min="9" max="9" width="46.1796875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="21.54296875" customWidth="1"/>
   </cols>
@@ -4286,7 +4327,7 @@
         <v>1</v>
       </c>
       <c r="I6" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H6&amp;"]:"&amp;B6&amp;","</f>
+        <f t="shared" ref="I6:I23" si="0">"part" &amp;$A$5&amp; "["&amp;H6&amp;"]:"&amp;B6&amp;","</f>
         <v>part1[1]:AgreementOtherDetails,</v>
       </c>
     </row>
@@ -4295,7 +4336,7 @@
         <v>3</v>
       </c>
       <c r="C7" t="str">
-        <f t="shared" ref="C7:C24" si="0">B7&amp;" = []"</f>
+        <f t="shared" ref="C7:C24" si="1">B7&amp;" = []"</f>
         <v>AgreementPISponsorEmployee = []</v>
       </c>
       <c r="D7" t="s">
@@ -4320,7 +4361,7 @@
         <v>2</v>
       </c>
       <c r="I7" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H7&amp;"]:"&amp;B7&amp;","</f>
+        <f t="shared" si="0"/>
         <v>part1[2]:AgreementPISponsorEmployee,</v>
       </c>
     </row>
@@ -4329,7 +4370,7 @@
         <v>4</v>
       </c>
       <c r="C8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>AgreementRestrictionType = []</v>
       </c>
       <c r="D8" t="s">
@@ -4339,7 +4380,7 @@
         <v>339</v>
       </c>
       <c r="F8" t="str">
-        <f t="shared" ref="F8:F24" si="1">SUBSTITUTE(E8,"AgreementOtherDetails",B8)</f>
+        <f t="shared" ref="F8:F24" si="2">SUBSTITUTE(E8,"AgreementOtherDetails",B8)</f>
         <v xml:space="preserve">    if len(study_content['AgreementRestrictionType']) ==0 :
         AgreementRestrictionType.append(0)
     if len(study_content['AgreementRestrictionType']) ==1 :
@@ -4354,7 +4395,7 @@
         <v>3</v>
       </c>
       <c r="I8" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H8&amp;"]:"&amp;B8&amp;","</f>
+        <f t="shared" si="0"/>
         <v>part1[3]:AgreementRestrictionType,</v>
       </c>
     </row>
@@ -4363,7 +4404,7 @@
         <v>5</v>
       </c>
       <c r="C9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>AgreementRestrictiveAgreement = []</v>
       </c>
       <c r="D9" t="s">
@@ -4373,7 +4414,7 @@
         <v>339</v>
       </c>
       <c r="F9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">    if len(study_content['AgreementRestrictiveAgreement']) ==0 :
         AgreementRestrictiveAgreement.append(0)
     if len(study_content['AgreementRestrictiveAgreement']) ==1 :
@@ -4388,7 +4429,7 @@
         <v>4</v>
       </c>
       <c r="I9" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H9&amp;"]:"&amp;B9&amp;","</f>
+        <f t="shared" si="0"/>
         <v>part1[4]:AgreementRestrictiveAgreement,</v>
       </c>
     </row>
@@ -4397,7 +4438,7 @@
         <v>6</v>
       </c>
       <c r="C10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>ArmGroupDescription = []</v>
       </c>
       <c r="D10" t="s">
@@ -4407,7 +4448,7 @@
         <v>339</v>
       </c>
       <c r="F10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">    if len(study_content['ArmGroupDescription']) ==0 :
         ArmGroupDescription.append(0)
     if len(study_content['ArmGroupDescription']) ==1 :
@@ -4422,7 +4463,7 @@
         <v>5</v>
       </c>
       <c r="I10" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H10&amp;"]:"&amp;B10&amp;","</f>
+        <f t="shared" si="0"/>
         <v>part1[5]:ArmGroupDescription,</v>
       </c>
     </row>
@@ -4431,7 +4472,7 @@
         <v>7</v>
       </c>
       <c r="C11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>ArmGroupInterventionName = []</v>
       </c>
       <c r="D11" t="s">
@@ -4441,7 +4482,7 @@
         <v>339</v>
       </c>
       <c r="F11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">    if len(study_content['ArmGroupInterventionName']) ==0 :
         ArmGroupInterventionName.append(0)
     if len(study_content['ArmGroupInterventionName']) ==1 :
@@ -4456,7 +4497,7 @@
         <v>6</v>
       </c>
       <c r="I11" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H11&amp;"]:"&amp;B11&amp;","</f>
+        <f t="shared" si="0"/>
         <v>part1[6]:ArmGroupInterventionName,</v>
       </c>
     </row>
@@ -4465,7 +4506,7 @@
         <v>8</v>
       </c>
       <c r="C12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>ArmGroupLabel = []</v>
       </c>
       <c r="D12" t="s">
@@ -4475,7 +4516,7 @@
         <v>339</v>
       </c>
       <c r="F12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">    if len(study_content['ArmGroupLabel']) ==0 :
         ArmGroupLabel.append(0)
     if len(study_content['ArmGroupLabel']) ==1 :
@@ -4490,7 +4531,7 @@
         <v>7</v>
       </c>
       <c r="I12" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H12&amp;"]:"&amp;B12&amp;","</f>
+        <f t="shared" si="0"/>
         <v>part1[7]:ArmGroupLabel,</v>
       </c>
     </row>
@@ -4499,7 +4540,7 @@
         <v>9</v>
       </c>
       <c r="C13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>ArmGroupType = []</v>
       </c>
       <c r="D13" t="s">
@@ -4509,7 +4550,7 @@
         <v>339</v>
       </c>
       <c r="F13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">    if len(study_content['ArmGroupType']) ==0 :
         ArmGroupType.append(0)
     if len(study_content['ArmGroupType']) ==1 :
@@ -4524,7 +4565,7 @@
         <v>8</v>
       </c>
       <c r="I13" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H13&amp;"]:"&amp;B13&amp;","</f>
+        <f t="shared" si="0"/>
         <v>part1[8]:ArmGroupType,</v>
       </c>
     </row>
@@ -4533,7 +4574,7 @@
         <v>10</v>
       </c>
       <c r="C14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>AvailIPDComment = []</v>
       </c>
       <c r="D14" t="s">
@@ -4543,7 +4584,7 @@
         <v>339</v>
       </c>
       <c r="F14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">    if len(study_content['AvailIPDComment']) ==0 :
         AvailIPDComment.append(0)
     if len(study_content['AvailIPDComment']) ==1 :
@@ -4558,7 +4599,7 @@
         <v>9</v>
       </c>
       <c r="I14" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H14&amp;"]:"&amp;B14&amp;","</f>
+        <f t="shared" si="0"/>
         <v>part1[9]:AvailIPDComment,</v>
       </c>
     </row>
@@ -4567,7 +4608,7 @@
         <v>11</v>
       </c>
       <c r="C15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>AvailIPDId = []</v>
       </c>
       <c r="D15" t="s">
@@ -4577,7 +4618,7 @@
         <v>339</v>
       </c>
       <c r="F15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">    if len(study_content['AvailIPDId']) ==0 :
         AvailIPDId.append(0)
     if len(study_content['AvailIPDId']) ==1 :
@@ -4592,7 +4633,7 @@
         <v>10</v>
       </c>
       <c r="I15" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H15&amp;"]:"&amp;B15&amp;","</f>
+        <f t="shared" si="0"/>
         <v>part1[10]:AvailIPDId,</v>
       </c>
     </row>
@@ -4601,7 +4642,7 @@
         <v>12</v>
       </c>
       <c r="C16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>AvailIPDType = []</v>
       </c>
       <c r="D16" t="s">
@@ -4611,7 +4652,7 @@
         <v>339</v>
       </c>
       <c r="F16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">    if len(study_content['AvailIPDType']) ==0 :
         AvailIPDType.append(0)
     if len(study_content['AvailIPDType']) ==1 :
@@ -4626,7 +4667,7 @@
         <v>11</v>
       </c>
       <c r="I16" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H16&amp;"]:"&amp;B16&amp;","</f>
+        <f t="shared" si="0"/>
         <v>part1[11]:AvailIPDType,</v>
       </c>
     </row>
@@ -4635,7 +4676,7 @@
         <v>13</v>
       </c>
       <c r="C17" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>AvailIPDURL = []</v>
       </c>
       <c r="D17" t="s">
@@ -4645,7 +4686,7 @@
         <v>339</v>
       </c>
       <c r="F17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">    if len(study_content['AvailIPDURL']) ==0 :
         AvailIPDURL.append(0)
     if len(study_content['AvailIPDURL']) ==1 :
@@ -4660,7 +4701,7 @@
         <v>12</v>
       </c>
       <c r="I17" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H17&amp;"]:"&amp;B17&amp;","</f>
+        <f t="shared" si="0"/>
         <v>part1[12]:AvailIPDURL,</v>
       </c>
     </row>
@@ -4669,7 +4710,7 @@
         <v>14</v>
       </c>
       <c r="C18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>BaselineCategoryTitle = []</v>
       </c>
       <c r="D18" t="s">
@@ -4679,7 +4720,7 @@
         <v>339</v>
       </c>
       <c r="F18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">    if len(study_content['BaselineCategoryTitle']) ==0 :
         BaselineCategoryTitle.append(0)
     if len(study_content['BaselineCategoryTitle']) ==1 :
@@ -4694,7 +4735,7 @@
         <v>13</v>
       </c>
       <c r="I18" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H18&amp;"]:"&amp;B18&amp;","</f>
+        <f t="shared" si="0"/>
         <v>part1[13]:BaselineCategoryTitle,</v>
       </c>
     </row>
@@ -4703,7 +4744,7 @@
         <v>15</v>
       </c>
       <c r="C19" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>BaselineClassDenomCountGroupId = []</v>
       </c>
       <c r="D19" t="s">
@@ -4713,7 +4754,7 @@
         <v>339</v>
       </c>
       <c r="F19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">    if len(study_content['BaselineClassDenomCountGroupId']) ==0 :
         BaselineClassDenomCountGroupId.append(0)
     if len(study_content['BaselineClassDenomCountGroupId']) ==1 :
@@ -4728,7 +4769,7 @@
         <v>14</v>
       </c>
       <c r="I19" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H19&amp;"]:"&amp;B19&amp;","</f>
+        <f t="shared" si="0"/>
         <v>part1[14]:BaselineClassDenomCountGroupId,</v>
       </c>
     </row>
@@ -4737,7 +4778,7 @@
         <v>16</v>
       </c>
       <c r="C20" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>BaselineClassDenomCountValue = []</v>
       </c>
       <c r="D20" t="s">
@@ -4747,7 +4788,7 @@
         <v>339</v>
       </c>
       <c r="F20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">    if len(study_content['BaselineClassDenomCountValue']) ==0 :
         BaselineClassDenomCountValue.append(0)
     if len(study_content['BaselineClassDenomCountValue']) ==1 :
@@ -4762,7 +4803,7 @@
         <v>15</v>
       </c>
       <c r="I20" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H20&amp;"]:"&amp;B20&amp;","</f>
+        <f t="shared" si="0"/>
         <v>part1[15]:BaselineClassDenomCountValue,</v>
       </c>
     </row>
@@ -4771,7 +4812,7 @@
         <v>17</v>
       </c>
       <c r="C21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>BaselineClassDenomUnits = []</v>
       </c>
       <c r="D21" t="s">
@@ -4781,7 +4822,7 @@
         <v>339</v>
       </c>
       <c r="F21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">    if len(study_content['BaselineClassDenomUnits']) ==0 :
         BaselineClassDenomUnits.append(0)
     if len(study_content['BaselineClassDenomUnits']) ==1 :
@@ -4796,7 +4837,7 @@
         <v>16</v>
       </c>
       <c r="I21" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H21&amp;"]:"&amp;B21&amp;","</f>
+        <f t="shared" si="0"/>
         <v>part1[16]:BaselineClassDenomUnits,</v>
       </c>
     </row>
@@ -4805,7 +4846,7 @@
         <v>18</v>
       </c>
       <c r="C22" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>BaselineClassTitle = []</v>
       </c>
       <c r="D22" t="s">
@@ -4815,7 +4856,7 @@
         <v>339</v>
       </c>
       <c r="F22" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">    if len(study_content['BaselineClassTitle']) ==0 :
         BaselineClassTitle.append(0)
     if len(study_content['BaselineClassTitle']) ==1 :
@@ -4830,7 +4871,7 @@
         <v>17</v>
       </c>
       <c r="I22" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H22&amp;"]:"&amp;B22&amp;","</f>
+        <f t="shared" si="0"/>
         <v>part1[17]:BaselineClassTitle,</v>
       </c>
     </row>
@@ -4839,7 +4880,7 @@
         <v>19</v>
       </c>
       <c r="C23" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>BaselineDenomCountGroupId = []</v>
       </c>
       <c r="D23" t="s">
@@ -4849,7 +4890,7 @@
         <v>339</v>
       </c>
       <c r="F23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">    if len(study_content['BaselineDenomCountGroupId']) ==0 :
         BaselineDenomCountGroupId.append(0)
     if len(study_content['BaselineDenomCountGroupId']) ==1 :
@@ -4864,7 +4905,7 @@
         <v>18</v>
       </c>
       <c r="I23" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H23&amp;"]:"&amp;B23&amp;","</f>
+        <f t="shared" si="0"/>
         <v>part1[18]:BaselineDenomCountGroupId,</v>
       </c>
     </row>
@@ -4873,7 +4914,7 @@
         <v>20</v>
       </c>
       <c r="C24" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>BaselineDenomCountValue = []</v>
       </c>
       <c r="D24" t="s">
@@ -4883,7 +4924,7 @@
         <v>339</v>
       </c>
       <c r="F24" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">    if len(study_content['BaselineDenomCountValue']) ==0 :
         BaselineDenomCountValue.append(0)
     if len(study_content['BaselineDenomCountValue']) ==1 :
@@ -4976,7 +5017,7 @@
         <v>1</v>
       </c>
       <c r="I29" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H29&amp;"]:"&amp;B29&amp;","</f>
+        <f t="shared" ref="I29:I46" si="3">"part" &amp;$A$5&amp; "["&amp;H29&amp;"]:"&amp;B29&amp;","</f>
         <v>part1[1]:BaselineDenomUnits,</v>
       </c>
     </row>
@@ -4985,14 +5026,14 @@
         <v>22</v>
       </c>
       <c r="C30" t="str">
-        <f t="shared" ref="C30:C47" si="2">B30&amp;" = []"</f>
+        <f t="shared" ref="C30:C47" si="4">B30&amp;" = []"</f>
         <v>BaselineGroupDescription = []</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F30" t="str">
-        <f t="shared" ref="F30:F47" si="3">SUBSTITUTE(E30,"AgreementOtherDetails",B30)</f>
+        <f t="shared" ref="F30:F47" si="5">SUBSTITUTE(E30,"AgreementOtherDetails",B30)</f>
         <v xml:space="preserve">    if len(study_content['BaselineGroupDescription']) ==0 :
         BaselineGroupDescription.append(0)
     if len(study_content['BaselineGroupDescription']) ==1 :
@@ -5007,7 +5048,7 @@
         <v>2</v>
       </c>
       <c r="I30" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H30&amp;"]:"&amp;B30&amp;","</f>
+        <f t="shared" si="3"/>
         <v>part1[2]:BaselineGroupDescription,</v>
       </c>
     </row>
@@ -5016,14 +5057,14 @@
         <v>23</v>
       </c>
       <c r="C31" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>BaselineGroupId = []</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F31" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">    if len(study_content['BaselineGroupId']) ==0 :
         BaselineGroupId.append(0)
     if len(study_content['BaselineGroupId']) ==1 :
@@ -5038,7 +5079,7 @@
         <v>3</v>
       </c>
       <c r="I31" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H31&amp;"]:"&amp;B31&amp;","</f>
+        <f t="shared" si="3"/>
         <v>part1[3]:BaselineGroupId,</v>
       </c>
     </row>
@@ -5047,14 +5088,14 @@
         <v>24</v>
       </c>
       <c r="C32" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>BaselineGroupTitle = []</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F32" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">    if len(study_content['BaselineGroupTitle']) ==0 :
         BaselineGroupTitle.append(0)
     if len(study_content['BaselineGroupTitle']) ==1 :
@@ -5069,7 +5110,7 @@
         <v>4</v>
       </c>
       <c r="I32" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H32&amp;"]:"&amp;B32&amp;","</f>
+        <f t="shared" si="3"/>
         <v>part1[4]:BaselineGroupTitle,</v>
       </c>
     </row>
@@ -5078,14 +5119,14 @@
         <v>25</v>
       </c>
       <c r="C33" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>BaselineMeasureCalculatePct = []</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F33" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">    if len(study_content['BaselineMeasureCalculatePct']) ==0 :
         BaselineMeasureCalculatePct.append(0)
     if len(study_content['BaselineMeasureCalculatePct']) ==1 :
@@ -5100,7 +5141,7 @@
         <v>5</v>
       </c>
       <c r="I33" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H33&amp;"]:"&amp;B33&amp;","</f>
+        <f t="shared" si="3"/>
         <v>part1[5]:BaselineMeasureCalculatePct,</v>
       </c>
     </row>
@@ -5109,14 +5150,14 @@
         <v>26</v>
       </c>
       <c r="C34" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>BaselineMeasureDenomCountGroupId = []</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F34" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">    if len(study_content['BaselineMeasureDenomCountGroupId']) ==0 :
         BaselineMeasureDenomCountGroupId.append(0)
     if len(study_content['BaselineMeasureDenomCountGroupId']) ==1 :
@@ -5131,7 +5172,7 @@
         <v>6</v>
       </c>
       <c r="I34" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H34&amp;"]:"&amp;B34&amp;","</f>
+        <f t="shared" si="3"/>
         <v>part1[6]:BaselineMeasureDenomCountGroupId,</v>
       </c>
     </row>
@@ -5140,14 +5181,14 @@
         <v>27</v>
       </c>
       <c r="C35" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>BaselineMeasureDenomCountValue = []</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F35" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">    if len(study_content['BaselineMeasureDenomCountValue']) ==0 :
         BaselineMeasureDenomCountValue.append(0)
     if len(study_content['BaselineMeasureDenomCountValue']) ==1 :
@@ -5162,7 +5203,7 @@
         <v>7</v>
       </c>
       <c r="I35" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H35&amp;"]:"&amp;B35&amp;","</f>
+        <f t="shared" si="3"/>
         <v>part1[7]:BaselineMeasureDenomCountValue,</v>
       </c>
     </row>
@@ -5171,14 +5212,14 @@
         <v>28</v>
       </c>
       <c r="C36" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>BaselineMeasureDenomUnits = []</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F36" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">    if len(study_content['BaselineMeasureDenomUnits']) ==0 :
         BaselineMeasureDenomUnits.append(0)
     if len(study_content['BaselineMeasureDenomUnits']) ==1 :
@@ -5193,7 +5234,7 @@
         <v>8</v>
       </c>
       <c r="I36" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H36&amp;"]:"&amp;B36&amp;","</f>
+        <f t="shared" si="3"/>
         <v>part1[8]:BaselineMeasureDenomUnits,</v>
       </c>
     </row>
@@ -5202,14 +5243,14 @@
         <v>29</v>
       </c>
       <c r="C37" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>BaselineMeasureDenomUnitsSelected = []</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F37" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">    if len(study_content['BaselineMeasureDenomUnitsSelected']) ==0 :
         BaselineMeasureDenomUnitsSelected.append(0)
     if len(study_content['BaselineMeasureDenomUnitsSelected']) ==1 :
@@ -5224,7 +5265,7 @@
         <v>9</v>
       </c>
       <c r="I37" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H37&amp;"]:"&amp;B37&amp;","</f>
+        <f t="shared" si="3"/>
         <v>part1[9]:BaselineMeasureDenomUnitsSelected,</v>
       </c>
     </row>
@@ -5233,14 +5274,14 @@
         <v>30</v>
       </c>
       <c r="C38" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>BaselineMeasureDescription = []</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F38" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">    if len(study_content['BaselineMeasureDescription']) ==0 :
         BaselineMeasureDescription.append(0)
     if len(study_content['BaselineMeasureDescription']) ==1 :
@@ -5255,7 +5296,7 @@
         <v>10</v>
       </c>
       <c r="I38" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H38&amp;"]:"&amp;B38&amp;","</f>
+        <f t="shared" si="3"/>
         <v>part1[10]:BaselineMeasureDescription,</v>
       </c>
     </row>
@@ -5264,14 +5305,14 @@
         <v>31</v>
       </c>
       <c r="C39" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>BaselineMeasureDispersionType = []</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F39" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">    if len(study_content['BaselineMeasureDispersionType']) ==0 :
         BaselineMeasureDispersionType.append(0)
     if len(study_content['BaselineMeasureDispersionType']) ==1 :
@@ -5286,7 +5327,7 @@
         <v>11</v>
       </c>
       <c r="I39" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H39&amp;"]:"&amp;B39&amp;","</f>
+        <f t="shared" si="3"/>
         <v>part1[11]:BaselineMeasureDispersionType,</v>
       </c>
     </row>
@@ -5295,14 +5336,14 @@
         <v>32</v>
       </c>
       <c r="C40" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>BaselineMeasureParamType = []</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F40" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">    if len(study_content['BaselineMeasureParamType']) ==0 :
         BaselineMeasureParamType.append(0)
     if len(study_content['BaselineMeasureParamType']) ==1 :
@@ -5317,7 +5358,7 @@
         <v>12</v>
       </c>
       <c r="I40" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H40&amp;"]:"&amp;B40&amp;","</f>
+        <f t="shared" si="3"/>
         <v>part1[12]:BaselineMeasureParamType,</v>
       </c>
     </row>
@@ -5326,14 +5367,14 @@
         <v>33</v>
       </c>
       <c r="C41" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>BaselineMeasurePopulationDescription = []</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F41" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">    if len(study_content['BaselineMeasurePopulationDescription']) ==0 :
         BaselineMeasurePopulationDescription.append(0)
     if len(study_content['BaselineMeasurePopulationDescription']) ==1 :
@@ -5348,7 +5389,7 @@
         <v>13</v>
       </c>
       <c r="I41" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H41&amp;"]:"&amp;B41&amp;","</f>
+        <f t="shared" si="3"/>
         <v>part1[13]:BaselineMeasurePopulationDescription,</v>
       </c>
     </row>
@@ -5357,14 +5398,14 @@
         <v>34</v>
       </c>
       <c r="C42" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>BaselineMeasureTitle = []</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F42" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">    if len(study_content['BaselineMeasureTitle']) ==0 :
         BaselineMeasureTitle.append(0)
     if len(study_content['BaselineMeasureTitle']) ==1 :
@@ -5379,7 +5420,7 @@
         <v>14</v>
       </c>
       <c r="I42" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H42&amp;"]:"&amp;B42&amp;","</f>
+        <f t="shared" si="3"/>
         <v>part1[14]:BaselineMeasureTitle,</v>
       </c>
     </row>
@@ -5388,14 +5429,14 @@
         <v>35</v>
       </c>
       <c r="C43" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>BaselineMeasureUnitOfMeasure = []</v>
       </c>
       <c r="E43" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F43" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">    if len(study_content['BaselineMeasureUnitOfMeasure']) ==0 :
         BaselineMeasureUnitOfMeasure.append(0)
     if len(study_content['BaselineMeasureUnitOfMeasure']) ==1 :
@@ -5410,7 +5451,7 @@
         <v>15</v>
       </c>
       <c r="I43" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H43&amp;"]:"&amp;B43&amp;","</f>
+        <f t="shared" si="3"/>
         <v>part1[15]:BaselineMeasureUnitOfMeasure,</v>
       </c>
     </row>
@@ -5419,14 +5460,14 @@
         <v>36</v>
       </c>
       <c r="C44" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>BaselineMeasurementComment = []</v>
       </c>
       <c r="E44" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F44" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">    if len(study_content['BaselineMeasurementComment']) ==0 :
         BaselineMeasurementComment.append(0)
     if len(study_content['BaselineMeasurementComment']) ==1 :
@@ -5441,7 +5482,7 @@
         <v>16</v>
       </c>
       <c r="I44" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H44&amp;"]:"&amp;B44&amp;","</f>
+        <f t="shared" si="3"/>
         <v>part1[16]:BaselineMeasurementComment,</v>
       </c>
     </row>
@@ -5450,14 +5491,14 @@
         <v>37</v>
       </c>
       <c r="C45" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>BaselineMeasurementGroupId = []</v>
       </c>
       <c r="E45" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F45" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">    if len(study_content['BaselineMeasurementGroupId']) ==0 :
         BaselineMeasurementGroupId.append(0)
     if len(study_content['BaselineMeasurementGroupId']) ==1 :
@@ -5472,7 +5513,7 @@
         <v>17</v>
       </c>
       <c r="I45" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H45&amp;"]:"&amp;B45&amp;","</f>
+        <f t="shared" si="3"/>
         <v>part1[17]:BaselineMeasurementGroupId,</v>
       </c>
     </row>
@@ -5481,14 +5522,14 @@
         <v>38</v>
       </c>
       <c r="C46" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>BaselineMeasurementLowerLimit = []</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F46" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">    if len(study_content['BaselineMeasurementLowerLimit']) ==0 :
         BaselineMeasurementLowerLimit.append(0)
     if len(study_content['BaselineMeasurementLowerLimit']) ==1 :
@@ -5503,7 +5544,7 @@
         <v>18</v>
       </c>
       <c r="I46" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H46&amp;"]:"&amp;B46&amp;","</f>
+        <f t="shared" si="3"/>
         <v>part1[18]:BaselineMeasurementLowerLimit,</v>
       </c>
     </row>
@@ -5512,14 +5553,14 @@
         <v>39</v>
       </c>
       <c r="C47" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>BaselineMeasurementSpread = []</v>
       </c>
       <c r="E47" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F47" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">    if len(study_content['BaselineMeasurementSpread']) ==0 :
         BaselineMeasurementSpread.append(0)
     if len(study_content['BaselineMeasurementSpread']) ==1 :
@@ -5609,7 +5650,7 @@
         <v>1</v>
       </c>
       <c r="I51" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H51&amp;"]:"&amp;B51&amp;","</f>
+        <f t="shared" ref="I51:I68" si="6">"part" &amp;$A$5&amp; "["&amp;H51&amp;"]:"&amp;B51&amp;","</f>
         <v>part1[1]:BaselineMeasurementUpperLimit,</v>
       </c>
     </row>
@@ -5618,14 +5659,14 @@
         <v>41</v>
       </c>
       <c r="C52" t="str">
-        <f t="shared" ref="C52:C69" si="4">B52&amp;" = []"</f>
+        <f t="shared" ref="C52:C69" si="7">B52&amp;" = []"</f>
         <v>BaselineMeasurementValue = []</v>
       </c>
       <c r="E52" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F52" t="str">
-        <f t="shared" ref="F52:F69" si="5">SUBSTITUTE(E52,"AgreementOtherDetails",B52)</f>
+        <f t="shared" ref="F52:F69" si="8">SUBSTITUTE(E52,"AgreementOtherDetails",B52)</f>
         <v xml:space="preserve">    if len(study_content['BaselineMeasurementValue']) ==0 :
         BaselineMeasurementValue.append(0)
     if len(study_content['BaselineMeasurementValue']) ==1 :
@@ -5640,7 +5681,7 @@
         <v>2</v>
       </c>
       <c r="I52" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H52&amp;"]:"&amp;B52&amp;","</f>
+        <f t="shared" si="6"/>
         <v>part1[2]:BaselineMeasurementValue,</v>
       </c>
     </row>
@@ -5649,14 +5690,14 @@
         <v>42</v>
       </c>
       <c r="C53" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>BaselinePopulationDescription = []</v>
       </c>
       <c r="E53" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F53" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">    if len(study_content['BaselinePopulationDescription']) ==0 :
         BaselinePopulationDescription.append(0)
     if len(study_content['BaselinePopulationDescription']) ==1 :
@@ -5671,7 +5712,7 @@
         <v>3</v>
       </c>
       <c r="I53" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H53&amp;"]:"&amp;B53&amp;","</f>
+        <f t="shared" si="6"/>
         <v>part1[3]:BaselinePopulationDescription,</v>
       </c>
     </row>
@@ -5680,14 +5721,14 @@
         <v>43</v>
       </c>
       <c r="C54" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>BaselineTypeUnitsAnalyzed = []</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F54" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">    if len(study_content['BaselineTypeUnitsAnalyzed']) ==0 :
         BaselineTypeUnitsAnalyzed.append(0)
     if len(study_content['BaselineTypeUnitsAnalyzed']) ==1 :
@@ -5702,7 +5743,7 @@
         <v>4</v>
       </c>
       <c r="I54" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H54&amp;"]:"&amp;B54&amp;","</f>
+        <f t="shared" si="6"/>
         <v>part1[4]:BaselineTypeUnitsAnalyzed,</v>
       </c>
     </row>
@@ -5711,14 +5752,14 @@
         <v>44</v>
       </c>
       <c r="C55" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>BioSpecDescription = []</v>
       </c>
       <c r="E55" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F55" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">    if len(study_content['BioSpecDescription']) ==0 :
         BioSpecDescription.append(0)
     if len(study_content['BioSpecDescription']) ==1 :
@@ -5733,7 +5774,7 @@
         <v>5</v>
       </c>
       <c r="I55" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H55&amp;"]:"&amp;B55&amp;","</f>
+        <f t="shared" si="6"/>
         <v>part1[5]:BioSpecDescription,</v>
       </c>
     </row>
@@ -5742,14 +5783,14 @@
         <v>45</v>
       </c>
       <c r="C56" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>BioSpecRetention = []</v>
       </c>
       <c r="E56" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F56" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">    if len(study_content['BioSpecRetention']) ==0 :
         BioSpecRetention.append(0)
     if len(study_content['BioSpecRetention']) ==1 :
@@ -5764,7 +5805,7 @@
         <v>6</v>
       </c>
       <c r="I56" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H56&amp;"]:"&amp;B56&amp;","</f>
+        <f t="shared" si="6"/>
         <v>part1[6]:BioSpecRetention,</v>
       </c>
     </row>
@@ -5773,14 +5814,14 @@
         <v>46</v>
       </c>
       <c r="C57" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>BriefSummary = []</v>
       </c>
       <c r="E57" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F57" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">    if len(study_content['BriefSummary']) ==0 :
         BriefSummary.append(0)
     if len(study_content['BriefSummary']) ==1 :
@@ -5795,7 +5836,7 @@
         <v>7</v>
       </c>
       <c r="I57" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H57&amp;"]:"&amp;B57&amp;","</f>
+        <f t="shared" si="6"/>
         <v>part1[7]:BriefSummary,</v>
       </c>
     </row>
@@ -5804,14 +5845,14 @@
         <v>47</v>
       </c>
       <c r="C58" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>BriefTitle = []</v>
       </c>
       <c r="E58" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F58" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">    if len(study_content['BriefTitle']) ==0 :
         BriefTitle.append(0)
     if len(study_content['BriefTitle']) ==1 :
@@ -5826,7 +5867,7 @@
         <v>8</v>
       </c>
       <c r="I58" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H58&amp;"]:"&amp;B58&amp;","</f>
+        <f t="shared" si="6"/>
         <v>part1[8]:BriefTitle,</v>
       </c>
     </row>
@@ -5835,14 +5876,14 @@
         <v>48</v>
       </c>
       <c r="C59" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>CentralContactEMail = []</v>
       </c>
       <c r="E59" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F59" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">    if len(study_content['CentralContactEMail']) ==0 :
         CentralContactEMail.append(0)
     if len(study_content['CentralContactEMail']) ==1 :
@@ -5857,7 +5898,7 @@
         <v>9</v>
       </c>
       <c r="I59" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H59&amp;"]:"&amp;B59&amp;","</f>
+        <f t="shared" si="6"/>
         <v>part1[9]:CentralContactEMail,</v>
       </c>
     </row>
@@ -5866,14 +5907,14 @@
         <v>49</v>
       </c>
       <c r="C60" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>CentralContactName = []</v>
       </c>
       <c r="E60" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F60" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">    if len(study_content['CentralContactName']) ==0 :
         CentralContactName.append(0)
     if len(study_content['CentralContactName']) ==1 :
@@ -5888,7 +5929,7 @@
         <v>10</v>
       </c>
       <c r="I60" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H60&amp;"]:"&amp;B60&amp;","</f>
+        <f t="shared" si="6"/>
         <v>part1[10]:CentralContactName,</v>
       </c>
     </row>
@@ -5897,14 +5938,14 @@
         <v>50</v>
       </c>
       <c r="C61" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>CentralContactPhone = []</v>
       </c>
       <c r="E61" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F61" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">    if len(study_content['CentralContactPhone']) ==0 :
         CentralContactPhone.append(0)
     if len(study_content['CentralContactPhone']) ==1 :
@@ -5919,7 +5960,7 @@
         <v>11</v>
       </c>
       <c r="I61" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H61&amp;"]:"&amp;B61&amp;","</f>
+        <f t="shared" si="6"/>
         <v>part1[11]:CentralContactPhone,</v>
       </c>
     </row>
@@ -5928,14 +5969,14 @@
         <v>51</v>
       </c>
       <c r="C62" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>CentralContactPhoneExt = []</v>
       </c>
       <c r="E62" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F62" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">    if len(study_content['CentralContactPhoneExt']) ==0 :
         CentralContactPhoneExt.append(0)
     if len(study_content['CentralContactPhoneExt']) ==1 :
@@ -5950,7 +5991,7 @@
         <v>12</v>
       </c>
       <c r="I62" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H62&amp;"]:"&amp;B62&amp;","</f>
+        <f t="shared" si="6"/>
         <v>part1[12]:CentralContactPhoneExt,</v>
       </c>
     </row>
@@ -5959,14 +6000,14 @@
         <v>52</v>
       </c>
       <c r="C63" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>CentralContactRole = []</v>
       </c>
       <c r="E63" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F63" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">    if len(study_content['CentralContactRole']) ==0 :
         CentralContactRole.append(0)
     if len(study_content['CentralContactRole']) ==1 :
@@ -5981,7 +6022,7 @@
         <v>13</v>
       </c>
       <c r="I63" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H63&amp;"]:"&amp;B63&amp;","</f>
+        <f t="shared" si="6"/>
         <v>part1[13]:CentralContactRole,</v>
       </c>
     </row>
@@ -5990,14 +6031,14 @@
         <v>53</v>
       </c>
       <c r="C64" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>CollaboratorClass = []</v>
       </c>
       <c r="E64" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F64" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">    if len(study_content['CollaboratorClass']) ==0 :
         CollaboratorClass.append(0)
     if len(study_content['CollaboratorClass']) ==1 :
@@ -6012,7 +6053,7 @@
         <v>14</v>
       </c>
       <c r="I64" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H64&amp;"]:"&amp;B64&amp;","</f>
+        <f t="shared" si="6"/>
         <v>part1[14]:CollaboratorClass,</v>
       </c>
     </row>
@@ -6021,14 +6062,14 @@
         <v>54</v>
       </c>
       <c r="C65" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>CollaboratorName = []</v>
       </c>
       <c r="E65" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F65" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">    if len(study_content['CollaboratorName']) ==0 :
         CollaboratorName.append(0)
     if len(study_content['CollaboratorName']) ==1 :
@@ -6043,7 +6084,7 @@
         <v>15</v>
       </c>
       <c r="I65" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H65&amp;"]:"&amp;B65&amp;","</f>
+        <f t="shared" si="6"/>
         <v>part1[15]:CollaboratorName,</v>
       </c>
     </row>
@@ -6052,14 +6093,14 @@
         <v>55</v>
       </c>
       <c r="C66" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>CompletionDate = []</v>
       </c>
       <c r="E66" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F66" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">    if len(study_content['CompletionDate']) ==0 :
         CompletionDate.append(0)
     if len(study_content['CompletionDate']) ==1 :
@@ -6074,7 +6115,7 @@
         <v>16</v>
       </c>
       <c r="I66" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H66&amp;"]:"&amp;B66&amp;","</f>
+        <f t="shared" si="6"/>
         <v>part1[16]:CompletionDate,</v>
       </c>
     </row>
@@ -6083,14 +6124,14 @@
         <v>56</v>
       </c>
       <c r="C67" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>CompletionDateType = []</v>
       </c>
       <c r="E67" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F67" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">    if len(study_content['CompletionDateType']) ==0 :
         CompletionDateType.append(0)
     if len(study_content['CompletionDateType']) ==1 :
@@ -6105,7 +6146,7 @@
         <v>17</v>
       </c>
       <c r="I67" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H67&amp;"]:"&amp;B67&amp;","</f>
+        <f t="shared" si="6"/>
         <v>part1[17]:CompletionDateType,</v>
       </c>
     </row>
@@ -6114,14 +6155,14 @@
         <v>57</v>
       </c>
       <c r="C68" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>Condition = []</v>
       </c>
       <c r="E68" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F68" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">    if len(study_content['Condition']) ==0 :
         Condition.append(0)
     if len(study_content['Condition']) ==1 :
@@ -6136,7 +6177,7 @@
         <v>18</v>
       </c>
       <c r="I68" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H68&amp;"]:"&amp;B68&amp;","</f>
+        <f t="shared" si="6"/>
         <v>part1[18]:Condition,</v>
       </c>
     </row>
@@ -6145,14 +6186,14 @@
         <v>58</v>
       </c>
       <c r="C69" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>ConditionAncestorId = []</v>
       </c>
       <c r="E69" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F69" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">    if len(study_content['ConditionAncestorId']) ==0 :
         ConditionAncestorId.append(0)
     if len(study_content['ConditionAncestorId']) ==1 :
@@ -6242,7 +6283,7 @@
         <v>1</v>
       </c>
       <c r="I73" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H73&amp;"]:"&amp;B73&amp;","</f>
+        <f t="shared" ref="I73:I90" si="9">"part" &amp;$A$5&amp; "["&amp;H73&amp;"]:"&amp;B73&amp;","</f>
         <v>part1[1]:ConditionAncestorTerm,</v>
       </c>
     </row>
@@ -6251,14 +6292,14 @@
         <v>60</v>
       </c>
       <c r="C74" t="str">
-        <f t="shared" ref="C74:C91" si="6">B74&amp;" = []"</f>
+        <f t="shared" ref="C74:C91" si="10">B74&amp;" = []"</f>
         <v>ConditionBrowseBranchAbbrev = []</v>
       </c>
       <c r="E74" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F74" t="str">
-        <f t="shared" ref="F74:F91" si="7">SUBSTITUTE(E74,"AgreementOtherDetails",B74)</f>
+        <f t="shared" ref="F74:F91" si="11">SUBSTITUTE(E74,"AgreementOtherDetails",B74)</f>
         <v xml:space="preserve">    if len(study_content['ConditionBrowseBranchAbbrev']) ==0 :
         ConditionBrowseBranchAbbrev.append(0)
     if len(study_content['ConditionBrowseBranchAbbrev']) ==1 :
@@ -6273,7 +6314,7 @@
         <v>2</v>
       </c>
       <c r="I74" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H74&amp;"]:"&amp;B74&amp;","</f>
+        <f t="shared" si="9"/>
         <v>part1[2]:ConditionBrowseBranchAbbrev,</v>
       </c>
     </row>
@@ -6282,14 +6323,14 @@
         <v>61</v>
       </c>
       <c r="C75" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>ConditionBrowseBranchName = []</v>
       </c>
       <c r="E75" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F75" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">    if len(study_content['ConditionBrowseBranchName']) ==0 :
         ConditionBrowseBranchName.append(0)
     if len(study_content['ConditionBrowseBranchName']) ==1 :
@@ -6304,7 +6345,7 @@
         <v>3</v>
       </c>
       <c r="I75" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H75&amp;"]:"&amp;B75&amp;","</f>
+        <f t="shared" si="9"/>
         <v>part1[3]:ConditionBrowseBranchName,</v>
       </c>
     </row>
@@ -6313,14 +6354,14 @@
         <v>62</v>
       </c>
       <c r="C76" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>ConditionBrowseLeafAsFound = []</v>
       </c>
       <c r="E76" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F76" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">    if len(study_content['ConditionBrowseLeafAsFound']) ==0 :
         ConditionBrowseLeafAsFound.append(0)
     if len(study_content['ConditionBrowseLeafAsFound']) ==1 :
@@ -6335,7 +6376,7 @@
         <v>4</v>
       </c>
       <c r="I76" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H76&amp;"]:"&amp;B76&amp;","</f>
+        <f t="shared" si="9"/>
         <v>part1[4]:ConditionBrowseLeafAsFound,</v>
       </c>
     </row>
@@ -6344,14 +6385,14 @@
         <v>63</v>
       </c>
       <c r="C77" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>ConditionBrowseLeafId = []</v>
       </c>
       <c r="E77" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F77" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">    if len(study_content['ConditionBrowseLeafId']) ==0 :
         ConditionBrowseLeafId.append(0)
     if len(study_content['ConditionBrowseLeafId']) ==1 :
@@ -6366,7 +6407,7 @@
         <v>5</v>
       </c>
       <c r="I77" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H77&amp;"]:"&amp;B77&amp;","</f>
+        <f t="shared" si="9"/>
         <v>part1[5]:ConditionBrowseLeafId,</v>
       </c>
     </row>
@@ -6375,14 +6416,14 @@
         <v>64</v>
       </c>
       <c r="C78" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>ConditionBrowseLeafName = []</v>
       </c>
       <c r="E78" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F78" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">    if len(study_content['ConditionBrowseLeafName']) ==0 :
         ConditionBrowseLeafName.append(0)
     if len(study_content['ConditionBrowseLeafName']) ==1 :
@@ -6397,7 +6438,7 @@
         <v>6</v>
       </c>
       <c r="I78" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H78&amp;"]:"&amp;B78&amp;","</f>
+        <f t="shared" si="9"/>
         <v>part1[6]:ConditionBrowseLeafName,</v>
       </c>
     </row>
@@ -6406,14 +6447,14 @@
         <v>65</v>
       </c>
       <c r="C79" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>ConditionBrowseLeafRelevance = []</v>
       </c>
       <c r="E79" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F79" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">    if len(study_content['ConditionBrowseLeafRelevance']) ==0 :
         ConditionBrowseLeafRelevance.append(0)
     if len(study_content['ConditionBrowseLeafRelevance']) ==1 :
@@ -6428,7 +6469,7 @@
         <v>7</v>
       </c>
       <c r="I79" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H79&amp;"]:"&amp;B79&amp;","</f>
+        <f t="shared" si="9"/>
         <v>part1[7]:ConditionBrowseLeafRelevance,</v>
       </c>
     </row>
@@ -6437,14 +6478,14 @@
         <v>66</v>
       </c>
       <c r="C80" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>ConditionMeshId = []</v>
       </c>
       <c r="E80" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F80" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">    if len(study_content['ConditionMeshId']) ==0 :
         ConditionMeshId.append(0)
     if len(study_content['ConditionMeshId']) ==1 :
@@ -6459,7 +6500,7 @@
         <v>8</v>
       </c>
       <c r="I80" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H80&amp;"]:"&amp;B80&amp;","</f>
+        <f t="shared" si="9"/>
         <v>part1[8]:ConditionMeshId,</v>
       </c>
     </row>
@@ -6468,14 +6509,14 @@
         <v>67</v>
       </c>
       <c r="C81" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>ConditionMeshTerm = []</v>
       </c>
       <c r="E81" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F81" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">    if len(study_content['ConditionMeshTerm']) ==0 :
         ConditionMeshTerm.append(0)
     if len(study_content['ConditionMeshTerm']) ==1 :
@@ -6490,7 +6531,7 @@
         <v>9</v>
       </c>
       <c r="I81" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H81&amp;"]:"&amp;B81&amp;","</f>
+        <f t="shared" si="9"/>
         <v>part1[9]:ConditionMeshTerm,</v>
       </c>
     </row>
@@ -6499,14 +6540,14 @@
         <v>68</v>
       </c>
       <c r="C82" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>DelayedPosting = []</v>
       </c>
       <c r="E82" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F82" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">    if len(study_content['DelayedPosting']) ==0 :
         DelayedPosting.append(0)
     if len(study_content['DelayedPosting']) ==1 :
@@ -6521,7 +6562,7 @@
         <v>10</v>
       </c>
       <c r="I82" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H82&amp;"]:"&amp;B82&amp;","</f>
+        <f t="shared" si="9"/>
         <v>part1[10]:DelayedPosting,</v>
       </c>
     </row>
@@ -6530,14 +6571,14 @@
         <v>69</v>
       </c>
       <c r="C83" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>DesignAllocation = []</v>
       </c>
       <c r="E83" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F83" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">    if len(study_content['DesignAllocation']) ==0 :
         DesignAllocation.append(0)
     if len(study_content['DesignAllocation']) ==1 :
@@ -6552,7 +6593,7 @@
         <v>11</v>
       </c>
       <c r="I83" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H83&amp;"]:"&amp;B83&amp;","</f>
+        <f t="shared" si="9"/>
         <v>part1[11]:DesignAllocation,</v>
       </c>
     </row>
@@ -6561,14 +6602,14 @@
         <v>70</v>
       </c>
       <c r="C84" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>DesignInterventionModel = []</v>
       </c>
       <c r="E84" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F84" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">    if len(study_content['DesignInterventionModel']) ==0 :
         DesignInterventionModel.append(0)
     if len(study_content['DesignInterventionModel']) ==1 :
@@ -6583,7 +6624,7 @@
         <v>12</v>
       </c>
       <c r="I84" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H84&amp;"]:"&amp;B84&amp;","</f>
+        <f t="shared" si="9"/>
         <v>part1[12]:DesignInterventionModel,</v>
       </c>
     </row>
@@ -6592,14 +6633,14 @@
         <v>71</v>
       </c>
       <c r="C85" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>DesignInterventionModelDescription = []</v>
       </c>
       <c r="E85" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F85" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">    if len(study_content['DesignInterventionModelDescription']) ==0 :
         DesignInterventionModelDescription.append(0)
     if len(study_content['DesignInterventionModelDescription']) ==1 :
@@ -6614,7 +6655,7 @@
         <v>13</v>
       </c>
       <c r="I85" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H85&amp;"]:"&amp;B85&amp;","</f>
+        <f t="shared" si="9"/>
         <v>part1[13]:DesignInterventionModelDescription,</v>
       </c>
     </row>
@@ -6623,14 +6664,14 @@
         <v>72</v>
       </c>
       <c r="C86" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>DesignMasking = []</v>
       </c>
       <c r="E86" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F86" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">    if len(study_content['DesignMasking']) ==0 :
         DesignMasking.append(0)
     if len(study_content['DesignMasking']) ==1 :
@@ -6645,7 +6686,7 @@
         <v>14</v>
       </c>
       <c r="I86" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H86&amp;"]:"&amp;B86&amp;","</f>
+        <f t="shared" si="9"/>
         <v>part1[14]:DesignMasking,</v>
       </c>
     </row>
@@ -6654,14 +6695,14 @@
         <v>73</v>
       </c>
       <c r="C87" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>DesignMaskingDescription = []</v>
       </c>
       <c r="E87" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F87" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">    if len(study_content['DesignMaskingDescription']) ==0 :
         DesignMaskingDescription.append(0)
     if len(study_content['DesignMaskingDescription']) ==1 :
@@ -6676,7 +6717,7 @@
         <v>15</v>
       </c>
       <c r="I87" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H87&amp;"]:"&amp;B87&amp;","</f>
+        <f t="shared" si="9"/>
         <v>part1[15]:DesignMaskingDescription,</v>
       </c>
     </row>
@@ -6685,14 +6726,14 @@
         <v>74</v>
       </c>
       <c r="C88" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>DesignObservationalModel = []</v>
       </c>
       <c r="E88" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F88" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">    if len(study_content['DesignObservationalModel']) ==0 :
         DesignObservationalModel.append(0)
     if len(study_content['DesignObservationalModel']) ==1 :
@@ -6707,7 +6748,7 @@
         <v>16</v>
       </c>
       <c r="I88" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H88&amp;"]:"&amp;B88&amp;","</f>
+        <f t="shared" si="9"/>
         <v>part1[16]:DesignObservationalModel,</v>
       </c>
     </row>
@@ -6716,14 +6757,14 @@
         <v>75</v>
       </c>
       <c r="C89" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>DesignPrimaryPurpose = []</v>
       </c>
       <c r="E89" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F89" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">    if len(study_content['DesignPrimaryPurpose']) ==0 :
         DesignPrimaryPurpose.append(0)
     if len(study_content['DesignPrimaryPurpose']) ==1 :
@@ -6738,7 +6779,7 @@
         <v>17</v>
       </c>
       <c r="I89" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H89&amp;"]:"&amp;B89&amp;","</f>
+        <f t="shared" si="9"/>
         <v>part1[17]:DesignPrimaryPurpose,</v>
       </c>
     </row>
@@ -6747,14 +6788,14 @@
         <v>76</v>
       </c>
       <c r="C90" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>DesignTimePerspective = []</v>
       </c>
       <c r="E90" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F90" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">    if len(study_content['DesignTimePerspective']) ==0 :
         DesignTimePerspective.append(0)
     if len(study_content['DesignTimePerspective']) ==1 :
@@ -6769,7 +6810,7 @@
         <v>18</v>
       </c>
       <c r="I90" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H90&amp;"]:"&amp;B90&amp;","</f>
+        <f t="shared" si="9"/>
         <v>part1[18]:DesignTimePerspective,</v>
       </c>
     </row>
@@ -6778,14 +6819,14 @@
         <v>77</v>
       </c>
       <c r="C91" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>DesignWhoMasked = []</v>
       </c>
       <c r="E91" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F91" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">    if len(study_content['DesignWhoMasked']) ==0 :
         DesignWhoMasked.append(0)
     if len(study_content['DesignWhoMasked']) ==1 :
@@ -6875,7 +6916,7 @@
         <v>1</v>
       </c>
       <c r="I95" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H95&amp;"]:"&amp;B95&amp;","</f>
+        <f t="shared" ref="I95:I112" si="12">"part" &amp;$A$5&amp; "["&amp;H95&amp;"]:"&amp;B95&amp;","</f>
         <v>part1[1]:DetailedDescription,</v>
       </c>
     </row>
@@ -6884,14 +6925,14 @@
         <v>79</v>
       </c>
       <c r="C96" t="str">
-        <f t="shared" ref="C96:C113" si="8">B96&amp;" = []"</f>
+        <f t="shared" ref="C96:C113" si="13">B96&amp;" = []"</f>
         <v>DispFirstPostDate = []</v>
       </c>
       <c r="E96" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F96" t="str">
-        <f t="shared" ref="F96:F113" si="9">SUBSTITUTE(E96,"AgreementOtherDetails",B96)</f>
+        <f t="shared" ref="F96:F113" si="14">SUBSTITUTE(E96,"AgreementOtherDetails",B96)</f>
         <v xml:space="preserve">    if len(study_content['DispFirstPostDate']) ==0 :
         DispFirstPostDate.append(0)
     if len(study_content['DispFirstPostDate']) ==1 :
@@ -6906,7 +6947,7 @@
         <v>2</v>
       </c>
       <c r="I96" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H96&amp;"]:"&amp;B96&amp;","</f>
+        <f t="shared" si="12"/>
         <v>part1[2]:DispFirstPostDate,</v>
       </c>
     </row>
@@ -6915,14 +6956,14 @@
         <v>80</v>
       </c>
       <c r="C97" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>DispFirstPostDateType = []</v>
       </c>
       <c r="E97" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F97" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v xml:space="preserve">    if len(study_content['DispFirstPostDateType']) ==0 :
         DispFirstPostDateType.append(0)
     if len(study_content['DispFirstPostDateType']) ==1 :
@@ -6937,7 +6978,7 @@
         <v>3</v>
       </c>
       <c r="I97" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H97&amp;"]:"&amp;B97&amp;","</f>
+        <f t="shared" si="12"/>
         <v>part1[3]:DispFirstPostDateType,</v>
       </c>
     </row>
@@ -6946,14 +6987,14 @@
         <v>81</v>
       </c>
       <c r="C98" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>DispFirstSubmitDate = []</v>
       </c>
       <c r="E98" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F98" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v xml:space="preserve">    if len(study_content['DispFirstSubmitDate']) ==0 :
         DispFirstSubmitDate.append(0)
     if len(study_content['DispFirstSubmitDate']) ==1 :
@@ -6968,7 +7009,7 @@
         <v>4</v>
       </c>
       <c r="I98" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H98&amp;"]:"&amp;B98&amp;","</f>
+        <f t="shared" si="12"/>
         <v>part1[4]:DispFirstSubmitDate,</v>
       </c>
     </row>
@@ -6977,14 +7018,14 @@
         <v>82</v>
       </c>
       <c r="C99" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>DispFirstSubmitQCDate = []</v>
       </c>
       <c r="E99" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F99" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v xml:space="preserve">    if len(study_content['DispFirstSubmitQCDate']) ==0 :
         DispFirstSubmitQCDate.append(0)
     if len(study_content['DispFirstSubmitQCDate']) ==1 :
@@ -6999,7 +7040,7 @@
         <v>5</v>
       </c>
       <c r="I99" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H99&amp;"]:"&amp;B99&amp;","</f>
+        <f t="shared" si="12"/>
         <v>part1[5]:DispFirstSubmitQCDate,</v>
       </c>
     </row>
@@ -7008,14 +7049,14 @@
         <v>83</v>
       </c>
       <c r="C100" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>EligibilityCriteria = []</v>
       </c>
       <c r="E100" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F100" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v xml:space="preserve">    if len(study_content['EligibilityCriteria']) ==0 :
         EligibilityCriteria.append(0)
     if len(study_content['EligibilityCriteria']) ==1 :
@@ -7030,7 +7071,7 @@
         <v>6</v>
       </c>
       <c r="I100" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H100&amp;"]:"&amp;B100&amp;","</f>
+        <f t="shared" si="12"/>
         <v>part1[6]:EligibilityCriteria,</v>
       </c>
     </row>
@@ -7039,14 +7080,14 @@
         <v>84</v>
       </c>
       <c r="C101" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>EnrollmentCount = []</v>
       </c>
       <c r="E101" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F101" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v xml:space="preserve">    if len(study_content['EnrollmentCount']) ==0 :
         EnrollmentCount.append(0)
     if len(study_content['EnrollmentCount']) ==1 :
@@ -7061,7 +7102,7 @@
         <v>7</v>
       </c>
       <c r="I101" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H101&amp;"]:"&amp;B101&amp;","</f>
+        <f t="shared" si="12"/>
         <v>part1[7]:EnrollmentCount,</v>
       </c>
     </row>
@@ -7070,14 +7111,14 @@
         <v>85</v>
       </c>
       <c r="C102" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>EnrollmentType = []</v>
       </c>
       <c r="E102" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F102" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v xml:space="preserve">    if len(study_content['EnrollmentType']) ==0 :
         EnrollmentType.append(0)
     if len(study_content['EnrollmentType']) ==1 :
@@ -7092,7 +7133,7 @@
         <v>8</v>
       </c>
       <c r="I102" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H102&amp;"]:"&amp;B102&amp;","</f>
+        <f t="shared" si="12"/>
         <v>part1[8]:EnrollmentType,</v>
       </c>
     </row>
@@ -7101,14 +7142,14 @@
         <v>86</v>
       </c>
       <c r="C103" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>EventGroupDeathsNumAffected = []</v>
       </c>
       <c r="E103" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F103" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v xml:space="preserve">    if len(study_content['EventGroupDeathsNumAffected']) ==0 :
         EventGroupDeathsNumAffected.append(0)
     if len(study_content['EventGroupDeathsNumAffected']) ==1 :
@@ -7123,7 +7164,7 @@
         <v>9</v>
       </c>
       <c r="I103" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H103&amp;"]:"&amp;B103&amp;","</f>
+        <f t="shared" si="12"/>
         <v>part1[9]:EventGroupDeathsNumAffected,</v>
       </c>
     </row>
@@ -7132,14 +7173,14 @@
         <v>87</v>
       </c>
       <c r="C104" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>EventGroupDeathsNumAtRisk = []</v>
       </c>
       <c r="E104" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F104" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v xml:space="preserve">    if len(study_content['EventGroupDeathsNumAtRisk']) ==0 :
         EventGroupDeathsNumAtRisk.append(0)
     if len(study_content['EventGroupDeathsNumAtRisk']) ==1 :
@@ -7154,7 +7195,7 @@
         <v>10</v>
       </c>
       <c r="I104" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H104&amp;"]:"&amp;B104&amp;","</f>
+        <f t="shared" si="12"/>
         <v>part1[10]:EventGroupDeathsNumAtRisk,</v>
       </c>
     </row>
@@ -7163,14 +7204,14 @@
         <v>88</v>
       </c>
       <c r="C105" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>EventGroupDescription = []</v>
       </c>
       <c r="E105" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F105" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v xml:space="preserve">    if len(study_content['EventGroupDescription']) ==0 :
         EventGroupDescription.append(0)
     if len(study_content['EventGroupDescription']) ==1 :
@@ -7185,7 +7226,7 @@
         <v>11</v>
       </c>
       <c r="I105" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H105&amp;"]:"&amp;B105&amp;","</f>
+        <f t="shared" si="12"/>
         <v>part1[11]:EventGroupDescription,</v>
       </c>
     </row>
@@ -7194,14 +7235,14 @@
         <v>89</v>
       </c>
       <c r="C106" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>EventGroupId = []</v>
       </c>
       <c r="E106" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F106" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v xml:space="preserve">    if len(study_content['EventGroupId']) ==0 :
         EventGroupId.append(0)
     if len(study_content['EventGroupId']) ==1 :
@@ -7216,7 +7257,7 @@
         <v>12</v>
       </c>
       <c r="I106" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H106&amp;"]:"&amp;B106&amp;","</f>
+        <f t="shared" si="12"/>
         <v>part1[12]:EventGroupId,</v>
       </c>
     </row>
@@ -7225,14 +7266,14 @@
         <v>90</v>
       </c>
       <c r="C107" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>EventGroupOtherNumAffected = []</v>
       </c>
       <c r="E107" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F107" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v xml:space="preserve">    if len(study_content['EventGroupOtherNumAffected']) ==0 :
         EventGroupOtherNumAffected.append(0)
     if len(study_content['EventGroupOtherNumAffected']) ==1 :
@@ -7247,7 +7288,7 @@
         <v>13</v>
       </c>
       <c r="I107" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H107&amp;"]:"&amp;B107&amp;","</f>
+        <f t="shared" si="12"/>
         <v>part1[13]:EventGroupOtherNumAffected,</v>
       </c>
     </row>
@@ -7256,14 +7297,14 @@
         <v>91</v>
       </c>
       <c r="C108" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>EventGroupOtherNumAtRisk = []</v>
       </c>
       <c r="E108" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F108" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v xml:space="preserve">    if len(study_content['EventGroupOtherNumAtRisk']) ==0 :
         EventGroupOtherNumAtRisk.append(0)
     if len(study_content['EventGroupOtherNumAtRisk']) ==1 :
@@ -7278,7 +7319,7 @@
         <v>14</v>
       </c>
       <c r="I108" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H108&amp;"]:"&amp;B108&amp;","</f>
+        <f t="shared" si="12"/>
         <v>part1[14]:EventGroupOtherNumAtRisk,</v>
       </c>
     </row>
@@ -7287,14 +7328,14 @@
         <v>92</v>
       </c>
       <c r="C109" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>EventGroupSeriousNumAffected = []</v>
       </c>
       <c r="E109" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F109" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v xml:space="preserve">    if len(study_content['EventGroupSeriousNumAffected']) ==0 :
         EventGroupSeriousNumAffected.append(0)
     if len(study_content['EventGroupSeriousNumAffected']) ==1 :
@@ -7309,7 +7350,7 @@
         <v>15</v>
       </c>
       <c r="I109" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H109&amp;"]:"&amp;B109&amp;","</f>
+        <f t="shared" si="12"/>
         <v>part1[15]:EventGroupSeriousNumAffected,</v>
       </c>
     </row>
@@ -7318,14 +7359,14 @@
         <v>93</v>
       </c>
       <c r="C110" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>EventGroupSeriousNumAtRisk = []</v>
       </c>
       <c r="E110" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F110" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v xml:space="preserve">    if len(study_content['EventGroupSeriousNumAtRisk']) ==0 :
         EventGroupSeriousNumAtRisk.append(0)
     if len(study_content['EventGroupSeriousNumAtRisk']) ==1 :
@@ -7340,7 +7381,7 @@
         <v>16</v>
       </c>
       <c r="I110" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H110&amp;"]:"&amp;B110&amp;","</f>
+        <f t="shared" si="12"/>
         <v>part1[16]:EventGroupSeriousNumAtRisk,</v>
       </c>
     </row>
@@ -7349,14 +7390,14 @@
         <v>94</v>
       </c>
       <c r="C111" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>EventGroupTitle = []</v>
       </c>
       <c r="E111" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F111" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v xml:space="preserve">    if len(study_content['EventGroupTitle']) ==0 :
         EventGroupTitle.append(0)
     if len(study_content['EventGroupTitle']) ==1 :
@@ -7371,7 +7412,7 @@
         <v>17</v>
       </c>
       <c r="I111" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H111&amp;"]:"&amp;B111&amp;","</f>
+        <f t="shared" si="12"/>
         <v>part1[17]:EventGroupTitle,</v>
       </c>
     </row>
@@ -7380,14 +7421,14 @@
         <v>95</v>
       </c>
       <c r="C112" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>EventsDescription = []</v>
       </c>
       <c r="E112" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F112" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v xml:space="preserve">    if len(study_content['EventsDescription']) ==0 :
         EventsDescription.append(0)
     if len(study_content['EventsDescription']) ==1 :
@@ -7402,7 +7443,7 @@
         <v>18</v>
       </c>
       <c r="I112" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H112&amp;"]:"&amp;B112&amp;","</f>
+        <f t="shared" si="12"/>
         <v>part1[18]:EventsDescription,</v>
       </c>
     </row>
@@ -7411,14 +7452,14 @@
         <v>96</v>
       </c>
       <c r="C113" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>EventsFrequencyThreshold = []</v>
       </c>
       <c r="E113" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F113" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v xml:space="preserve">    if len(study_content['EventsFrequencyThreshold']) ==0 :
         EventsFrequencyThreshold.append(0)
     if len(study_content['EventsFrequencyThreshold']) ==1 :
@@ -7508,7 +7549,7 @@
         <v>1</v>
       </c>
       <c r="I117" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H117&amp;"]:"&amp;B117&amp;","</f>
+        <f t="shared" ref="I117:I134" si="15">"part" &amp;$A$5&amp; "["&amp;H117&amp;"]:"&amp;B117&amp;","</f>
         <v>part1[1]:EventsTimeFrame,</v>
       </c>
     </row>
@@ -7517,14 +7558,14 @@
         <v>98</v>
       </c>
       <c r="C118" t="str">
-        <f t="shared" ref="C118:C135" si="10">B118&amp;" = []"</f>
+        <f t="shared" ref="C118:C135" si="16">B118&amp;" = []"</f>
         <v>ExpAccTypeIndividual = []</v>
       </c>
       <c r="E118" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F118" t="str">
-        <f t="shared" ref="F118:F135" si="11">SUBSTITUTE(E118,"AgreementOtherDetails",B118)</f>
+        <f t="shared" ref="F118:F135" si="17">SUBSTITUTE(E118,"AgreementOtherDetails",B118)</f>
         <v xml:space="preserve">    if len(study_content['ExpAccTypeIndividual']) ==0 :
         ExpAccTypeIndividual.append(0)
     if len(study_content['ExpAccTypeIndividual']) ==1 :
@@ -7539,7 +7580,7 @@
         <v>2</v>
       </c>
       <c r="I118" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H118&amp;"]:"&amp;B118&amp;","</f>
+        <f t="shared" si="15"/>
         <v>part1[2]:ExpAccTypeIndividual,</v>
       </c>
     </row>
@@ -7548,14 +7589,14 @@
         <v>99</v>
       </c>
       <c r="C119" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>ExpAccTypeIntermediate = []</v>
       </c>
       <c r="E119" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F119" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">    if len(study_content['ExpAccTypeIntermediate']) ==0 :
         ExpAccTypeIntermediate.append(0)
     if len(study_content['ExpAccTypeIntermediate']) ==1 :
@@ -7570,7 +7611,7 @@
         <v>3</v>
       </c>
       <c r="I119" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H119&amp;"]:"&amp;B119&amp;","</f>
+        <f t="shared" si="15"/>
         <v>part1[3]:ExpAccTypeIntermediate,</v>
       </c>
     </row>
@@ -7579,14 +7620,14 @@
         <v>100</v>
       </c>
       <c r="C120" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>ExpAccTypeTreatment = []</v>
       </c>
       <c r="E120" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F120" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">    if len(study_content['ExpAccTypeTreatment']) ==0 :
         ExpAccTypeTreatment.append(0)
     if len(study_content['ExpAccTypeTreatment']) ==1 :
@@ -7601,7 +7642,7 @@
         <v>4</v>
       </c>
       <c r="I120" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H120&amp;"]:"&amp;B120&amp;","</f>
+        <f t="shared" si="15"/>
         <v>part1[4]:ExpAccTypeTreatment,</v>
       </c>
     </row>
@@ -7610,14 +7651,14 @@
         <v>101</v>
       </c>
       <c r="C121" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>ExpandedAccessNCTId = []</v>
       </c>
       <c r="E121" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F121" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">    if len(study_content['ExpandedAccessNCTId']) ==0 :
         ExpandedAccessNCTId.append(0)
     if len(study_content['ExpandedAccessNCTId']) ==1 :
@@ -7632,7 +7673,7 @@
         <v>5</v>
       </c>
       <c r="I121" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H121&amp;"]:"&amp;B121&amp;","</f>
+        <f t="shared" si="15"/>
         <v>part1[5]:ExpandedAccessNCTId,</v>
       </c>
     </row>
@@ -7641,14 +7682,14 @@
         <v>102</v>
       </c>
       <c r="C122" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>ExpandedAccessStatusForNCTId = []</v>
       </c>
       <c r="E122" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F122" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">    if len(study_content['ExpandedAccessStatusForNCTId']) ==0 :
         ExpandedAccessStatusForNCTId.append(0)
     if len(study_content['ExpandedAccessStatusForNCTId']) ==1 :
@@ -7663,7 +7704,7 @@
         <v>6</v>
       </c>
       <c r="I122" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H122&amp;"]:"&amp;B122&amp;","</f>
+        <f t="shared" si="15"/>
         <v>part1[6]:ExpandedAccessStatusForNCTId,</v>
       </c>
     </row>
@@ -7672,14 +7713,14 @@
         <v>103</v>
       </c>
       <c r="C123" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>FlowAchievementComment = []</v>
       </c>
       <c r="E123" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F123" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">    if len(study_content['FlowAchievementComment']) ==0 :
         FlowAchievementComment.append(0)
     if len(study_content['FlowAchievementComment']) ==1 :
@@ -7694,7 +7735,7 @@
         <v>7</v>
       </c>
       <c r="I123" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H123&amp;"]:"&amp;B123&amp;","</f>
+        <f t="shared" si="15"/>
         <v>part1[7]:FlowAchievementComment,</v>
       </c>
     </row>
@@ -7703,14 +7744,14 @@
         <v>104</v>
       </c>
       <c r="C124" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>FlowAchievementGroupId = []</v>
       </c>
       <c r="E124" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F124" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">    if len(study_content['FlowAchievementGroupId']) ==0 :
         FlowAchievementGroupId.append(0)
     if len(study_content['FlowAchievementGroupId']) ==1 :
@@ -7725,7 +7766,7 @@
         <v>8</v>
       </c>
       <c r="I124" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H124&amp;"]:"&amp;B124&amp;","</f>
+        <f t="shared" si="15"/>
         <v>part1[8]:FlowAchievementGroupId,</v>
       </c>
     </row>
@@ -7734,14 +7775,14 @@
         <v>105</v>
       </c>
       <c r="C125" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>FlowAchievementNumSubjects = []</v>
       </c>
       <c r="E125" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F125" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">    if len(study_content['FlowAchievementNumSubjects']) ==0 :
         FlowAchievementNumSubjects.append(0)
     if len(study_content['FlowAchievementNumSubjects']) ==1 :
@@ -7756,7 +7797,7 @@
         <v>9</v>
       </c>
       <c r="I125" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H125&amp;"]:"&amp;B125&amp;","</f>
+        <f t="shared" si="15"/>
         <v>part1[9]:FlowAchievementNumSubjects,</v>
       </c>
     </row>
@@ -7765,14 +7806,14 @@
         <v>106</v>
       </c>
       <c r="C126" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>FlowAchievementNumUnits = []</v>
       </c>
       <c r="E126" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F126" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">    if len(study_content['FlowAchievementNumUnits']) ==0 :
         FlowAchievementNumUnits.append(0)
     if len(study_content['FlowAchievementNumUnits']) ==1 :
@@ -7787,7 +7828,7 @@
         <v>10</v>
       </c>
       <c r="I126" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H126&amp;"]:"&amp;B126&amp;","</f>
+        <f t="shared" si="15"/>
         <v>part1[10]:FlowAchievementNumUnits,</v>
       </c>
     </row>
@@ -7796,14 +7837,14 @@
         <v>107</v>
       </c>
       <c r="C127" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>FlowDropWithdrawComment = []</v>
       </c>
       <c r="E127" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F127" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">    if len(study_content['FlowDropWithdrawComment']) ==0 :
         FlowDropWithdrawComment.append(0)
     if len(study_content['FlowDropWithdrawComment']) ==1 :
@@ -7818,7 +7859,7 @@
         <v>11</v>
       </c>
       <c r="I127" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H127&amp;"]:"&amp;B127&amp;","</f>
+        <f t="shared" si="15"/>
         <v>part1[11]:FlowDropWithdrawComment,</v>
       </c>
     </row>
@@ -7827,14 +7868,14 @@
         <v>108</v>
       </c>
       <c r="C128" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>FlowDropWithdrawType = []</v>
       </c>
       <c r="E128" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F128" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">    if len(study_content['FlowDropWithdrawType']) ==0 :
         FlowDropWithdrawType.append(0)
     if len(study_content['FlowDropWithdrawType']) ==1 :
@@ -7849,7 +7890,7 @@
         <v>12</v>
       </c>
       <c r="I128" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H128&amp;"]:"&amp;B128&amp;","</f>
+        <f t="shared" si="15"/>
         <v>part1[12]:FlowDropWithdrawType,</v>
       </c>
     </row>
@@ -7858,14 +7899,14 @@
         <v>109</v>
       </c>
       <c r="C129" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>FlowGroupDescription = []</v>
       </c>
       <c r="E129" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F129" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">    if len(study_content['FlowGroupDescription']) ==0 :
         FlowGroupDescription.append(0)
     if len(study_content['FlowGroupDescription']) ==1 :
@@ -7880,7 +7921,7 @@
         <v>13</v>
       </c>
       <c r="I129" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H129&amp;"]:"&amp;B129&amp;","</f>
+        <f t="shared" si="15"/>
         <v>part1[13]:FlowGroupDescription,</v>
       </c>
     </row>
@@ -7889,14 +7930,14 @@
         <v>110</v>
       </c>
       <c r="C130" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>FlowGroupId = []</v>
       </c>
       <c r="E130" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F130" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">    if len(study_content['FlowGroupId']) ==0 :
         FlowGroupId.append(0)
     if len(study_content['FlowGroupId']) ==1 :
@@ -7911,7 +7952,7 @@
         <v>14</v>
       </c>
       <c r="I130" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H130&amp;"]:"&amp;B130&amp;","</f>
+        <f t="shared" si="15"/>
         <v>part1[14]:FlowGroupId,</v>
       </c>
     </row>
@@ -7920,14 +7961,14 @@
         <v>111</v>
       </c>
       <c r="C131" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>FlowGroupTitle = []</v>
       </c>
       <c r="E131" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F131" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">    if len(study_content['FlowGroupTitle']) ==0 :
         FlowGroupTitle.append(0)
     if len(study_content['FlowGroupTitle']) ==1 :
@@ -7942,7 +7983,7 @@
         <v>15</v>
       </c>
       <c r="I131" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H131&amp;"]:"&amp;B131&amp;","</f>
+        <f t="shared" si="15"/>
         <v>part1[15]:FlowGroupTitle,</v>
       </c>
     </row>
@@ -7951,14 +7992,14 @@
         <v>112</v>
       </c>
       <c r="C132" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>FlowMilestoneComment = []</v>
       </c>
       <c r="E132" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F132" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">    if len(study_content['FlowMilestoneComment']) ==0 :
         FlowMilestoneComment.append(0)
     if len(study_content['FlowMilestoneComment']) ==1 :
@@ -7973,7 +8014,7 @@
         <v>16</v>
       </c>
       <c r="I132" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H132&amp;"]:"&amp;B132&amp;","</f>
+        <f t="shared" si="15"/>
         <v>part1[16]:FlowMilestoneComment,</v>
       </c>
     </row>
@@ -7982,14 +8023,14 @@
         <v>113</v>
       </c>
       <c r="C133" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>FlowMilestoneType = []</v>
       </c>
       <c r="E133" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F133" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">    if len(study_content['FlowMilestoneType']) ==0 :
         FlowMilestoneType.append(0)
     if len(study_content['FlowMilestoneType']) ==1 :
@@ -8004,7 +8045,7 @@
         <v>17</v>
       </c>
       <c r="I133" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H133&amp;"]:"&amp;B133&amp;","</f>
+        <f t="shared" si="15"/>
         <v>part1[17]:FlowMilestoneType,</v>
       </c>
     </row>
@@ -8013,14 +8054,14 @@
         <v>114</v>
       </c>
       <c r="C134" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>FlowPeriodTitle = []</v>
       </c>
       <c r="E134" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F134" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">    if len(study_content['FlowPeriodTitle']) ==0 :
         FlowPeriodTitle.append(0)
     if len(study_content['FlowPeriodTitle']) ==1 :
@@ -8035,7 +8076,7 @@
         <v>18</v>
       </c>
       <c r="I134" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H134&amp;"]:"&amp;B134&amp;","</f>
+        <f t="shared" si="15"/>
         <v>part1[18]:FlowPeriodTitle,</v>
       </c>
     </row>
@@ -8044,14 +8085,14 @@
         <v>115</v>
       </c>
       <c r="C135" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>FlowPreAssignmentDetails = []</v>
       </c>
       <c r="E135" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F135" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">    if len(study_content['FlowPreAssignmentDetails']) ==0 :
         FlowPreAssignmentDetails.append(0)
     if len(study_content['FlowPreAssignmentDetails']) ==1 :
@@ -8141,7 +8182,7 @@
         <v>1</v>
       </c>
       <c r="I139" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H139&amp;"]:"&amp;B139&amp;","</f>
+        <f t="shared" ref="I139:I156" si="18">"part" &amp;$A$5&amp; "["&amp;H139&amp;"]:"&amp;B139&amp;","</f>
         <v>part1[1]:FlowReasonComment,</v>
       </c>
     </row>
@@ -8150,14 +8191,14 @@
         <v>117</v>
       </c>
       <c r="C140" t="str">
-        <f t="shared" ref="C140:C157" si="12">B140&amp;" = []"</f>
+        <f t="shared" ref="C140:C157" si="19">B140&amp;" = []"</f>
         <v>FlowReasonGroupId = []</v>
       </c>
       <c r="E140" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F140" t="str">
-        <f t="shared" ref="F140:F157" si="13">SUBSTITUTE(E140,"AgreementOtherDetails",B140)</f>
+        <f t="shared" ref="F140:F157" si="20">SUBSTITUTE(E140,"AgreementOtherDetails",B140)</f>
         <v xml:space="preserve">    if len(study_content['FlowReasonGroupId']) ==0 :
         FlowReasonGroupId.append(0)
     if len(study_content['FlowReasonGroupId']) ==1 :
@@ -8172,7 +8213,7 @@
         <v>2</v>
       </c>
       <c r="I140" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H140&amp;"]:"&amp;B140&amp;","</f>
+        <f t="shared" si="18"/>
         <v>part1[2]:FlowReasonGroupId,</v>
       </c>
     </row>
@@ -8181,14 +8222,14 @@
         <v>118</v>
       </c>
       <c r="C141" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>FlowReasonNumSubjects = []</v>
       </c>
       <c r="E141" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F141" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve">    if len(study_content['FlowReasonNumSubjects']) ==0 :
         FlowReasonNumSubjects.append(0)
     if len(study_content['FlowReasonNumSubjects']) ==1 :
@@ -8203,7 +8244,7 @@
         <v>3</v>
       </c>
       <c r="I141" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H141&amp;"]:"&amp;B141&amp;","</f>
+        <f t="shared" si="18"/>
         <v>part1[3]:FlowReasonNumSubjects,</v>
       </c>
     </row>
@@ -8212,14 +8253,14 @@
         <v>119</v>
       </c>
       <c r="C142" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>FlowReasonNumUnits = []</v>
       </c>
       <c r="E142" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F142" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve">    if len(study_content['FlowReasonNumUnits']) ==0 :
         FlowReasonNumUnits.append(0)
     if len(study_content['FlowReasonNumUnits']) ==1 :
@@ -8234,7 +8275,7 @@
         <v>4</v>
       </c>
       <c r="I142" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H142&amp;"]:"&amp;B142&amp;","</f>
+        <f t="shared" si="18"/>
         <v>part1[4]:FlowReasonNumUnits,</v>
       </c>
     </row>
@@ -8243,14 +8284,14 @@
         <v>120</v>
       </c>
       <c r="C143" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>FlowRecruitmentDetails = []</v>
       </c>
       <c r="E143" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F143" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve">    if len(study_content['FlowRecruitmentDetails']) ==0 :
         FlowRecruitmentDetails.append(0)
     if len(study_content['FlowRecruitmentDetails']) ==1 :
@@ -8265,7 +8306,7 @@
         <v>5</v>
       </c>
       <c r="I143" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H143&amp;"]:"&amp;B143&amp;","</f>
+        <f t="shared" si="18"/>
         <v>part1[5]:FlowRecruitmentDetails,</v>
       </c>
     </row>
@@ -8274,14 +8315,14 @@
         <v>121</v>
       </c>
       <c r="C144" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>FlowTypeUnitsAnalyzed = []</v>
       </c>
       <c r="E144" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F144" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve">    if len(study_content['FlowTypeUnitsAnalyzed']) ==0 :
         FlowTypeUnitsAnalyzed.append(0)
     if len(study_content['FlowTypeUnitsAnalyzed']) ==1 :
@@ -8296,7 +8337,7 @@
         <v>6</v>
       </c>
       <c r="I144" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H144&amp;"]:"&amp;B144&amp;","</f>
+        <f t="shared" si="18"/>
         <v>part1[6]:FlowTypeUnitsAnalyzed,</v>
       </c>
     </row>
@@ -8305,14 +8346,14 @@
         <v>122</v>
       </c>
       <c r="C145" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>Gender = []</v>
       </c>
       <c r="E145" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F145" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve">    if len(study_content['Gender']) ==0 :
         Gender.append(0)
     if len(study_content['Gender']) ==1 :
@@ -8327,7 +8368,7 @@
         <v>7</v>
       </c>
       <c r="I145" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H145&amp;"]:"&amp;B145&amp;","</f>
+        <f t="shared" si="18"/>
         <v>part1[7]:Gender,</v>
       </c>
     </row>
@@ -8336,14 +8377,14 @@
         <v>123</v>
       </c>
       <c r="C146" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>GenderBased = []</v>
       </c>
       <c r="E146" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F146" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve">    if len(study_content['GenderBased']) ==0 :
         GenderBased.append(0)
     if len(study_content['GenderBased']) ==1 :
@@ -8358,7 +8399,7 @@
         <v>8</v>
       </c>
       <c r="I146" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H146&amp;"]:"&amp;B146&amp;","</f>
+        <f t="shared" si="18"/>
         <v>part1[8]:GenderBased,</v>
       </c>
     </row>
@@ -8367,14 +8408,14 @@
         <v>124</v>
       </c>
       <c r="C147" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>GenderDescription = []</v>
       </c>
       <c r="E147" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F147" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve">    if len(study_content['GenderDescription']) ==0 :
         GenderDescription.append(0)
     if len(study_content['GenderDescription']) ==1 :
@@ -8389,7 +8430,7 @@
         <v>9</v>
       </c>
       <c r="I147" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H147&amp;"]:"&amp;B147&amp;","</f>
+        <f t="shared" si="18"/>
         <v>part1[9]:GenderDescription,</v>
       </c>
     </row>
@@ -8398,14 +8439,14 @@
         <v>125</v>
       </c>
       <c r="C148" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>HasExpandedAccess = []</v>
       </c>
       <c r="E148" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F148" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve">    if len(study_content['HasExpandedAccess']) ==0 :
         HasExpandedAccess.append(0)
     if len(study_content['HasExpandedAccess']) ==1 :
@@ -8420,7 +8461,7 @@
         <v>10</v>
       </c>
       <c r="I148" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H148&amp;"]:"&amp;B148&amp;","</f>
+        <f t="shared" si="18"/>
         <v>part1[10]:HasExpandedAccess,</v>
       </c>
     </row>
@@ -8429,14 +8470,14 @@
         <v>126</v>
       </c>
       <c r="C149" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>HealthyVolunteers = []</v>
       </c>
       <c r="E149" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F149" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve">    if len(study_content['HealthyVolunteers']) ==0 :
         HealthyVolunteers.append(0)
     if len(study_content['HealthyVolunteers']) ==1 :
@@ -8451,7 +8492,7 @@
         <v>11</v>
       </c>
       <c r="I149" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H149&amp;"]:"&amp;B149&amp;","</f>
+        <f t="shared" si="18"/>
         <v>part1[11]:HealthyVolunteers,</v>
       </c>
     </row>
@@ -8460,14 +8501,14 @@
         <v>127</v>
       </c>
       <c r="C150" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>IPDSharing = []</v>
       </c>
       <c r="E150" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F150" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve">    if len(study_content['IPDSharing']) ==0 :
         IPDSharing.append(0)
     if len(study_content['IPDSharing']) ==1 :
@@ -8482,7 +8523,7 @@
         <v>12</v>
       </c>
       <c r="I150" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H150&amp;"]:"&amp;B150&amp;","</f>
+        <f t="shared" si="18"/>
         <v>part1[12]:IPDSharing,</v>
       </c>
     </row>
@@ -8491,14 +8532,14 @@
         <v>128</v>
       </c>
       <c r="C151" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>IPDSharingAccessCriteria = []</v>
       </c>
       <c r="E151" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F151" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve">    if len(study_content['IPDSharingAccessCriteria']) ==0 :
         IPDSharingAccessCriteria.append(0)
     if len(study_content['IPDSharingAccessCriteria']) ==1 :
@@ -8513,7 +8554,7 @@
         <v>13</v>
       </c>
       <c r="I151" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H151&amp;"]:"&amp;B151&amp;","</f>
+        <f t="shared" si="18"/>
         <v>part1[13]:IPDSharingAccessCriteria,</v>
       </c>
     </row>
@@ -8522,14 +8563,14 @@
         <v>129</v>
       </c>
       <c r="C152" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>IPDSharingDescription = []</v>
       </c>
       <c r="E152" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F152" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve">    if len(study_content['IPDSharingDescription']) ==0 :
         IPDSharingDescription.append(0)
     if len(study_content['IPDSharingDescription']) ==1 :
@@ -8544,7 +8585,7 @@
         <v>14</v>
       </c>
       <c r="I152" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H152&amp;"]:"&amp;B152&amp;","</f>
+        <f t="shared" si="18"/>
         <v>part1[14]:IPDSharingDescription,</v>
       </c>
     </row>
@@ -8553,14 +8594,14 @@
         <v>130</v>
       </c>
       <c r="C153" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>IPDSharingInfoType = []</v>
       </c>
       <c r="E153" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F153" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve">    if len(study_content['IPDSharingInfoType']) ==0 :
         IPDSharingInfoType.append(0)
     if len(study_content['IPDSharingInfoType']) ==1 :
@@ -8575,7 +8616,7 @@
         <v>15</v>
       </c>
       <c r="I153" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H153&amp;"]:"&amp;B153&amp;","</f>
+        <f t="shared" si="18"/>
         <v>part1[15]:IPDSharingInfoType,</v>
       </c>
     </row>
@@ -8584,14 +8625,14 @@
         <v>131</v>
       </c>
       <c r="C154" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>IPDSharingTimeFrame = []</v>
       </c>
       <c r="E154" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F154" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve">    if len(study_content['IPDSharingTimeFrame']) ==0 :
         IPDSharingTimeFrame.append(0)
     if len(study_content['IPDSharingTimeFrame']) ==1 :
@@ -8606,7 +8647,7 @@
         <v>16</v>
       </c>
       <c r="I154" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H154&amp;"]:"&amp;B154&amp;","</f>
+        <f t="shared" si="18"/>
         <v>part1[16]:IPDSharingTimeFrame,</v>
       </c>
     </row>
@@ -8615,14 +8656,14 @@
         <v>132</v>
       </c>
       <c r="C155" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>IPDSharingURL = []</v>
       </c>
       <c r="E155" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F155" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve">    if len(study_content['IPDSharingURL']) ==0 :
         IPDSharingURL.append(0)
     if len(study_content['IPDSharingURL']) ==1 :
@@ -8637,7 +8678,7 @@
         <v>17</v>
       </c>
       <c r="I155" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H155&amp;"]:"&amp;B155&amp;","</f>
+        <f t="shared" si="18"/>
         <v>part1[17]:IPDSharingURL,</v>
       </c>
     </row>
@@ -8646,14 +8687,14 @@
         <v>133</v>
       </c>
       <c r="C156" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>InterventionAncestorId = []</v>
       </c>
       <c r="E156" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F156" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve">    if len(study_content['InterventionAncestorId']) ==0 :
         InterventionAncestorId.append(0)
     if len(study_content['InterventionAncestorId']) ==1 :
@@ -8668,7 +8709,7 @@
         <v>18</v>
       </c>
       <c r="I156" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H156&amp;"]:"&amp;B156&amp;","</f>
+        <f t="shared" si="18"/>
         <v>part1[18]:InterventionAncestorId,</v>
       </c>
     </row>
@@ -8677,14 +8718,14 @@
         <v>134</v>
       </c>
       <c r="C157" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>InterventionAncestorTerm = []</v>
       </c>
       <c r="E157" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F157" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve">    if len(study_content['InterventionAncestorTerm']) ==0 :
         InterventionAncestorTerm.append(0)
     if len(study_content['InterventionAncestorTerm']) ==1 :
@@ -8774,7 +8815,7 @@
         <v>1</v>
       </c>
       <c r="I161" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H161&amp;"]:"&amp;B161&amp;","</f>
+        <f t="shared" ref="I161:I178" si="21">"part" &amp;$A$5&amp; "["&amp;H161&amp;"]:"&amp;B161&amp;","</f>
         <v>part1[1]:InterventionArmGroupLabel,</v>
       </c>
     </row>
@@ -8783,14 +8824,14 @@
         <v>136</v>
       </c>
       <c r="C162" t="str">
-        <f t="shared" ref="C162:C179" si="14">B162&amp;" = []"</f>
+        <f t="shared" ref="C162:C179" si="22">B162&amp;" = []"</f>
         <v>InterventionBrowseBranchAbbrev = []</v>
       </c>
       <c r="E162" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F162" t="str">
-        <f t="shared" ref="F162:F179" si="15">SUBSTITUTE(E162,"AgreementOtherDetails",B162)</f>
+        <f t="shared" ref="F162:F179" si="23">SUBSTITUTE(E162,"AgreementOtherDetails",B162)</f>
         <v xml:space="preserve">    if len(study_content['InterventionBrowseBranchAbbrev']) ==0 :
         InterventionBrowseBranchAbbrev.append(0)
     if len(study_content['InterventionBrowseBranchAbbrev']) ==1 :
@@ -8805,7 +8846,7 @@
         <v>2</v>
       </c>
       <c r="I162" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H162&amp;"]:"&amp;B162&amp;","</f>
+        <f t="shared" si="21"/>
         <v>part1[2]:InterventionBrowseBranchAbbrev,</v>
       </c>
     </row>
@@ -8814,14 +8855,14 @@
         <v>137</v>
       </c>
       <c r="C163" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>InterventionBrowseBranchName = []</v>
       </c>
       <c r="E163" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F163" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v xml:space="preserve">    if len(study_content['InterventionBrowseBranchName']) ==0 :
         InterventionBrowseBranchName.append(0)
     if len(study_content['InterventionBrowseBranchName']) ==1 :
@@ -8836,7 +8877,7 @@
         <v>3</v>
       </c>
       <c r="I163" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H163&amp;"]:"&amp;B163&amp;","</f>
+        <f t="shared" si="21"/>
         <v>part1[3]:InterventionBrowseBranchName,</v>
       </c>
     </row>
@@ -8845,14 +8886,14 @@
         <v>138</v>
       </c>
       <c r="C164" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>InterventionBrowseLeafAsFound = []</v>
       </c>
       <c r="E164" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F164" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v xml:space="preserve">    if len(study_content['InterventionBrowseLeafAsFound']) ==0 :
         InterventionBrowseLeafAsFound.append(0)
     if len(study_content['InterventionBrowseLeafAsFound']) ==1 :
@@ -8867,7 +8908,7 @@
         <v>4</v>
       </c>
       <c r="I164" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H164&amp;"]:"&amp;B164&amp;","</f>
+        <f t="shared" si="21"/>
         <v>part1[4]:InterventionBrowseLeafAsFound,</v>
       </c>
     </row>
@@ -8876,14 +8917,14 @@
         <v>139</v>
       </c>
       <c r="C165" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>InterventionBrowseLeafId = []</v>
       </c>
       <c r="E165" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F165" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v xml:space="preserve">    if len(study_content['InterventionBrowseLeafId']) ==0 :
         InterventionBrowseLeafId.append(0)
     if len(study_content['InterventionBrowseLeafId']) ==1 :
@@ -8898,7 +8939,7 @@
         <v>5</v>
       </c>
       <c r="I165" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H165&amp;"]:"&amp;B165&amp;","</f>
+        <f t="shared" si="21"/>
         <v>part1[5]:InterventionBrowseLeafId,</v>
       </c>
     </row>
@@ -8907,14 +8948,14 @@
         <v>140</v>
       </c>
       <c r="C166" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>InterventionBrowseLeafName = []</v>
       </c>
       <c r="E166" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F166" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v xml:space="preserve">    if len(study_content['InterventionBrowseLeafName']) ==0 :
         InterventionBrowseLeafName.append(0)
     if len(study_content['InterventionBrowseLeafName']) ==1 :
@@ -8929,7 +8970,7 @@
         <v>6</v>
       </c>
       <c r="I166" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H166&amp;"]:"&amp;B166&amp;","</f>
+        <f t="shared" si="21"/>
         <v>part1[6]:InterventionBrowseLeafName,</v>
       </c>
     </row>
@@ -8938,14 +8979,14 @@
         <v>141</v>
       </c>
       <c r="C167" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>InterventionBrowseLeafRelevance = []</v>
       </c>
       <c r="E167" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F167" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v xml:space="preserve">    if len(study_content['InterventionBrowseLeafRelevance']) ==0 :
         InterventionBrowseLeafRelevance.append(0)
     if len(study_content['InterventionBrowseLeafRelevance']) ==1 :
@@ -8960,7 +9001,7 @@
         <v>7</v>
       </c>
       <c r="I167" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H167&amp;"]:"&amp;B167&amp;","</f>
+        <f t="shared" si="21"/>
         <v>part1[7]:InterventionBrowseLeafRelevance,</v>
       </c>
     </row>
@@ -8969,14 +9010,14 @@
         <v>142</v>
       </c>
       <c r="C168" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>InterventionDescription = []</v>
       </c>
       <c r="E168" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F168" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v xml:space="preserve">    if len(study_content['InterventionDescription']) ==0 :
         InterventionDescription.append(0)
     if len(study_content['InterventionDescription']) ==1 :
@@ -8991,7 +9032,7 @@
         <v>8</v>
       </c>
       <c r="I168" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H168&amp;"]:"&amp;B168&amp;","</f>
+        <f t="shared" si="21"/>
         <v>part1[8]:InterventionDescription,</v>
       </c>
     </row>
@@ -9000,14 +9041,14 @@
         <v>143</v>
       </c>
       <c r="C169" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>InterventionMeshId = []</v>
       </c>
       <c r="E169" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F169" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v xml:space="preserve">    if len(study_content['InterventionMeshId']) ==0 :
         InterventionMeshId.append(0)
     if len(study_content['InterventionMeshId']) ==1 :
@@ -9022,7 +9063,7 @@
         <v>9</v>
       </c>
       <c r="I169" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H169&amp;"]:"&amp;B169&amp;","</f>
+        <f t="shared" si="21"/>
         <v>part1[9]:InterventionMeshId,</v>
       </c>
     </row>
@@ -9031,14 +9072,14 @@
         <v>144</v>
       </c>
       <c r="C170" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>InterventionMeshTerm = []</v>
       </c>
       <c r="E170" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F170" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v xml:space="preserve">    if len(study_content['InterventionMeshTerm']) ==0 :
         InterventionMeshTerm.append(0)
     if len(study_content['InterventionMeshTerm']) ==1 :
@@ -9053,7 +9094,7 @@
         <v>10</v>
       </c>
       <c r="I170" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H170&amp;"]:"&amp;B170&amp;","</f>
+        <f t="shared" si="21"/>
         <v>part1[10]:InterventionMeshTerm,</v>
       </c>
     </row>
@@ -9062,14 +9103,14 @@
         <v>145</v>
       </c>
       <c r="C171" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>InterventionName = []</v>
       </c>
       <c r="E171" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F171" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v xml:space="preserve">    if len(study_content['InterventionName']) ==0 :
         InterventionName.append(0)
     if len(study_content['InterventionName']) ==1 :
@@ -9084,7 +9125,7 @@
         <v>11</v>
       </c>
       <c r="I171" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H171&amp;"]:"&amp;B171&amp;","</f>
+        <f t="shared" si="21"/>
         <v>part1[11]:InterventionName,</v>
       </c>
     </row>
@@ -9093,14 +9134,14 @@
         <v>146</v>
       </c>
       <c r="C172" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>InterventionOtherName = []</v>
       </c>
       <c r="E172" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F172" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v xml:space="preserve">    if len(study_content['InterventionOtherName']) ==0 :
         InterventionOtherName.append(0)
     if len(study_content['InterventionOtherName']) ==1 :
@@ -9115,7 +9156,7 @@
         <v>12</v>
       </c>
       <c r="I172" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H172&amp;"]:"&amp;B172&amp;","</f>
+        <f t="shared" si="21"/>
         <v>part1[12]:InterventionOtherName,</v>
       </c>
     </row>
@@ -9124,14 +9165,14 @@
         <v>147</v>
       </c>
       <c r="C173" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>InterventionType = []</v>
       </c>
       <c r="E173" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F173" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v xml:space="preserve">    if len(study_content['InterventionType']) ==0 :
         InterventionType.append(0)
     if len(study_content['InterventionType']) ==1 :
@@ -9146,7 +9187,7 @@
         <v>13</v>
       </c>
       <c r="I173" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H173&amp;"]:"&amp;B173&amp;","</f>
+        <f t="shared" si="21"/>
         <v>part1[13]:InterventionType,</v>
       </c>
     </row>
@@ -9155,14 +9196,14 @@
         <v>148</v>
       </c>
       <c r="C174" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>IsFDARegulatedDevice = []</v>
       </c>
       <c r="E174" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F174" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v xml:space="preserve">    if len(study_content['IsFDARegulatedDevice']) ==0 :
         IsFDARegulatedDevice.append(0)
     if len(study_content['IsFDARegulatedDevice']) ==1 :
@@ -9177,7 +9218,7 @@
         <v>14</v>
       </c>
       <c r="I174" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H174&amp;"]:"&amp;B174&amp;","</f>
+        <f t="shared" si="21"/>
         <v>part1[14]:IsFDARegulatedDevice,</v>
       </c>
     </row>
@@ -9186,14 +9227,14 @@
         <v>149</v>
       </c>
       <c r="C175" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>IsFDARegulatedDrug = []</v>
       </c>
       <c r="E175" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F175" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v xml:space="preserve">    if len(study_content['IsFDARegulatedDrug']) ==0 :
         IsFDARegulatedDrug.append(0)
     if len(study_content['IsFDARegulatedDrug']) ==1 :
@@ -9208,7 +9249,7 @@
         <v>15</v>
       </c>
       <c r="I175" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H175&amp;"]:"&amp;B175&amp;","</f>
+        <f t="shared" si="21"/>
         <v>part1[15]:IsFDARegulatedDrug,</v>
       </c>
     </row>
@@ -9217,14 +9258,14 @@
         <v>150</v>
       </c>
       <c r="C176" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>IsPPSD = []</v>
       </c>
       <c r="E176" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F176" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v xml:space="preserve">    if len(study_content['IsPPSD']) ==0 :
         IsPPSD.append(0)
     if len(study_content['IsPPSD']) ==1 :
@@ -9239,7 +9280,7 @@
         <v>16</v>
       </c>
       <c r="I176" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H176&amp;"]:"&amp;B176&amp;","</f>
+        <f t="shared" si="21"/>
         <v>part1[16]:IsPPSD,</v>
       </c>
     </row>
@@ -9248,14 +9289,14 @@
         <v>151</v>
       </c>
       <c r="C177" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>IsUSExport = []</v>
       </c>
       <c r="E177" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F177" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v xml:space="preserve">    if len(study_content['IsUSExport']) ==0 :
         IsUSExport.append(0)
     if len(study_content['IsUSExport']) ==1 :
@@ -9270,7 +9311,7 @@
         <v>17</v>
       </c>
       <c r="I177" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H177&amp;"]:"&amp;B177&amp;","</f>
+        <f t="shared" si="21"/>
         <v>part1[17]:IsUSExport,</v>
       </c>
     </row>
@@ -9279,14 +9320,14 @@
         <v>152</v>
       </c>
       <c r="C178" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>IsUnapprovedDevice = []</v>
       </c>
       <c r="E178" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F178" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v xml:space="preserve">    if len(study_content['IsUnapprovedDevice']) ==0 :
         IsUnapprovedDevice.append(0)
     if len(study_content['IsUnapprovedDevice']) ==1 :
@@ -9301,7 +9342,7 @@
         <v>18</v>
       </c>
       <c r="I178" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H178&amp;"]:"&amp;B178&amp;","</f>
+        <f t="shared" si="21"/>
         <v>part1[18]:IsUnapprovedDevice,</v>
       </c>
     </row>
@@ -9310,14 +9351,14 @@
         <v>153</v>
       </c>
       <c r="C179" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>Keyword = []</v>
       </c>
       <c r="E179" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F179" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v xml:space="preserve">    if len(study_content['Keyword']) ==0 :
         Keyword.append(0)
     if len(study_content['Keyword']) ==1 :
@@ -9407,7 +9448,7 @@
         <v>1</v>
       </c>
       <c r="I183" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H183&amp;"]:"&amp;B183&amp;","</f>
+        <f t="shared" ref="I183:I200" si="24">"part" &amp;$A$5&amp; "["&amp;H183&amp;"]:"&amp;B183&amp;","</f>
         <v>part1[1]:LargeDocDate,</v>
       </c>
     </row>
@@ -9416,14 +9457,14 @@
         <v>155</v>
       </c>
       <c r="C184" t="str">
-        <f t="shared" ref="C184:C201" si="16">B184&amp;" = []"</f>
+        <f t="shared" ref="C184:C201" si="25">B184&amp;" = []"</f>
         <v>LargeDocFilename = []</v>
       </c>
       <c r="E184" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F184" t="str">
-        <f t="shared" ref="F184:F196" si="17">SUBSTITUTE(E184,"AgreementOtherDetails",B184)</f>
+        <f t="shared" ref="F184:F196" si="26">SUBSTITUTE(E184,"AgreementOtherDetails",B184)</f>
         <v xml:space="preserve">    if len(study_content['LargeDocFilename']) ==0 :
         LargeDocFilename.append(0)
     if len(study_content['LargeDocFilename']) ==1 :
@@ -9438,7 +9479,7 @@
         <v>2</v>
       </c>
       <c r="I184" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H184&amp;"]:"&amp;B184&amp;","</f>
+        <f t="shared" si="24"/>
         <v>part1[2]:LargeDocFilename,</v>
       </c>
     </row>
@@ -9447,14 +9488,14 @@
         <v>156</v>
       </c>
       <c r="C185" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="25"/>
         <v>LargeDocHasICF = []</v>
       </c>
       <c r="E185" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F185" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v xml:space="preserve">    if len(study_content['LargeDocHasICF']) ==0 :
         LargeDocHasICF.append(0)
     if len(study_content['LargeDocHasICF']) ==1 :
@@ -9469,7 +9510,7 @@
         <v>3</v>
       </c>
       <c r="I185" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H185&amp;"]:"&amp;B185&amp;","</f>
+        <f t="shared" si="24"/>
         <v>part1[3]:LargeDocHasICF,</v>
       </c>
     </row>
@@ -9478,14 +9519,14 @@
         <v>157</v>
       </c>
       <c r="C186" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="25"/>
         <v>LargeDocHasProtocol = []</v>
       </c>
       <c r="E186" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F186" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v xml:space="preserve">    if len(study_content['LargeDocHasProtocol']) ==0 :
         LargeDocHasProtocol.append(0)
     if len(study_content['LargeDocHasProtocol']) ==1 :
@@ -9500,7 +9541,7 @@
         <v>4</v>
       </c>
       <c r="I186" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H186&amp;"]:"&amp;B186&amp;","</f>
+        <f t="shared" si="24"/>
         <v>part1[4]:LargeDocHasProtocol,</v>
       </c>
     </row>
@@ -9509,14 +9550,14 @@
         <v>158</v>
       </c>
       <c r="C187" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="25"/>
         <v>LargeDocHasSAP = []</v>
       </c>
       <c r="E187" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F187" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v xml:space="preserve">    if len(study_content['LargeDocHasSAP']) ==0 :
         LargeDocHasSAP.append(0)
     if len(study_content['LargeDocHasSAP']) ==1 :
@@ -9531,7 +9572,7 @@
         <v>5</v>
       </c>
       <c r="I187" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H187&amp;"]:"&amp;B187&amp;","</f>
+        <f t="shared" si="24"/>
         <v>part1[5]:LargeDocHasSAP,</v>
       </c>
     </row>
@@ -9540,14 +9581,14 @@
         <v>159</v>
       </c>
       <c r="C188" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="25"/>
         <v>LargeDocLabel = []</v>
       </c>
       <c r="E188" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F188" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v xml:space="preserve">    if len(study_content['LargeDocLabel']) ==0 :
         LargeDocLabel.append(0)
     if len(study_content['LargeDocLabel']) ==1 :
@@ -9562,7 +9603,7 @@
         <v>6</v>
       </c>
       <c r="I188" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H188&amp;"]:"&amp;B188&amp;","</f>
+        <f t="shared" si="24"/>
         <v>part1[6]:LargeDocLabel,</v>
       </c>
     </row>
@@ -9571,14 +9612,14 @@
         <v>160</v>
       </c>
       <c r="C189" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="25"/>
         <v>LargeDocTypeAbbrev = []</v>
       </c>
       <c r="E189" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F189" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v xml:space="preserve">    if len(study_content['LargeDocTypeAbbrev']) ==0 :
         LargeDocTypeAbbrev.append(0)
     if len(study_content['LargeDocTypeAbbrev']) ==1 :
@@ -9593,7 +9634,7 @@
         <v>7</v>
       </c>
       <c r="I189" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H189&amp;"]:"&amp;B189&amp;","</f>
+        <f t="shared" si="24"/>
         <v>part1[7]:LargeDocTypeAbbrev,</v>
       </c>
     </row>
@@ -9602,14 +9643,14 @@
         <v>161</v>
       </c>
       <c r="C190" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="25"/>
         <v>LargeDocUploadDate = []</v>
       </c>
       <c r="E190" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F190" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v xml:space="preserve">    if len(study_content['LargeDocUploadDate']) ==0 :
         LargeDocUploadDate.append(0)
     if len(study_content['LargeDocUploadDate']) ==1 :
@@ -9624,7 +9665,7 @@
         <v>8</v>
       </c>
       <c r="I190" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H190&amp;"]:"&amp;B190&amp;","</f>
+        <f t="shared" si="24"/>
         <v>part1[8]:LargeDocUploadDate,</v>
       </c>
     </row>
@@ -9633,14 +9674,14 @@
         <v>162</v>
       </c>
       <c r="C191" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="25"/>
         <v>LastKnownStatus = []</v>
       </c>
       <c r="E191" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F191" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v xml:space="preserve">    if len(study_content['LastKnownStatus']) ==0 :
         LastKnownStatus.append(0)
     if len(study_content['LastKnownStatus']) ==1 :
@@ -9655,7 +9696,7 @@
         <v>9</v>
       </c>
       <c r="I191" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H191&amp;"]:"&amp;B191&amp;","</f>
+        <f t="shared" si="24"/>
         <v>part1[9]:LastKnownStatus,</v>
       </c>
     </row>
@@ -9664,14 +9705,14 @@
         <v>163</v>
       </c>
       <c r="C192" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="25"/>
         <v>LastUpdatePostDate = []</v>
       </c>
       <c r="E192" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F192" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v xml:space="preserve">    if len(study_content['LastUpdatePostDate']) ==0 :
         LastUpdatePostDate.append(0)
     if len(study_content['LastUpdatePostDate']) ==1 :
@@ -9686,7 +9727,7 @@
         <v>10</v>
       </c>
       <c r="I192" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H192&amp;"]:"&amp;B192&amp;","</f>
+        <f t="shared" si="24"/>
         <v>part1[10]:LastUpdatePostDate,</v>
       </c>
     </row>
@@ -9695,14 +9736,14 @@
         <v>164</v>
       </c>
       <c r="C193" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="25"/>
         <v>LastUpdatePostDateType = []</v>
       </c>
       <c r="E193" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F193" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v xml:space="preserve">    if len(study_content['LastUpdatePostDateType']) ==0 :
         LastUpdatePostDateType.append(0)
     if len(study_content['LastUpdatePostDateType']) ==1 :
@@ -9717,7 +9758,7 @@
         <v>11</v>
       </c>
       <c r="I193" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H193&amp;"]:"&amp;B193&amp;","</f>
+        <f t="shared" si="24"/>
         <v>part1[11]:LastUpdatePostDateType,</v>
       </c>
     </row>
@@ -9726,14 +9767,14 @@
         <v>165</v>
       </c>
       <c r="C194" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="25"/>
         <v>LastUpdateSubmitDate = []</v>
       </c>
       <c r="E194" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F194" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v xml:space="preserve">    if len(study_content['LastUpdateSubmitDate']) ==0 :
         LastUpdateSubmitDate.append(0)
     if len(study_content['LastUpdateSubmitDate']) ==1 :
@@ -9748,7 +9789,7 @@
         <v>12</v>
       </c>
       <c r="I194" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H194&amp;"]:"&amp;B194&amp;","</f>
+        <f t="shared" si="24"/>
         <v>part1[12]:LastUpdateSubmitDate,</v>
       </c>
     </row>
@@ -9757,14 +9798,14 @@
         <v>166</v>
       </c>
       <c r="C195" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="25"/>
         <v>LeadSponsorClass = []</v>
       </c>
       <c r="E195" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F195" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v xml:space="preserve">    if len(study_content['LeadSponsorClass']) ==0 :
         LeadSponsorClass.append(0)
     if len(study_content['LeadSponsorClass']) ==1 :
@@ -9779,7 +9820,7 @@
         <v>13</v>
       </c>
       <c r="I195" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H195&amp;"]:"&amp;B195&amp;","</f>
+        <f t="shared" si="24"/>
         <v>part1[13]:LeadSponsorClass,</v>
       </c>
     </row>
@@ -9788,14 +9829,14 @@
         <v>167</v>
       </c>
       <c r="C196" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="25"/>
         <v>LeadSponsorName = []</v>
       </c>
       <c r="E196" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F196" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v xml:space="preserve">    if len(study_content['LeadSponsorName']) ==0 :
         LeadSponsorName.append(0)
     if len(study_content['LeadSponsorName']) ==1 :
@@ -9810,7 +9851,7 @@
         <v>14</v>
       </c>
       <c r="I196" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H196&amp;"]:"&amp;B196&amp;","</f>
+        <f t="shared" si="24"/>
         <v>part1[14]:LeadSponsorName,</v>
       </c>
     </row>
@@ -9819,14 +9860,14 @@
         <v>168</v>
       </c>
       <c r="C197" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="25"/>
         <v>LocationCity = []</v>
       </c>
       <c r="E197" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F197" t="str">
-        <f t="shared" ref="F197:F201" si="18">SUBSTITUTE(E197,"AgreementOtherDetails",B197)</f>
+        <f t="shared" ref="F197:F201" si="27">SUBSTITUTE(E197,"AgreementOtherDetails",B197)</f>
         <v xml:space="preserve">    if len(study_content['LocationCity']) ==0 :
         LocationCity.append(0)
     if len(study_content['LocationCity']) ==1 :
@@ -9841,7 +9882,7 @@
         <v>15</v>
       </c>
       <c r="I197" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H197&amp;"]:"&amp;B197&amp;","</f>
+        <f t="shared" si="24"/>
         <v>part1[15]:LocationCity,</v>
       </c>
     </row>
@@ -9850,14 +9891,14 @@
         <v>169</v>
       </c>
       <c r="C198" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="25"/>
         <v>LocationContactEMail = []</v>
       </c>
       <c r="E198" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F198" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v xml:space="preserve">    if len(study_content['LocationContactEMail']) ==0 :
         LocationContactEMail.append(0)
     if len(study_content['LocationContactEMail']) ==1 :
@@ -9872,7 +9913,7 @@
         <v>16</v>
       </c>
       <c r="I198" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H198&amp;"]:"&amp;B198&amp;","</f>
+        <f t="shared" si="24"/>
         <v>part1[16]:LocationContactEMail,</v>
       </c>
     </row>
@@ -9881,14 +9922,14 @@
         <v>170</v>
       </c>
       <c r="C199" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="25"/>
         <v>LocationContactName = []</v>
       </c>
       <c r="E199" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F199" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v xml:space="preserve">    if len(study_content['LocationContactName']) ==0 :
         LocationContactName.append(0)
     if len(study_content['LocationContactName']) ==1 :
@@ -9903,7 +9944,7 @@
         <v>17</v>
       </c>
       <c r="I199" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H199&amp;"]:"&amp;B199&amp;","</f>
+        <f t="shared" si="24"/>
         <v>part1[17]:LocationContactName,</v>
       </c>
     </row>
@@ -9912,14 +9953,14 @@
         <v>171</v>
       </c>
       <c r="C200" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="25"/>
         <v>LocationContactPhone = []</v>
       </c>
       <c r="E200" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F200" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v xml:space="preserve">    if len(study_content['LocationContactPhone']) ==0 :
         LocationContactPhone.append(0)
     if len(study_content['LocationContactPhone']) ==1 :
@@ -9934,7 +9975,7 @@
         <v>18</v>
       </c>
       <c r="I200" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H200&amp;"]:"&amp;B200&amp;","</f>
+        <f t="shared" si="24"/>
         <v>part1[18]:LocationContactPhone,</v>
       </c>
     </row>
@@ -9943,14 +9984,14 @@
         <v>172</v>
       </c>
       <c r="C201" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="25"/>
         <v>LocationContactPhoneExt = []</v>
       </c>
       <c r="E201" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F201" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v xml:space="preserve">    if len(study_content['LocationContactPhoneExt']) ==0 :
         LocationContactPhoneExt.append(0)
     if len(study_content['LocationContactPhoneExt']) ==1 :
@@ -10040,7 +10081,7 @@
         <v>1</v>
       </c>
       <c r="I205" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H205&amp;"]:"&amp;B205&amp;","</f>
+        <f t="shared" ref="I205:I222" si="28">"part" &amp;$A$5&amp; "["&amp;H205&amp;"]:"&amp;B205&amp;","</f>
         <v>part1[1]:LocationContactRole,</v>
       </c>
     </row>
@@ -10049,14 +10090,14 @@
         <v>174</v>
       </c>
       <c r="C206" t="str">
-        <f t="shared" ref="C206:C223" si="19">B206&amp;" = []"</f>
+        <f t="shared" ref="C206:C223" si="29">B206&amp;" = []"</f>
         <v>LocationCountry = []</v>
       </c>
       <c r="E206" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F206" t="str">
-        <f t="shared" ref="F206:F223" si="20">SUBSTITUTE(E206,"AgreementOtherDetails",B206)</f>
+        <f t="shared" ref="F206:F223" si="30">SUBSTITUTE(E206,"AgreementOtherDetails",B206)</f>
         <v xml:space="preserve">    if len(study_content['LocationCountry']) ==0 :
         LocationCountry.append(0)
     if len(study_content['LocationCountry']) ==1 :
@@ -10071,7 +10112,7 @@
         <v>2</v>
       </c>
       <c r="I206" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H206&amp;"]:"&amp;B206&amp;","</f>
+        <f t="shared" si="28"/>
         <v>part1[2]:LocationCountry,</v>
       </c>
     </row>
@@ -10080,14 +10121,14 @@
         <v>175</v>
       </c>
       <c r="C207" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>LocationFacility = []</v>
       </c>
       <c r="E207" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F207" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v xml:space="preserve">    if len(study_content['LocationFacility']) ==0 :
         LocationFacility.append(0)
     if len(study_content['LocationFacility']) ==1 :
@@ -10102,7 +10143,7 @@
         <v>3</v>
       </c>
       <c r="I207" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H207&amp;"]:"&amp;B207&amp;","</f>
+        <f t="shared" si="28"/>
         <v>part1[3]:LocationFacility,</v>
       </c>
     </row>
@@ -10111,14 +10152,14 @@
         <v>176</v>
       </c>
       <c r="C208" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>LocationState = []</v>
       </c>
       <c r="E208" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F208" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v xml:space="preserve">    if len(study_content['LocationState']) ==0 :
         LocationState.append(0)
     if len(study_content['LocationState']) ==1 :
@@ -10133,7 +10174,7 @@
         <v>4</v>
       </c>
       <c r="I208" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H208&amp;"]:"&amp;B208&amp;","</f>
+        <f t="shared" si="28"/>
         <v>part1[4]:LocationState,</v>
       </c>
     </row>
@@ -10142,14 +10183,14 @@
         <v>177</v>
       </c>
       <c r="C209" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>LocationStatus = []</v>
       </c>
       <c r="E209" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F209" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v xml:space="preserve">    if len(study_content['LocationStatus']) ==0 :
         LocationStatus.append(0)
     if len(study_content['LocationStatus']) ==1 :
@@ -10164,7 +10205,7 @@
         <v>5</v>
       </c>
       <c r="I209" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H209&amp;"]:"&amp;B209&amp;","</f>
+        <f t="shared" si="28"/>
         <v>part1[5]:LocationStatus,</v>
       </c>
     </row>
@@ -10173,14 +10214,14 @@
         <v>178</v>
       </c>
       <c r="C210" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>LocationZip = []</v>
       </c>
       <c r="E210" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F210" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v xml:space="preserve">    if len(study_content['LocationZip']) ==0 :
         LocationZip.append(0)
     if len(study_content['LocationZip']) ==1 :
@@ -10195,7 +10236,7 @@
         <v>6</v>
       </c>
       <c r="I210" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H210&amp;"]:"&amp;B210&amp;","</f>
+        <f t="shared" si="28"/>
         <v>part1[6]:LocationZip,</v>
       </c>
     </row>
@@ -10204,14 +10245,14 @@
         <v>179</v>
       </c>
       <c r="C211" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>MaximumAge = []</v>
       </c>
       <c r="E211" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F211" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v xml:space="preserve">    if len(study_content['MaximumAge']) ==0 :
         MaximumAge.append(0)
     if len(study_content['MaximumAge']) ==1 :
@@ -10226,7 +10267,7 @@
         <v>7</v>
       </c>
       <c r="I211" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H211&amp;"]:"&amp;B211&amp;","</f>
+        <f t="shared" si="28"/>
         <v>part1[7]:MaximumAge,</v>
       </c>
     </row>
@@ -10235,14 +10276,14 @@
         <v>180</v>
       </c>
       <c r="C212" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>MinimumAge = []</v>
       </c>
       <c r="E212" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F212" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v xml:space="preserve">    if len(study_content['MinimumAge']) ==0 :
         MinimumAge.append(0)
     if len(study_content['MinimumAge']) ==1 :
@@ -10257,7 +10298,7 @@
         <v>8</v>
       </c>
       <c r="I212" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H212&amp;"]:"&amp;B212&amp;","</f>
+        <f t="shared" si="28"/>
         <v>part1[8]:MinimumAge,</v>
       </c>
     </row>
@@ -10266,14 +10307,14 @@
         <v>181</v>
       </c>
       <c r="C213" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>NCTIdAlias = []</v>
       </c>
       <c r="E213" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F213" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v xml:space="preserve">    if len(study_content['NCTIdAlias']) ==0 :
         NCTIdAlias.append(0)
     if len(study_content['NCTIdAlias']) ==1 :
@@ -10288,7 +10329,7 @@
         <v>9</v>
       </c>
       <c r="I213" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H213&amp;"]:"&amp;B213&amp;","</f>
+        <f t="shared" si="28"/>
         <v>part1[9]:NCTIdAlias,</v>
       </c>
     </row>
@@ -10297,14 +10338,14 @@
         <v>182</v>
       </c>
       <c r="C214" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>OfficialTitle = []</v>
       </c>
       <c r="E214" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F214" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v xml:space="preserve">    if len(study_content['OfficialTitle']) ==0 :
         OfficialTitle.append(0)
     if len(study_content['OfficialTitle']) ==1 :
@@ -10319,7 +10360,7 @@
         <v>10</v>
       </c>
       <c r="I214" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H214&amp;"]:"&amp;B214&amp;","</f>
+        <f t="shared" si="28"/>
         <v>part1[10]:OfficialTitle,</v>
       </c>
     </row>
@@ -10328,14 +10369,14 @@
         <v>183</v>
       </c>
       <c r="C215" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>OrgClass = []</v>
       </c>
       <c r="E215" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F215" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v xml:space="preserve">    if len(study_content['OrgClass']) ==0 :
         OrgClass.append(0)
     if len(study_content['OrgClass']) ==1 :
@@ -10350,7 +10391,7 @@
         <v>11</v>
       </c>
       <c r="I215" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H215&amp;"]:"&amp;B215&amp;","</f>
+        <f t="shared" si="28"/>
         <v>part1[11]:OrgClass,</v>
       </c>
     </row>
@@ -10359,14 +10400,14 @@
         <v>184</v>
       </c>
       <c r="C216" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>OrgFullName = []</v>
       </c>
       <c r="E216" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F216" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v xml:space="preserve">    if len(study_content['OrgFullName']) ==0 :
         OrgFullName.append(0)
     if len(study_content['OrgFullName']) ==1 :
@@ -10381,7 +10422,7 @@
         <v>12</v>
       </c>
       <c r="I216" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H216&amp;"]:"&amp;B216&amp;","</f>
+        <f t="shared" si="28"/>
         <v>part1[12]:OrgFullName,</v>
       </c>
     </row>
@@ -10390,14 +10431,14 @@
         <v>185</v>
       </c>
       <c r="C217" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>OrgStudyId = []</v>
       </c>
       <c r="E217" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F217" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v xml:space="preserve">    if len(study_content['OrgStudyId']) ==0 :
         OrgStudyId.append(0)
     if len(study_content['OrgStudyId']) ==1 :
@@ -10412,7 +10453,7 @@
         <v>13</v>
       </c>
       <c r="I217" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H217&amp;"]:"&amp;B217&amp;","</f>
+        <f t="shared" si="28"/>
         <v>part1[13]:OrgStudyId,</v>
       </c>
     </row>
@@ -10421,14 +10462,14 @@
         <v>186</v>
       </c>
       <c r="C218" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>OrgStudyIdDomain = []</v>
       </c>
       <c r="E218" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F218" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v xml:space="preserve">    if len(study_content['OrgStudyIdDomain']) ==0 :
         OrgStudyIdDomain.append(0)
     if len(study_content['OrgStudyIdDomain']) ==1 :
@@ -10443,7 +10484,7 @@
         <v>14</v>
       </c>
       <c r="I218" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H218&amp;"]:"&amp;B218&amp;","</f>
+        <f t="shared" si="28"/>
         <v>part1[14]:OrgStudyIdDomain,</v>
       </c>
     </row>
@@ -10452,14 +10493,14 @@
         <v>187</v>
       </c>
       <c r="C219" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>OrgStudyIdLink = []</v>
       </c>
       <c r="E219" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F219" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v xml:space="preserve">    if len(study_content['OrgStudyIdLink']) ==0 :
         OrgStudyIdLink.append(0)
     if len(study_content['OrgStudyIdLink']) ==1 :
@@ -10474,7 +10515,7 @@
         <v>15</v>
       </c>
       <c r="I219" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H219&amp;"]:"&amp;B219&amp;","</f>
+        <f t="shared" si="28"/>
         <v>part1[15]:OrgStudyIdLink,</v>
       </c>
     </row>
@@ -10483,14 +10524,14 @@
         <v>188</v>
       </c>
       <c r="C220" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>OrgStudyIdType = []</v>
       </c>
       <c r="E220" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F220" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v xml:space="preserve">    if len(study_content['OrgStudyIdType']) ==0 :
         OrgStudyIdType.append(0)
     if len(study_content['OrgStudyIdType']) ==1 :
@@ -10505,7 +10546,7 @@
         <v>16</v>
       </c>
       <c r="I220" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H220&amp;"]:"&amp;B220&amp;","</f>
+        <f t="shared" si="28"/>
         <v>part1[16]:OrgStudyIdType,</v>
       </c>
     </row>
@@ -10514,14 +10555,14 @@
         <v>189</v>
       </c>
       <c r="C221" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>OtherEventAssessmentType = []</v>
       </c>
       <c r="E221" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F221" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v xml:space="preserve">    if len(study_content['OtherEventAssessmentType']) ==0 :
         OtherEventAssessmentType.append(0)
     if len(study_content['OtherEventAssessmentType']) ==1 :
@@ -10536,7 +10577,7 @@
         <v>17</v>
       </c>
       <c r="I221" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H221&amp;"]:"&amp;B221&amp;","</f>
+        <f t="shared" si="28"/>
         <v>part1[17]:OtherEventAssessmentType,</v>
       </c>
     </row>
@@ -10545,14 +10586,14 @@
         <v>190</v>
       </c>
       <c r="C222" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>OtherEventNotes = []</v>
       </c>
       <c r="E222" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F222" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v xml:space="preserve">    if len(study_content['OtherEventNotes']) ==0 :
         OtherEventNotes.append(0)
     if len(study_content['OtherEventNotes']) ==1 :
@@ -10567,7 +10608,7 @@
         <v>18</v>
       </c>
       <c r="I222" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H222&amp;"]:"&amp;B222&amp;","</f>
+        <f t="shared" si="28"/>
         <v>part1[18]:OtherEventNotes,</v>
       </c>
     </row>
@@ -10576,14 +10617,14 @@
         <v>191</v>
       </c>
       <c r="C223" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>OtherEventOrganSystem = []</v>
       </c>
       <c r="E223" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F223" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v xml:space="preserve">    if len(study_content['OtherEventOrganSystem']) ==0 :
         OtherEventOrganSystem.append(0)
     if len(study_content['OtherEventOrganSystem']) ==1 :
@@ -10673,7 +10714,7 @@
         <v>1</v>
       </c>
       <c r="I227" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H227&amp;"]:"&amp;B227&amp;","</f>
+        <f t="shared" ref="I227:I244" si="31">"part" &amp;$A$5&amp; "["&amp;H227&amp;"]:"&amp;B227&amp;","</f>
         <v>part1[1]:OtherEventSourceVocabulary,</v>
       </c>
     </row>
@@ -10682,14 +10723,14 @@
         <v>193</v>
       </c>
       <c r="C228" t="str">
-        <f t="shared" ref="C228:C245" si="21">B228&amp;" = []"</f>
+        <f t="shared" ref="C228:C245" si="32">B228&amp;" = []"</f>
         <v>OtherEventStatsGroupId = []</v>
       </c>
       <c r="E228" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F228" t="str">
-        <f t="shared" ref="F228:F245" si="22">SUBSTITUTE(E228,"AgreementOtherDetails",B228)</f>
+        <f t="shared" ref="F228:F245" si="33">SUBSTITUTE(E228,"AgreementOtherDetails",B228)</f>
         <v xml:space="preserve">    if len(study_content['OtherEventStatsGroupId']) ==0 :
         OtherEventStatsGroupId.append(0)
     if len(study_content['OtherEventStatsGroupId']) ==1 :
@@ -10704,7 +10745,7 @@
         <v>2</v>
       </c>
       <c r="I228" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H228&amp;"]:"&amp;B228&amp;","</f>
+        <f t="shared" si="31"/>
         <v>part1[2]:OtherEventStatsGroupId,</v>
       </c>
     </row>
@@ -10713,14 +10754,14 @@
         <v>194</v>
       </c>
       <c r="C229" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="32"/>
         <v>OtherEventStatsNumAffected = []</v>
       </c>
       <c r="E229" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F229" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="33"/>
         <v xml:space="preserve">    if len(study_content['OtherEventStatsNumAffected']) ==0 :
         OtherEventStatsNumAffected.append(0)
     if len(study_content['OtherEventStatsNumAffected']) ==1 :
@@ -10735,7 +10776,7 @@
         <v>3</v>
       </c>
       <c r="I229" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H229&amp;"]:"&amp;B229&amp;","</f>
+        <f t="shared" si="31"/>
         <v>part1[3]:OtherEventStatsNumAffected,</v>
       </c>
     </row>
@@ -10744,14 +10785,14 @@
         <v>195</v>
       </c>
       <c r="C230" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="32"/>
         <v>OtherEventStatsNumAtRisk = []</v>
       </c>
       <c r="E230" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F230" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="33"/>
         <v xml:space="preserve">    if len(study_content['OtherEventStatsNumAtRisk']) ==0 :
         OtherEventStatsNumAtRisk.append(0)
     if len(study_content['OtherEventStatsNumAtRisk']) ==1 :
@@ -10766,7 +10807,7 @@
         <v>4</v>
       </c>
       <c r="I230" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H230&amp;"]:"&amp;B230&amp;","</f>
+        <f t="shared" si="31"/>
         <v>part1[4]:OtherEventStatsNumAtRisk,</v>
       </c>
     </row>
@@ -10775,14 +10816,14 @@
         <v>196</v>
       </c>
       <c r="C231" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="32"/>
         <v>OtherEventStatsNumEvents = []</v>
       </c>
       <c r="E231" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F231" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="33"/>
         <v xml:space="preserve">    if len(study_content['OtherEventStatsNumEvents']) ==0 :
         OtherEventStatsNumEvents.append(0)
     if len(study_content['OtherEventStatsNumEvents']) ==1 :
@@ -10797,7 +10838,7 @@
         <v>5</v>
       </c>
       <c r="I231" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H231&amp;"]:"&amp;B231&amp;","</f>
+        <f t="shared" si="31"/>
         <v>part1[5]:OtherEventStatsNumEvents,</v>
       </c>
     </row>
@@ -10806,14 +10847,14 @@
         <v>197</v>
       </c>
       <c r="C232" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="32"/>
         <v>OtherEventTerm = []</v>
       </c>
       <c r="E232" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F232" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="33"/>
         <v xml:space="preserve">    if len(study_content['OtherEventTerm']) ==0 :
         OtherEventTerm.append(0)
     if len(study_content['OtherEventTerm']) ==1 :
@@ -10828,7 +10869,7 @@
         <v>6</v>
       </c>
       <c r="I232" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H232&amp;"]:"&amp;B232&amp;","</f>
+        <f t="shared" si="31"/>
         <v>part1[6]:OtherEventTerm,</v>
       </c>
     </row>
@@ -10837,14 +10878,14 @@
         <v>198</v>
       </c>
       <c r="C233" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="32"/>
         <v>OtherOutcomeDescription = []</v>
       </c>
       <c r="E233" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F233" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="33"/>
         <v xml:space="preserve">    if len(study_content['OtherOutcomeDescription']) ==0 :
         OtherOutcomeDescription.append(0)
     if len(study_content['OtherOutcomeDescription']) ==1 :
@@ -10859,7 +10900,7 @@
         <v>7</v>
       </c>
       <c r="I233" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H233&amp;"]:"&amp;B233&amp;","</f>
+        <f t="shared" si="31"/>
         <v>part1[7]:OtherOutcomeDescription,</v>
       </c>
     </row>
@@ -10868,14 +10909,14 @@
         <v>199</v>
       </c>
       <c r="C234" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="32"/>
         <v>OtherOutcomeMeasure = []</v>
       </c>
       <c r="E234" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F234" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="33"/>
         <v xml:space="preserve">    if len(study_content['OtherOutcomeMeasure']) ==0 :
         OtherOutcomeMeasure.append(0)
     if len(study_content['OtherOutcomeMeasure']) ==1 :
@@ -10890,7 +10931,7 @@
         <v>8</v>
       </c>
       <c r="I234" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H234&amp;"]:"&amp;B234&amp;","</f>
+        <f t="shared" si="31"/>
         <v>part1[8]:OtherOutcomeMeasure,</v>
       </c>
     </row>
@@ -10899,14 +10940,14 @@
         <v>200</v>
       </c>
       <c r="C235" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="32"/>
         <v>OtherOutcomeTimeFrame = []</v>
       </c>
       <c r="E235" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F235" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="33"/>
         <v xml:space="preserve">    if len(study_content['OtherOutcomeTimeFrame']) ==0 :
         OtherOutcomeTimeFrame.append(0)
     if len(study_content['OtherOutcomeTimeFrame']) ==1 :
@@ -10921,7 +10962,7 @@
         <v>9</v>
       </c>
       <c r="I235" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H235&amp;"]:"&amp;B235&amp;","</f>
+        <f t="shared" si="31"/>
         <v>part1[9]:OtherOutcomeTimeFrame,</v>
       </c>
     </row>
@@ -10930,14 +10971,14 @@
         <v>201</v>
       </c>
       <c r="C236" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="32"/>
         <v>OutcomeAnalysisCILowerLimit = []</v>
       </c>
       <c r="E236" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F236" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="33"/>
         <v xml:space="preserve">    if len(study_content['OutcomeAnalysisCILowerLimit']) ==0 :
         OutcomeAnalysisCILowerLimit.append(0)
     if len(study_content['OutcomeAnalysisCILowerLimit']) ==1 :
@@ -10952,7 +10993,7 @@
         <v>10</v>
       </c>
       <c r="I236" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H236&amp;"]:"&amp;B236&amp;","</f>
+        <f t="shared" si="31"/>
         <v>part1[10]:OutcomeAnalysisCILowerLimit,</v>
       </c>
     </row>
@@ -10961,14 +11002,14 @@
         <v>202</v>
       </c>
       <c r="C237" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="32"/>
         <v>OutcomeAnalysisCILowerLimitComment = []</v>
       </c>
       <c r="E237" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F237" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="33"/>
         <v xml:space="preserve">    if len(study_content['OutcomeAnalysisCILowerLimitComment']) ==0 :
         OutcomeAnalysisCILowerLimitComment.append(0)
     if len(study_content['OutcomeAnalysisCILowerLimitComment']) ==1 :
@@ -10983,7 +11024,7 @@
         <v>11</v>
       </c>
       <c r="I237" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H237&amp;"]:"&amp;B237&amp;","</f>
+        <f t="shared" si="31"/>
         <v>part1[11]:OutcomeAnalysisCILowerLimitComment,</v>
       </c>
     </row>
@@ -10992,14 +11033,14 @@
         <v>203</v>
       </c>
       <c r="C238" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="32"/>
         <v>OutcomeAnalysisCINumSides = []</v>
       </c>
       <c r="E238" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F238" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="33"/>
         <v xml:space="preserve">    if len(study_content['OutcomeAnalysisCINumSides']) ==0 :
         OutcomeAnalysisCINumSides.append(0)
     if len(study_content['OutcomeAnalysisCINumSides']) ==1 :
@@ -11014,7 +11055,7 @@
         <v>12</v>
       </c>
       <c r="I238" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H238&amp;"]:"&amp;B238&amp;","</f>
+        <f t="shared" si="31"/>
         <v>part1[12]:OutcomeAnalysisCINumSides,</v>
       </c>
     </row>
@@ -11023,14 +11064,14 @@
         <v>204</v>
       </c>
       <c r="C239" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="32"/>
         <v>OutcomeAnalysisCIPctValue = []</v>
       </c>
       <c r="E239" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F239" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="33"/>
         <v xml:space="preserve">    if len(study_content['OutcomeAnalysisCIPctValue']) ==0 :
         OutcomeAnalysisCIPctValue.append(0)
     if len(study_content['OutcomeAnalysisCIPctValue']) ==1 :
@@ -11045,7 +11086,7 @@
         <v>13</v>
       </c>
       <c r="I239" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H239&amp;"]:"&amp;B239&amp;","</f>
+        <f t="shared" si="31"/>
         <v>part1[13]:OutcomeAnalysisCIPctValue,</v>
       </c>
     </row>
@@ -11054,14 +11095,14 @@
         <v>205</v>
       </c>
       <c r="C240" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="32"/>
         <v>OutcomeAnalysisCIUpperLimit = []</v>
       </c>
       <c r="E240" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F240" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="33"/>
         <v xml:space="preserve">    if len(study_content['OutcomeAnalysisCIUpperLimit']) ==0 :
         OutcomeAnalysisCIUpperLimit.append(0)
     if len(study_content['OutcomeAnalysisCIUpperLimit']) ==1 :
@@ -11076,7 +11117,7 @@
         <v>14</v>
       </c>
       <c r="I240" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H240&amp;"]:"&amp;B240&amp;","</f>
+        <f t="shared" si="31"/>
         <v>part1[14]:OutcomeAnalysisCIUpperLimit,</v>
       </c>
     </row>
@@ -11085,14 +11126,14 @@
         <v>206</v>
       </c>
       <c r="C241" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="32"/>
         <v>OutcomeAnalysisCIUpperLimitComment = []</v>
       </c>
       <c r="E241" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F241" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="33"/>
         <v xml:space="preserve">    if len(study_content['OutcomeAnalysisCIUpperLimitComment']) ==0 :
         OutcomeAnalysisCIUpperLimitComment.append(0)
     if len(study_content['OutcomeAnalysisCIUpperLimitComment']) ==1 :
@@ -11107,7 +11148,7 @@
         <v>15</v>
       </c>
       <c r="I241" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H241&amp;"]:"&amp;B241&amp;","</f>
+        <f t="shared" si="31"/>
         <v>part1[15]:OutcomeAnalysisCIUpperLimitComment,</v>
       </c>
     </row>
@@ -11116,14 +11157,14 @@
         <v>207</v>
       </c>
       <c r="C242" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="32"/>
         <v>OutcomeAnalysisDispersionType = []</v>
       </c>
       <c r="E242" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F242" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="33"/>
         <v xml:space="preserve">    if len(study_content['OutcomeAnalysisDispersionType']) ==0 :
         OutcomeAnalysisDispersionType.append(0)
     if len(study_content['OutcomeAnalysisDispersionType']) ==1 :
@@ -11138,7 +11179,7 @@
         <v>16</v>
       </c>
       <c r="I242" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H242&amp;"]:"&amp;B242&amp;","</f>
+        <f t="shared" si="31"/>
         <v>part1[16]:OutcomeAnalysisDispersionType,</v>
       </c>
     </row>
@@ -11147,14 +11188,14 @@
         <v>208</v>
       </c>
       <c r="C243" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="32"/>
         <v>OutcomeAnalysisDispersionValue = []</v>
       </c>
       <c r="E243" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F243" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="33"/>
         <v xml:space="preserve">    if len(study_content['OutcomeAnalysisDispersionValue']) ==0 :
         OutcomeAnalysisDispersionValue.append(0)
     if len(study_content['OutcomeAnalysisDispersionValue']) ==1 :
@@ -11169,7 +11210,7 @@
         <v>17</v>
       </c>
       <c r="I243" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H243&amp;"]:"&amp;B243&amp;","</f>
+        <f t="shared" si="31"/>
         <v>part1[17]:OutcomeAnalysisDispersionValue,</v>
       </c>
     </row>
@@ -11178,14 +11219,14 @@
         <v>209</v>
       </c>
       <c r="C244" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="32"/>
         <v>OutcomeAnalysisEstimateComment = []</v>
       </c>
       <c r="E244" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F244" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="33"/>
         <v xml:space="preserve">    if len(study_content['OutcomeAnalysisEstimateComment']) ==0 :
         OutcomeAnalysisEstimateComment.append(0)
     if len(study_content['OutcomeAnalysisEstimateComment']) ==1 :
@@ -11200,7 +11241,7 @@
         <v>18</v>
       </c>
       <c r="I244" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H244&amp;"]:"&amp;B244&amp;","</f>
+        <f t="shared" si="31"/>
         <v>part1[18]:OutcomeAnalysisEstimateComment,</v>
       </c>
     </row>
@@ -11209,14 +11250,14 @@
         <v>210</v>
       </c>
       <c r="C245" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="32"/>
         <v>OutcomeAnalysisGroupId = []</v>
       </c>
       <c r="E245" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F245" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="33"/>
         <v xml:space="preserve">    if len(study_content['OutcomeAnalysisGroupId']) ==0 :
         OutcomeAnalysisGroupId.append(0)
     if len(study_content['OutcomeAnalysisGroupId']) ==1 :
@@ -11306,7 +11347,7 @@
         <v>1</v>
       </c>
       <c r="I249" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H249&amp;"]:"&amp;B249&amp;","</f>
+        <f t="shared" ref="I249:I266" si="34">"part" &amp;$A$5&amp; "["&amp;H249&amp;"]:"&amp;B249&amp;","</f>
         <v>part1[1]:OutcomeAnalysisGroupDescription,</v>
       </c>
     </row>
@@ -11315,14 +11356,14 @@
         <v>212</v>
       </c>
       <c r="C250" t="str">
-        <f t="shared" ref="C250:C267" si="23">B250&amp;" = []"</f>
+        <f t="shared" ref="C250:C267" si="35">B250&amp;" = []"</f>
         <v>OutcomeGroupId = []</v>
       </c>
       <c r="E250" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F250" t="str">
-        <f t="shared" ref="F250:F267" si="24">SUBSTITUTE(E250,"AgreementOtherDetails",B250)</f>
+        <f t="shared" ref="F250:F267" si="36">SUBSTITUTE(E250,"AgreementOtherDetails",B250)</f>
         <v xml:space="preserve">    if len(study_content['OutcomeGroupId']) ==0 :
         OutcomeGroupId.append(0)
     if len(study_content['OutcomeGroupId']) ==1 :
@@ -11337,7 +11378,7 @@
         <v>2</v>
       </c>
       <c r="I250" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H250&amp;"]:"&amp;B250&amp;","</f>
+        <f t="shared" si="34"/>
         <v>part1[2]:OutcomeGroupId,</v>
       </c>
     </row>
@@ -11346,14 +11387,14 @@
         <v>213</v>
       </c>
       <c r="C251" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="35"/>
         <v>OutcomeAnalysisNonInferiorityComment = []</v>
       </c>
       <c r="E251" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F251" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="36"/>
         <v xml:space="preserve">    if len(study_content['OutcomeAnalysisNonInferiorityComment']) ==0 :
         OutcomeAnalysisNonInferiorityComment.append(0)
     if len(study_content['OutcomeAnalysisNonInferiorityComment']) ==1 :
@@ -11368,7 +11409,7 @@
         <v>3</v>
       </c>
       <c r="I251" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H251&amp;"]:"&amp;B251&amp;","</f>
+        <f t="shared" si="34"/>
         <v>part1[3]:OutcomeAnalysisNonInferiorityComment,</v>
       </c>
     </row>
@@ -11377,14 +11418,14 @@
         <v>214</v>
       </c>
       <c r="C252" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="35"/>
         <v>OutcomeAnalysisNonInferiorityType = []</v>
       </c>
       <c r="E252" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F252" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="36"/>
         <v xml:space="preserve">    if len(study_content['OutcomeAnalysisNonInferiorityType']) ==0 :
         OutcomeAnalysisNonInferiorityType.append(0)
     if len(study_content['OutcomeAnalysisNonInferiorityType']) ==1 :
@@ -11399,7 +11440,7 @@
         <v>4</v>
       </c>
       <c r="I252" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H252&amp;"]:"&amp;B252&amp;","</f>
+        <f t="shared" si="34"/>
         <v>part1[4]:OutcomeAnalysisNonInferiorityType,</v>
       </c>
     </row>
@@ -11408,14 +11449,14 @@
         <v>215</v>
       </c>
       <c r="C253" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="35"/>
         <v>OutcomeAnalysisOtherAnalysisDescription = []</v>
       </c>
       <c r="E253" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F253" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="36"/>
         <v xml:space="preserve">    if len(study_content['OutcomeAnalysisOtherAnalysisDescription']) ==0 :
         OutcomeAnalysisOtherAnalysisDescription.append(0)
     if len(study_content['OutcomeAnalysisOtherAnalysisDescription']) ==1 :
@@ -11430,7 +11471,7 @@
         <v>5</v>
       </c>
       <c r="I253" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H253&amp;"]:"&amp;B253&amp;","</f>
+        <f t="shared" si="34"/>
         <v>part1[5]:OutcomeAnalysisOtherAnalysisDescription,</v>
       </c>
     </row>
@@ -11439,14 +11480,14 @@
         <v>216</v>
       </c>
       <c r="C254" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="35"/>
         <v>OutcomeAnalysisPValue = []</v>
       </c>
       <c r="E254" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F254" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="36"/>
         <v xml:space="preserve">    if len(study_content['OutcomeAnalysisPValue']) ==0 :
         OutcomeAnalysisPValue.append(0)
     if len(study_content['OutcomeAnalysisPValue']) ==1 :
@@ -11461,7 +11502,7 @@
         <v>6</v>
       </c>
       <c r="I254" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H254&amp;"]:"&amp;B254&amp;","</f>
+        <f t="shared" si="34"/>
         <v>part1[6]:OutcomeAnalysisPValue,</v>
       </c>
     </row>
@@ -11470,14 +11511,14 @@
         <v>217</v>
       </c>
       <c r="C255" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="35"/>
         <v>OutcomeAnalysisPValueComment = []</v>
       </c>
       <c r="E255" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F255" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="36"/>
         <v xml:space="preserve">    if len(study_content['OutcomeAnalysisPValueComment']) ==0 :
         OutcomeAnalysisPValueComment.append(0)
     if len(study_content['OutcomeAnalysisPValueComment']) ==1 :
@@ -11492,7 +11533,7 @@
         <v>7</v>
       </c>
       <c r="I255" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H255&amp;"]:"&amp;B255&amp;","</f>
+        <f t="shared" si="34"/>
         <v>part1[7]:OutcomeAnalysisPValueComment,</v>
       </c>
     </row>
@@ -11501,14 +11542,14 @@
         <v>218</v>
       </c>
       <c r="C256" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="35"/>
         <v>OutcomeAnalysisParamType = []</v>
       </c>
       <c r="E256" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F256" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="36"/>
         <v xml:space="preserve">    if len(study_content['OutcomeAnalysisParamType']) ==0 :
         OutcomeAnalysisParamType.append(0)
     if len(study_content['OutcomeAnalysisParamType']) ==1 :
@@ -11523,7 +11564,7 @@
         <v>8</v>
       </c>
       <c r="I256" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H256&amp;"]:"&amp;B256&amp;","</f>
+        <f t="shared" si="34"/>
         <v>part1[8]:OutcomeAnalysisParamType,</v>
       </c>
     </row>
@@ -11532,14 +11573,14 @@
         <v>219</v>
       </c>
       <c r="C257" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="35"/>
         <v>OutcomeAnalysisParamValue = []</v>
       </c>
       <c r="E257" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F257" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="36"/>
         <v xml:space="preserve">    if len(study_content['OutcomeAnalysisParamValue']) ==0 :
         OutcomeAnalysisParamValue.append(0)
     if len(study_content['OutcomeAnalysisParamValue']) ==1 :
@@ -11554,7 +11595,7 @@
         <v>9</v>
       </c>
       <c r="I257" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H257&amp;"]:"&amp;B257&amp;","</f>
+        <f t="shared" si="34"/>
         <v>part1[9]:OutcomeAnalysisParamValue,</v>
       </c>
     </row>
@@ -11563,14 +11604,14 @@
         <v>220</v>
       </c>
       <c r="C258" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="35"/>
         <v>OutcomeAnalysisStatisticalComment = []</v>
       </c>
       <c r="E258" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F258" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="36"/>
         <v xml:space="preserve">    if len(study_content['OutcomeAnalysisStatisticalComment']) ==0 :
         OutcomeAnalysisStatisticalComment.append(0)
     if len(study_content['OutcomeAnalysisStatisticalComment']) ==1 :
@@ -11585,7 +11626,7 @@
         <v>10</v>
       </c>
       <c r="I258" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H258&amp;"]:"&amp;B258&amp;","</f>
+        <f t="shared" si="34"/>
         <v>part1[10]:OutcomeAnalysisStatisticalComment,</v>
       </c>
     </row>
@@ -11594,14 +11635,14 @@
         <v>221</v>
       </c>
       <c r="C259" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="35"/>
         <v>OutcomeAnalysisStatisticalMethod = []</v>
       </c>
       <c r="E259" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F259" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="36"/>
         <v xml:space="preserve">    if len(study_content['OutcomeAnalysisStatisticalMethod']) ==0 :
         OutcomeAnalysisStatisticalMethod.append(0)
     if len(study_content['OutcomeAnalysisStatisticalMethod']) ==1 :
@@ -11616,7 +11657,7 @@
         <v>11</v>
       </c>
       <c r="I259" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H259&amp;"]:"&amp;B259&amp;","</f>
+        <f t="shared" si="34"/>
         <v>part1[11]:OutcomeAnalysisStatisticalMethod,</v>
       </c>
     </row>
@@ -11625,14 +11666,14 @@
         <v>222</v>
       </c>
       <c r="C260" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="35"/>
         <v>OutcomeAnalysisTestedNonInferiority = []</v>
       </c>
       <c r="E260" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F260" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="36"/>
         <v xml:space="preserve">    if len(study_content['OutcomeAnalysisTestedNonInferiority']) ==0 :
         OutcomeAnalysisTestedNonInferiority.append(0)
     if len(study_content['OutcomeAnalysisTestedNonInferiority']) ==1 :
@@ -11647,7 +11688,7 @@
         <v>12</v>
       </c>
       <c r="I260" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H260&amp;"]:"&amp;B260&amp;","</f>
+        <f t="shared" si="34"/>
         <v>part1[12]:OutcomeAnalysisTestedNonInferiority,</v>
       </c>
     </row>
@@ -11656,14 +11697,14 @@
         <v>223</v>
       </c>
       <c r="C261" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="35"/>
         <v>OutcomeCategoryTitle = []</v>
       </c>
       <c r="E261" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F261" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="36"/>
         <v xml:space="preserve">    if len(study_content['OutcomeCategoryTitle']) ==0 :
         OutcomeCategoryTitle.append(0)
     if len(study_content['OutcomeCategoryTitle']) ==1 :
@@ -11678,7 +11719,7 @@
         <v>13</v>
       </c>
       <c r="I261" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H261&amp;"]:"&amp;B261&amp;","</f>
+        <f t="shared" si="34"/>
         <v>part1[13]:OutcomeCategoryTitle,</v>
       </c>
     </row>
@@ -11687,14 +11728,14 @@
         <v>224</v>
       </c>
       <c r="C262" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="35"/>
         <v>OutcomeClassDenomCountGroupId = []</v>
       </c>
       <c r="E262" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F262" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="36"/>
         <v xml:space="preserve">    if len(study_content['OutcomeClassDenomCountGroupId']) ==0 :
         OutcomeClassDenomCountGroupId.append(0)
     if len(study_content['OutcomeClassDenomCountGroupId']) ==1 :
@@ -11709,7 +11750,7 @@
         <v>14</v>
       </c>
       <c r="I262" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H262&amp;"]:"&amp;B262&amp;","</f>
+        <f t="shared" si="34"/>
         <v>part1[14]:OutcomeClassDenomCountGroupId,</v>
       </c>
     </row>
@@ -11718,14 +11759,14 @@
         <v>225</v>
       </c>
       <c r="C263" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="35"/>
         <v>OutcomeClassDenomCountValue = []</v>
       </c>
       <c r="E263" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F263" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="36"/>
         <v xml:space="preserve">    if len(study_content['OutcomeClassDenomCountValue']) ==0 :
         OutcomeClassDenomCountValue.append(0)
     if len(study_content['OutcomeClassDenomCountValue']) ==1 :
@@ -11740,7 +11781,7 @@
         <v>15</v>
       </c>
       <c r="I263" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H263&amp;"]:"&amp;B263&amp;","</f>
+        <f t="shared" si="34"/>
         <v>part1[15]:OutcomeClassDenomCountValue,</v>
       </c>
     </row>
@@ -11749,14 +11790,14 @@
         <v>226</v>
       </c>
       <c r="C264" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="35"/>
         <v>OutcomeClassDenomUnits = []</v>
       </c>
       <c r="E264" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F264" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="36"/>
         <v xml:space="preserve">    if len(study_content['OutcomeClassDenomUnits']) ==0 :
         OutcomeClassDenomUnits.append(0)
     if len(study_content['OutcomeClassDenomUnits']) ==1 :
@@ -11771,7 +11812,7 @@
         <v>16</v>
       </c>
       <c r="I264" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H264&amp;"]:"&amp;B264&amp;","</f>
+        <f t="shared" si="34"/>
         <v>part1[16]:OutcomeClassDenomUnits,</v>
       </c>
     </row>
@@ -11780,14 +11821,14 @@
         <v>227</v>
       </c>
       <c r="C265" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="35"/>
         <v>OutcomeClassTitle = []</v>
       </c>
       <c r="E265" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F265" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="36"/>
         <v xml:space="preserve">    if len(study_content['OutcomeClassTitle']) ==0 :
         OutcomeClassTitle.append(0)
     if len(study_content['OutcomeClassTitle']) ==1 :
@@ -11802,7 +11843,7 @@
         <v>17</v>
       </c>
       <c r="I265" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H265&amp;"]:"&amp;B265&amp;","</f>
+        <f t="shared" si="34"/>
         <v>part1[17]:OutcomeClassTitle,</v>
       </c>
     </row>
@@ -11811,14 +11852,14 @@
         <v>228</v>
       </c>
       <c r="C266" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="35"/>
         <v>OutcomeDenomCountGroupId = []</v>
       </c>
       <c r="E266" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F266" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="36"/>
         <v xml:space="preserve">    if len(study_content['OutcomeDenomCountGroupId']) ==0 :
         OutcomeDenomCountGroupId.append(0)
     if len(study_content['OutcomeDenomCountGroupId']) ==1 :
@@ -11833,7 +11874,7 @@
         <v>18</v>
       </c>
       <c r="I266" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H266&amp;"]:"&amp;B266&amp;","</f>
+        <f t="shared" si="34"/>
         <v>part1[18]:OutcomeDenomCountGroupId,</v>
       </c>
     </row>
@@ -11842,14 +11883,14 @@
         <v>229</v>
       </c>
       <c r="C267" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="35"/>
         <v>OutcomeDenomCountValue = []</v>
       </c>
       <c r="E267" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F267" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="36"/>
         <v xml:space="preserve">    if len(study_content['OutcomeDenomCountValue']) ==0 :
         OutcomeDenomCountValue.append(0)
     if len(study_content['OutcomeDenomCountValue']) ==1 :
@@ -11939,7 +11980,7 @@
         <v>1</v>
       </c>
       <c r="I271" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H271&amp;"]:"&amp;B271&amp;","</f>
+        <f t="shared" ref="I271:I288" si="37">"part" &amp;$A$5&amp; "["&amp;H271&amp;"]:"&amp;B271&amp;","</f>
         <v>part1[1]:OutcomeDenomUnits,</v>
       </c>
     </row>
@@ -11948,14 +11989,14 @@
         <v>231</v>
       </c>
       <c r="C272" t="str">
-        <f t="shared" ref="C272:C289" si="25">B272&amp;" = []"</f>
+        <f t="shared" ref="C272:C289" si="38">B272&amp;" = []"</f>
         <v>OutcomeGroupDescription = []</v>
       </c>
       <c r="E272" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F272" t="str">
-        <f t="shared" ref="F272:F289" si="26">SUBSTITUTE(E272,"AgreementOtherDetails",B272)</f>
+        <f t="shared" ref="F272:F289" si="39">SUBSTITUTE(E272,"AgreementOtherDetails",B272)</f>
         <v xml:space="preserve">    if len(study_content['OutcomeGroupDescription']) ==0 :
         OutcomeGroupDescription.append(0)
     if len(study_content['OutcomeGroupDescription']) ==1 :
@@ -11970,7 +12011,7 @@
         <v>2</v>
       </c>
       <c r="I272" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H272&amp;"]:"&amp;B272&amp;","</f>
+        <f t="shared" si="37"/>
         <v>part1[2]:OutcomeGroupDescription,</v>
       </c>
     </row>
@@ -11979,14 +12020,14 @@
         <v>232</v>
       </c>
       <c r="C273" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="38"/>
         <v>OutcomeMeasurementUpperLimit = []</v>
       </c>
       <c r="E273" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F273" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="39"/>
         <v xml:space="preserve">    if len(study_content['OutcomeMeasurementUpperLimit']) ==0 :
         OutcomeMeasurementUpperLimit.append(0)
     if len(study_content['OutcomeMeasurementUpperLimit']) ==1 :
@@ -12001,7 +12042,7 @@
         <v>3</v>
       </c>
       <c r="I273" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H273&amp;"]:"&amp;B273&amp;","</f>
+        <f t="shared" si="37"/>
         <v>part1[3]:OutcomeMeasurementUpperLimit,</v>
       </c>
     </row>
@@ -12010,14 +12051,14 @@
         <v>233</v>
       </c>
       <c r="C274" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="38"/>
         <v>OutcomeGroupTitle = []</v>
       </c>
       <c r="E274" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F274" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="39"/>
         <v xml:space="preserve">    if len(study_content['OutcomeGroupTitle']) ==0 :
         OutcomeGroupTitle.append(0)
     if len(study_content['OutcomeGroupTitle']) ==1 :
@@ -12032,7 +12073,7 @@
         <v>4</v>
       </c>
       <c r="I274" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H274&amp;"]:"&amp;B274&amp;","</f>
+        <f t="shared" si="37"/>
         <v>part1[4]:OutcomeGroupTitle,</v>
       </c>
     </row>
@@ -12041,14 +12082,14 @@
         <v>234</v>
       </c>
       <c r="C275" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="38"/>
         <v>OutcomeMeasureAnticipatedPostingDate = []</v>
       </c>
       <c r="E275" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F275" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="39"/>
         <v xml:space="preserve">    if len(study_content['OutcomeMeasureAnticipatedPostingDate']) ==0 :
         OutcomeMeasureAnticipatedPostingDate.append(0)
     if len(study_content['OutcomeMeasureAnticipatedPostingDate']) ==1 :
@@ -12063,7 +12104,7 @@
         <v>5</v>
       </c>
       <c r="I275" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H275&amp;"]:"&amp;B275&amp;","</f>
+        <f t="shared" si="37"/>
         <v>part1[5]:OutcomeMeasureAnticipatedPostingDate,</v>
       </c>
     </row>
@@ -12072,14 +12113,14 @@
         <v>235</v>
       </c>
       <c r="C276" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="38"/>
         <v>OutcomeMeasureCalculatePct = []</v>
       </c>
       <c r="E276" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F276" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="39"/>
         <v xml:space="preserve">    if len(study_content['OutcomeMeasureCalculatePct']) ==0 :
         OutcomeMeasureCalculatePct.append(0)
     if len(study_content['OutcomeMeasureCalculatePct']) ==1 :
@@ -12094,7 +12135,7 @@
         <v>6</v>
       </c>
       <c r="I276" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H276&amp;"]:"&amp;B276&amp;","</f>
+        <f t="shared" si="37"/>
         <v>part1[6]:OutcomeMeasureCalculatePct,</v>
       </c>
     </row>
@@ -12103,14 +12144,14 @@
         <v>236</v>
       </c>
       <c r="C277" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="38"/>
         <v>OutcomeMeasureDenomUnitsSelected = []</v>
       </c>
       <c r="E277" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F277" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="39"/>
         <v xml:space="preserve">    if len(study_content['OutcomeMeasureDenomUnitsSelected']) ==0 :
         OutcomeMeasureDenomUnitsSelected.append(0)
     if len(study_content['OutcomeMeasureDenomUnitsSelected']) ==1 :
@@ -12125,7 +12166,7 @@
         <v>7</v>
       </c>
       <c r="I277" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H277&amp;"]:"&amp;B277&amp;","</f>
+        <f t="shared" si="37"/>
         <v>part1[7]:OutcomeMeasureDenomUnitsSelected,</v>
       </c>
     </row>
@@ -12134,14 +12175,14 @@
         <v>237</v>
       </c>
       <c r="C278" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="38"/>
         <v>OutcomeMeasureDescription = []</v>
       </c>
       <c r="E278" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F278" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="39"/>
         <v xml:space="preserve">    if len(study_content['OutcomeMeasureDescription']) ==0 :
         OutcomeMeasureDescription.append(0)
     if len(study_content['OutcomeMeasureDescription']) ==1 :
@@ -12156,7 +12197,7 @@
         <v>8</v>
       </c>
       <c r="I278" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H278&amp;"]:"&amp;B278&amp;","</f>
+        <f t="shared" si="37"/>
         <v>part1[8]:OutcomeMeasureDescription,</v>
       </c>
     </row>
@@ -12165,14 +12206,14 @@
         <v>238</v>
       </c>
       <c r="C279" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="38"/>
         <v>OutcomeMeasureDispersionType = []</v>
       </c>
       <c r="E279" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F279" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="39"/>
         <v xml:space="preserve">    if len(study_content['OutcomeMeasureDispersionType']) ==0 :
         OutcomeMeasureDispersionType.append(0)
     if len(study_content['OutcomeMeasureDispersionType']) ==1 :
@@ -12187,7 +12228,7 @@
         <v>9</v>
       </c>
       <c r="I279" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H279&amp;"]:"&amp;B279&amp;","</f>
+        <f t="shared" si="37"/>
         <v>part1[9]:OutcomeMeasureDispersionType,</v>
       </c>
     </row>
@@ -12196,14 +12237,14 @@
         <v>239</v>
       </c>
       <c r="C280" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="38"/>
         <v>OutcomeMeasureParamType = []</v>
       </c>
       <c r="E280" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F280" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="39"/>
         <v xml:space="preserve">    if len(study_content['OutcomeMeasureParamType']) ==0 :
         OutcomeMeasureParamType.append(0)
     if len(study_content['OutcomeMeasureParamType']) ==1 :
@@ -12218,7 +12259,7 @@
         <v>10</v>
       </c>
       <c r="I280" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H280&amp;"]:"&amp;B280&amp;","</f>
+        <f t="shared" si="37"/>
         <v>part1[10]:OutcomeMeasureParamType,</v>
       </c>
     </row>
@@ -12227,14 +12268,14 @@
         <v>240</v>
       </c>
       <c r="C281" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="38"/>
         <v>OutcomeMeasurePopulationDescription = []</v>
       </c>
       <c r="E281" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F281" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="39"/>
         <v xml:space="preserve">    if len(study_content['OutcomeMeasurePopulationDescription']) ==0 :
         OutcomeMeasurePopulationDescription.append(0)
     if len(study_content['OutcomeMeasurePopulationDescription']) ==1 :
@@ -12249,7 +12290,7 @@
         <v>11</v>
       </c>
       <c r="I281" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H281&amp;"]:"&amp;B281&amp;","</f>
+        <f t="shared" si="37"/>
         <v>part1[11]:OutcomeMeasurePopulationDescription,</v>
       </c>
     </row>
@@ -12258,14 +12299,14 @@
         <v>241</v>
       </c>
       <c r="C282" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="38"/>
         <v>OutcomeMeasureReportingStatus = []</v>
       </c>
       <c r="E282" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F282" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="39"/>
         <v xml:space="preserve">    if len(study_content['OutcomeMeasureReportingStatus']) ==0 :
         OutcomeMeasureReportingStatus.append(0)
     if len(study_content['OutcomeMeasureReportingStatus']) ==1 :
@@ -12280,7 +12321,7 @@
         <v>12</v>
       </c>
       <c r="I282" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H282&amp;"]:"&amp;B282&amp;","</f>
+        <f t="shared" si="37"/>
         <v>part1[12]:OutcomeMeasureReportingStatus,</v>
       </c>
     </row>
@@ -12289,14 +12330,14 @@
         <v>242</v>
       </c>
       <c r="C283" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="38"/>
         <v>OutcomeMeasureTimeFrame = []</v>
       </c>
       <c r="E283" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F283" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="39"/>
         <v xml:space="preserve">    if len(study_content['OutcomeMeasureTimeFrame']) ==0 :
         OutcomeMeasureTimeFrame.append(0)
     if len(study_content['OutcomeMeasureTimeFrame']) ==1 :
@@ -12311,7 +12352,7 @@
         <v>13</v>
       </c>
       <c r="I283" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H283&amp;"]:"&amp;B283&amp;","</f>
+        <f t="shared" si="37"/>
         <v>part1[13]:OutcomeMeasureTimeFrame,</v>
       </c>
     </row>
@@ -12320,14 +12361,14 @@
         <v>243</v>
       </c>
       <c r="C284" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="38"/>
         <v>OutcomeMeasureTitle = []</v>
       </c>
       <c r="E284" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F284" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="39"/>
         <v xml:space="preserve">    if len(study_content['OutcomeMeasureTitle']) ==0 :
         OutcomeMeasureTitle.append(0)
     if len(study_content['OutcomeMeasureTitle']) ==1 :
@@ -12342,7 +12383,7 @@
         <v>14</v>
       </c>
       <c r="I284" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H284&amp;"]:"&amp;B284&amp;","</f>
+        <f t="shared" si="37"/>
         <v>part1[14]:OutcomeMeasureTitle,</v>
       </c>
     </row>
@@ -12351,14 +12392,14 @@
         <v>244</v>
       </c>
       <c r="C285" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="38"/>
         <v>OutcomeMeasureType = []</v>
       </c>
       <c r="E285" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F285" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="39"/>
         <v xml:space="preserve">    if len(study_content['OutcomeMeasureType']) ==0 :
         OutcomeMeasureType.append(0)
     if len(study_content['OutcomeMeasureType']) ==1 :
@@ -12373,7 +12414,7 @@
         <v>15</v>
       </c>
       <c r="I285" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H285&amp;"]:"&amp;B285&amp;","</f>
+        <f t="shared" si="37"/>
         <v>part1[15]:OutcomeMeasureType,</v>
       </c>
     </row>
@@ -12382,14 +12423,14 @@
         <v>245</v>
       </c>
       <c r="C286" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="38"/>
         <v>OutcomeMeasureTypeUnitsAnalyzed = []</v>
       </c>
       <c r="E286" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F286" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="39"/>
         <v xml:space="preserve">    if len(study_content['OutcomeMeasureTypeUnitsAnalyzed']) ==0 :
         OutcomeMeasureTypeUnitsAnalyzed.append(0)
     if len(study_content['OutcomeMeasureTypeUnitsAnalyzed']) ==1 :
@@ -12404,7 +12445,7 @@
         <v>16</v>
       </c>
       <c r="I286" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H286&amp;"]:"&amp;B286&amp;","</f>
+        <f t="shared" si="37"/>
         <v>part1[16]:OutcomeMeasureTypeUnitsAnalyzed,</v>
       </c>
     </row>
@@ -12413,14 +12454,14 @@
         <v>246</v>
       </c>
       <c r="C287" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="38"/>
         <v>OutcomeMeasureUnitOfMeasure = []</v>
       </c>
       <c r="E287" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F287" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="39"/>
         <v xml:space="preserve">    if len(study_content['OutcomeMeasureUnitOfMeasure']) ==0 :
         OutcomeMeasureUnitOfMeasure.append(0)
     if len(study_content['OutcomeMeasureUnitOfMeasure']) ==1 :
@@ -12435,7 +12476,7 @@
         <v>17</v>
       </c>
       <c r="I287" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H287&amp;"]:"&amp;B287&amp;","</f>
+        <f t="shared" si="37"/>
         <v>part1[17]:OutcomeMeasureUnitOfMeasure,</v>
       </c>
     </row>
@@ -12444,14 +12485,14 @@
         <v>247</v>
       </c>
       <c r="C288" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="38"/>
         <v>OutcomeMeasurementComment = []</v>
       </c>
       <c r="E288" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F288" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="39"/>
         <v xml:space="preserve">    if len(study_content['OutcomeMeasurementComment']) ==0 :
         OutcomeMeasurementComment.append(0)
     if len(study_content['OutcomeMeasurementComment']) ==1 :
@@ -12466,7 +12507,7 @@
         <v>18</v>
       </c>
       <c r="I288" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H288&amp;"]:"&amp;B288&amp;","</f>
+        <f t="shared" si="37"/>
         <v>part1[18]:OutcomeMeasurementComment,</v>
       </c>
     </row>
@@ -12475,14 +12516,14 @@
         <v>248</v>
       </c>
       <c r="C289" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="38"/>
         <v>OutcomeMeasurementGroupId = []</v>
       </c>
       <c r="E289" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F289" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="39"/>
         <v xml:space="preserve">    if len(study_content['OutcomeMeasurementGroupId']) ==0 :
         OutcomeMeasurementGroupId.append(0)
     if len(study_content['OutcomeMeasurementGroupId']) ==1 :
@@ -12572,7 +12613,7 @@
         <v>1</v>
       </c>
       <c r="I293" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H293&amp;"]:"&amp;B293&amp;","</f>
+        <f t="shared" ref="I293:I310" si="40">"part" &amp;$A$5&amp; "["&amp;H293&amp;"]:"&amp;B293&amp;","</f>
         <v>part1[1]:OutcomeMeasurementLowerLimit,</v>
       </c>
     </row>
@@ -12581,14 +12622,14 @@
         <v>250</v>
       </c>
       <c r="C294" t="str">
-        <f t="shared" ref="C294:C311" si="27">B294&amp;" = []"</f>
+        <f t="shared" ref="C294:C311" si="41">B294&amp;" = []"</f>
         <v>OutcomeMeasurementSpread = []</v>
       </c>
       <c r="E294" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F294" t="str">
-        <f t="shared" ref="F294:F311" si="28">SUBSTITUTE(E294,"AgreementOtherDetails",B294)</f>
+        <f t="shared" ref="F294:F311" si="42">SUBSTITUTE(E294,"AgreementOtherDetails",B294)</f>
         <v xml:space="preserve">    if len(study_content['OutcomeMeasurementSpread']) ==0 :
         OutcomeMeasurementSpread.append(0)
     if len(study_content['OutcomeMeasurementSpread']) ==1 :
@@ -12603,7 +12644,7 @@
         <v>2</v>
       </c>
       <c r="I294" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H294&amp;"]:"&amp;B294&amp;","</f>
+        <f t="shared" si="40"/>
         <v>part1[2]:OutcomeMeasurementSpread,</v>
       </c>
     </row>
@@ -12612,14 +12653,14 @@
         <v>251</v>
       </c>
       <c r="C295" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="41"/>
         <v>PrimaryOutcomeTimeFrame = []</v>
       </c>
       <c r="E295" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F295" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="42"/>
         <v xml:space="preserve">    if len(study_content['PrimaryOutcomeTimeFrame']) ==0 :
         PrimaryOutcomeTimeFrame.append(0)
     if len(study_content['PrimaryOutcomeTimeFrame']) ==1 :
@@ -12634,7 +12675,7 @@
         <v>3</v>
       </c>
       <c r="I295" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H295&amp;"]:"&amp;B295&amp;","</f>
+        <f t="shared" si="40"/>
         <v>part1[3]:PrimaryOutcomeTimeFrame,</v>
       </c>
     </row>
@@ -12643,14 +12684,14 @@
         <v>252</v>
       </c>
       <c r="C296" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="41"/>
         <v>OutcomeMeasurementValue = []</v>
       </c>
       <c r="E296" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F296" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="42"/>
         <v xml:space="preserve">    if len(study_content['OutcomeMeasurementValue']) ==0 :
         OutcomeMeasurementValue.append(0)
     if len(study_content['OutcomeMeasurementValue']) ==1 :
@@ -12665,7 +12706,7 @@
         <v>4</v>
       </c>
       <c r="I296" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H296&amp;"]:"&amp;B296&amp;","</f>
+        <f t="shared" si="40"/>
         <v>part1[4]:OutcomeMeasurementValue,</v>
       </c>
     </row>
@@ -12674,14 +12715,14 @@
         <v>253</v>
       </c>
       <c r="C297" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="41"/>
         <v>OverallOfficialAffiliation = []</v>
       </c>
       <c r="E297" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F297" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="42"/>
         <v xml:space="preserve">    if len(study_content['OverallOfficialAffiliation']) ==0 :
         OverallOfficialAffiliation.append(0)
     if len(study_content['OverallOfficialAffiliation']) ==1 :
@@ -12696,7 +12737,7 @@
         <v>5</v>
       </c>
       <c r="I297" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H297&amp;"]:"&amp;B297&amp;","</f>
+        <f t="shared" si="40"/>
         <v>part1[5]:OverallOfficialAffiliation,</v>
       </c>
     </row>
@@ -12705,14 +12746,14 @@
         <v>254</v>
       </c>
       <c r="C298" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="41"/>
         <v>OverallOfficialName = []</v>
       </c>
       <c r="E298" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F298" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="42"/>
         <v xml:space="preserve">    if len(study_content['OverallOfficialName']) ==0 :
         OverallOfficialName.append(0)
     if len(study_content['OverallOfficialName']) ==1 :
@@ -12727,7 +12768,7 @@
         <v>6</v>
       </c>
       <c r="I298" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H298&amp;"]:"&amp;B298&amp;","</f>
+        <f t="shared" si="40"/>
         <v>part1[6]:OverallOfficialName,</v>
       </c>
     </row>
@@ -12736,14 +12777,14 @@
         <v>255</v>
       </c>
       <c r="C299" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="41"/>
         <v>OverallOfficialRole = []</v>
       </c>
       <c r="E299" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F299" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="42"/>
         <v xml:space="preserve">    if len(study_content['OverallOfficialRole']) ==0 :
         OverallOfficialRole.append(0)
     if len(study_content['OverallOfficialRole']) ==1 :
@@ -12758,7 +12799,7 @@
         <v>7</v>
       </c>
       <c r="I299" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H299&amp;"]:"&amp;B299&amp;","</f>
+        <f t="shared" si="40"/>
         <v>part1[7]:OverallOfficialRole,</v>
       </c>
     </row>
@@ -12767,14 +12808,14 @@
         <v>256</v>
       </c>
       <c r="C300" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="41"/>
         <v>OverallStatus = []</v>
       </c>
       <c r="E300" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F300" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="42"/>
         <v xml:space="preserve">    if len(study_content['OverallStatus']) ==0 :
         OverallStatus.append(0)
     if len(study_content['OverallStatus']) ==1 :
@@ -12789,7 +12830,7 @@
         <v>8</v>
       </c>
       <c r="I300" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H300&amp;"]:"&amp;B300&amp;","</f>
+        <f t="shared" si="40"/>
         <v>part1[8]:OverallStatus,</v>
       </c>
     </row>
@@ -12798,14 +12839,14 @@
         <v>257</v>
       </c>
       <c r="C301" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="41"/>
         <v>OversightHasDMC = []</v>
       </c>
       <c r="E301" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F301" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="42"/>
         <v xml:space="preserve">    if len(study_content['OversightHasDMC']) ==0 :
         OversightHasDMC.append(0)
     if len(study_content['OversightHasDMC']) ==1 :
@@ -12820,7 +12861,7 @@
         <v>9</v>
       </c>
       <c r="I301" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H301&amp;"]:"&amp;B301&amp;","</f>
+        <f t="shared" si="40"/>
         <v>part1[9]:OversightHasDMC,</v>
       </c>
     </row>
@@ -12829,14 +12870,14 @@
         <v>258</v>
       </c>
       <c r="C302" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="41"/>
         <v>PatientRegistry = []</v>
       </c>
       <c r="E302" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F302" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="42"/>
         <v xml:space="preserve">    if len(study_content['PatientRegistry']) ==0 :
         PatientRegistry.append(0)
     if len(study_content['PatientRegistry']) ==1 :
@@ -12851,7 +12892,7 @@
         <v>10</v>
       </c>
       <c r="I302" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H302&amp;"]:"&amp;B302&amp;","</f>
+        <f t="shared" si="40"/>
         <v>part1[10]:PatientRegistry,</v>
       </c>
     </row>
@@ -12860,14 +12901,14 @@
         <v>259</v>
       </c>
       <c r="C303" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="41"/>
         <v>Phase = []</v>
       </c>
       <c r="E303" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F303" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="42"/>
         <v xml:space="preserve">    if len(study_content['Phase']) ==0 :
         Phase.append(0)
     if len(study_content['Phase']) ==1 :
@@ -12882,7 +12923,7 @@
         <v>11</v>
       </c>
       <c r="I303" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H303&amp;"]:"&amp;B303&amp;","</f>
+        <f t="shared" si="40"/>
         <v>part1[11]:Phase,</v>
       </c>
     </row>
@@ -12891,14 +12932,14 @@
         <v>260</v>
       </c>
       <c r="C304" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="41"/>
         <v>PointOfContactEMail = []</v>
       </c>
       <c r="E304" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F304" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="42"/>
         <v xml:space="preserve">    if len(study_content['PointOfContactEMail']) ==0 :
         PointOfContactEMail.append(0)
     if len(study_content['PointOfContactEMail']) ==1 :
@@ -12913,7 +12954,7 @@
         <v>12</v>
       </c>
       <c r="I304" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H304&amp;"]:"&amp;B304&amp;","</f>
+        <f t="shared" si="40"/>
         <v>part1[12]:PointOfContactEMail,</v>
       </c>
     </row>
@@ -12922,14 +12963,14 @@
         <v>261</v>
       </c>
       <c r="C305" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="41"/>
         <v>PointOfContactOrganization = []</v>
       </c>
       <c r="E305" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F305" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="42"/>
         <v xml:space="preserve">    if len(study_content['PointOfContactOrganization']) ==0 :
         PointOfContactOrganization.append(0)
     if len(study_content['PointOfContactOrganization']) ==1 :
@@ -12944,7 +12985,7 @@
         <v>13</v>
       </c>
       <c r="I305" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H305&amp;"]:"&amp;B305&amp;","</f>
+        <f t="shared" si="40"/>
         <v>part1[13]:PointOfContactOrganization,</v>
       </c>
     </row>
@@ -12953,14 +12994,14 @@
         <v>262</v>
       </c>
       <c r="C306" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="41"/>
         <v>PointOfContactPhone = []</v>
       </c>
       <c r="E306" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F306" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="42"/>
         <v xml:space="preserve">    if len(study_content['PointOfContactPhone']) ==0 :
         PointOfContactPhone.append(0)
     if len(study_content['PointOfContactPhone']) ==1 :
@@ -12975,7 +13016,7 @@
         <v>14</v>
       </c>
       <c r="I306" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H306&amp;"]:"&amp;B306&amp;","</f>
+        <f t="shared" si="40"/>
         <v>part1[14]:PointOfContactPhone,</v>
       </c>
     </row>
@@ -12984,14 +13025,14 @@
         <v>263</v>
       </c>
       <c r="C307" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="41"/>
         <v>PointOfContactPhoneExt = []</v>
       </c>
       <c r="E307" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F307" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="42"/>
         <v xml:space="preserve">    if len(study_content['PointOfContactPhoneExt']) ==0 :
         PointOfContactPhoneExt.append(0)
     if len(study_content['PointOfContactPhoneExt']) ==1 :
@@ -13006,7 +13047,7 @@
         <v>15</v>
       </c>
       <c r="I307" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H307&amp;"]:"&amp;B307&amp;","</f>
+        <f t="shared" si="40"/>
         <v>part1[15]:PointOfContactPhoneExt,</v>
       </c>
     </row>
@@ -13015,14 +13056,14 @@
         <v>264</v>
       </c>
       <c r="C308" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="41"/>
         <v>PointOfContactTitle = []</v>
       </c>
       <c r="E308" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F308" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="42"/>
         <v xml:space="preserve">    if len(study_content['PointOfContactTitle']) ==0 :
         PointOfContactTitle.append(0)
     if len(study_content['PointOfContactTitle']) ==1 :
@@ -13037,7 +13078,7 @@
         <v>16</v>
       </c>
       <c r="I308" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H308&amp;"]:"&amp;B308&amp;","</f>
+        <f t="shared" si="40"/>
         <v>part1[16]:PointOfContactTitle,</v>
       </c>
     </row>
@@ -13046,14 +13087,14 @@
         <v>265</v>
       </c>
       <c r="C309" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="41"/>
         <v>PrimaryCompletionDate = []</v>
       </c>
       <c r="E309" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F309" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="42"/>
         <v xml:space="preserve">    if len(study_content['PrimaryCompletionDate']) ==0 :
         PrimaryCompletionDate.append(0)
     if len(study_content['PrimaryCompletionDate']) ==1 :
@@ -13068,7 +13109,7 @@
         <v>17</v>
       </c>
       <c r="I309" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H309&amp;"]:"&amp;B309&amp;","</f>
+        <f t="shared" si="40"/>
         <v>part1[17]:PrimaryCompletionDate,</v>
       </c>
     </row>
@@ -13077,14 +13118,14 @@
         <v>266</v>
       </c>
       <c r="C310" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="41"/>
         <v>PrimaryCompletionDateType = []</v>
       </c>
       <c r="E310" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F310" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="42"/>
         <v xml:space="preserve">    if len(study_content['PrimaryCompletionDateType']) ==0 :
         PrimaryCompletionDateType.append(0)
     if len(study_content['PrimaryCompletionDateType']) ==1 :
@@ -13099,7 +13140,7 @@
         <v>18</v>
       </c>
       <c r="I310" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H310&amp;"]:"&amp;B310&amp;","</f>
+        <f t="shared" si="40"/>
         <v>part1[18]:PrimaryCompletionDateType,</v>
       </c>
     </row>
@@ -13108,14 +13149,14 @@
         <v>267</v>
       </c>
       <c r="C311" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="41"/>
         <v>PrimaryOutcomeDescription = []</v>
       </c>
       <c r="E311" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F311" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="42"/>
         <v xml:space="preserve">    if len(study_content['PrimaryOutcomeDescription']) ==0 :
         PrimaryOutcomeDescription.append(0)
     if len(study_content['PrimaryOutcomeDescription']) ==1 :
@@ -13205,7 +13246,7 @@
         <v>1</v>
       </c>
       <c r="I315" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H315&amp;"]:"&amp;B315&amp;","</f>
+        <f t="shared" ref="I315:I332" si="43">"part" &amp;$A$5&amp; "["&amp;H315&amp;"]:"&amp;B315&amp;","</f>
         <v>part1[1]:PrimaryOutcomeMeasure,</v>
       </c>
     </row>
@@ -13214,14 +13255,14 @@
         <v>269</v>
       </c>
       <c r="C316" t="str">
-        <f t="shared" ref="C316:C333" si="29">B316&amp;" = []"</f>
+        <f t="shared" ref="C316:C333" si="44">B316&amp;" = []"</f>
         <v>SecondaryIdDomain = []</v>
       </c>
       <c r="E316" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F316" t="str">
-        <f t="shared" ref="F316:F333" si="30">SUBSTITUTE(E316,"AgreementOtherDetails",B316)</f>
+        <f t="shared" ref="F316:F333" si="45">SUBSTITUTE(E316,"AgreementOtherDetails",B316)</f>
         <v xml:space="preserve">    if len(study_content['SecondaryIdDomain']) ==0 :
         SecondaryIdDomain.append(0)
     if len(study_content['SecondaryIdDomain']) ==1 :
@@ -13236,7 +13277,7 @@
         <v>2</v>
       </c>
       <c r="I316" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H316&amp;"]:"&amp;B316&amp;","</f>
+        <f t="shared" si="43"/>
         <v>part1[2]:SecondaryIdDomain,</v>
       </c>
     </row>
@@ -13245,14 +13286,14 @@
         <v>270</v>
       </c>
       <c r="C317" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="44"/>
         <v>ReferenceCitation = []</v>
       </c>
       <c r="E317" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F317" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="45"/>
         <v xml:space="preserve">    if len(study_content['ReferenceCitation']) ==0 :
         ReferenceCitation.append(0)
     if len(study_content['ReferenceCitation']) ==1 :
@@ -13267,7 +13308,7 @@
         <v>3</v>
       </c>
       <c r="I317" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H317&amp;"]:"&amp;B317&amp;","</f>
+        <f t="shared" si="43"/>
         <v>part1[3]:ReferenceCitation,</v>
       </c>
     </row>
@@ -13276,14 +13317,14 @@
         <v>271</v>
       </c>
       <c r="C318" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="44"/>
         <v>ReferencePMID = []</v>
       </c>
       <c r="E318" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F318" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="45"/>
         <v xml:space="preserve">    if len(study_content['ReferencePMID']) ==0 :
         ReferencePMID.append(0)
     if len(study_content['ReferencePMID']) ==1 :
@@ -13298,7 +13339,7 @@
         <v>4</v>
       </c>
       <c r="I318" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H318&amp;"]:"&amp;B318&amp;","</f>
+        <f t="shared" si="43"/>
         <v>part1[4]:ReferencePMID,</v>
       </c>
     </row>
@@ -13307,14 +13348,14 @@
         <v>272</v>
       </c>
       <c r="C319" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="44"/>
         <v>ReferenceType = []</v>
       </c>
       <c r="E319" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F319" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="45"/>
         <v xml:space="preserve">    if len(study_content['ReferenceType']) ==0 :
         ReferenceType.append(0)
     if len(study_content['ReferenceType']) ==1 :
@@ -13329,7 +13370,7 @@
         <v>5</v>
       </c>
       <c r="I319" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H319&amp;"]:"&amp;B319&amp;","</f>
+        <f t="shared" si="43"/>
         <v>part1[5]:ReferenceType,</v>
       </c>
     </row>
@@ -13338,14 +13379,14 @@
         <v>273</v>
       </c>
       <c r="C320" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="44"/>
         <v>RemovedCountry = []</v>
       </c>
       <c r="E320" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F320" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="45"/>
         <v xml:space="preserve">    if len(study_content['RemovedCountry']) ==0 :
         RemovedCountry.append(0)
     if len(study_content['RemovedCountry']) ==1 :
@@ -13360,7 +13401,7 @@
         <v>6</v>
       </c>
       <c r="I320" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H320&amp;"]:"&amp;B320&amp;","</f>
+        <f t="shared" si="43"/>
         <v>part1[6]:RemovedCountry,</v>
       </c>
     </row>
@@ -13369,14 +13410,14 @@
         <v>274</v>
       </c>
       <c r="C321" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="44"/>
         <v>ResponsiblePartyInvestigatorAffiliation = []</v>
       </c>
       <c r="E321" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F321" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="45"/>
         <v xml:space="preserve">    if len(study_content['ResponsiblePartyInvestigatorAffiliation']) ==0 :
         ResponsiblePartyInvestigatorAffiliation.append(0)
     if len(study_content['ResponsiblePartyInvestigatorAffiliation']) ==1 :
@@ -13391,7 +13432,7 @@
         <v>7</v>
       </c>
       <c r="I321" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H321&amp;"]:"&amp;B321&amp;","</f>
+        <f t="shared" si="43"/>
         <v>part1[7]:ResponsiblePartyInvestigatorAffiliation,</v>
       </c>
     </row>
@@ -13400,14 +13441,14 @@
         <v>275</v>
       </c>
       <c r="C322" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="44"/>
         <v>ResponsiblePartyInvestigatorFullName = []</v>
       </c>
       <c r="E322" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F322" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="45"/>
         <v xml:space="preserve">    if len(study_content['ResponsiblePartyInvestigatorFullName']) ==0 :
         ResponsiblePartyInvestigatorFullName.append(0)
     if len(study_content['ResponsiblePartyInvestigatorFullName']) ==1 :
@@ -13422,7 +13463,7 @@
         <v>8</v>
       </c>
       <c r="I322" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H322&amp;"]:"&amp;B322&amp;","</f>
+        <f t="shared" si="43"/>
         <v>part1[8]:ResponsiblePartyInvestigatorFullName,</v>
       </c>
     </row>
@@ -13431,14 +13472,14 @@
         <v>276</v>
       </c>
       <c r="C323" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="44"/>
         <v>ResponsiblePartyInvestigatorTitle = []</v>
       </c>
       <c r="E323" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F323" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="45"/>
         <v xml:space="preserve">    if len(study_content['ResponsiblePartyInvestigatorTitle']) ==0 :
         ResponsiblePartyInvestigatorTitle.append(0)
     if len(study_content['ResponsiblePartyInvestigatorTitle']) ==1 :
@@ -13453,7 +13494,7 @@
         <v>9</v>
       </c>
       <c r="I323" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H323&amp;"]:"&amp;B323&amp;","</f>
+        <f t="shared" si="43"/>
         <v>part1[9]:ResponsiblePartyInvestigatorTitle,</v>
       </c>
     </row>
@@ -13462,14 +13503,14 @@
         <v>277</v>
       </c>
       <c r="C324" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="44"/>
         <v>ResponsiblePartyOldNameTitle = []</v>
       </c>
       <c r="E324" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F324" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="45"/>
         <v xml:space="preserve">    if len(study_content['ResponsiblePartyOldNameTitle']) ==0 :
         ResponsiblePartyOldNameTitle.append(0)
     if len(study_content['ResponsiblePartyOldNameTitle']) ==1 :
@@ -13484,7 +13525,7 @@
         <v>10</v>
       </c>
       <c r="I324" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H324&amp;"]:"&amp;B324&amp;","</f>
+        <f t="shared" si="43"/>
         <v>part1[10]:ResponsiblePartyOldNameTitle,</v>
       </c>
     </row>
@@ -13493,14 +13534,14 @@
         <v>278</v>
       </c>
       <c r="C325" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="44"/>
         <v>ResponsiblePartyOldOrganization = []</v>
       </c>
       <c r="E325" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F325" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="45"/>
         <v xml:space="preserve">    if len(study_content['ResponsiblePartyOldOrganization']) ==0 :
         ResponsiblePartyOldOrganization.append(0)
     if len(study_content['ResponsiblePartyOldOrganization']) ==1 :
@@ -13515,7 +13556,7 @@
         <v>11</v>
       </c>
       <c r="I325" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H325&amp;"]:"&amp;B325&amp;","</f>
+        <f t="shared" si="43"/>
         <v>part1[11]:ResponsiblePartyOldOrganization,</v>
       </c>
     </row>
@@ -13524,14 +13565,14 @@
         <v>279</v>
       </c>
       <c r="C326" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="44"/>
         <v>ResponsiblePartyType = []</v>
       </c>
       <c r="E326" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F326" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="45"/>
         <v xml:space="preserve">    if len(study_content['ResponsiblePartyType']) ==0 :
         ResponsiblePartyType.append(0)
     if len(study_content['ResponsiblePartyType']) ==1 :
@@ -13546,7 +13587,7 @@
         <v>12</v>
       </c>
       <c r="I326" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H326&amp;"]:"&amp;B326&amp;","</f>
+        <f t="shared" si="43"/>
         <v>part1[12]:ResponsiblePartyType,</v>
       </c>
     </row>
@@ -13555,14 +13596,14 @@
         <v>280</v>
       </c>
       <c r="C327" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="44"/>
         <v>ResultsFirstPostDate = []</v>
       </c>
       <c r="E327" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F327" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="45"/>
         <v xml:space="preserve">    if len(study_content['ResultsFirstPostDate']) ==0 :
         ResultsFirstPostDate.append(0)
     if len(study_content['ResultsFirstPostDate']) ==1 :
@@ -13577,7 +13618,7 @@
         <v>13</v>
       </c>
       <c r="I327" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H327&amp;"]:"&amp;B327&amp;","</f>
+        <f t="shared" si="43"/>
         <v>part1[13]:ResultsFirstPostDate,</v>
       </c>
     </row>
@@ -13586,14 +13627,14 @@
         <v>281</v>
       </c>
       <c r="C328" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="44"/>
         <v>ResultsFirstPostDateType = []</v>
       </c>
       <c r="E328" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F328" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="45"/>
         <v xml:space="preserve">    if len(study_content['ResultsFirstPostDateType']) ==0 :
         ResultsFirstPostDateType.append(0)
     if len(study_content['ResultsFirstPostDateType']) ==1 :
@@ -13608,7 +13649,7 @@
         <v>14</v>
       </c>
       <c r="I328" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H328&amp;"]:"&amp;B328&amp;","</f>
+        <f t="shared" si="43"/>
         <v>part1[14]:ResultsFirstPostDateType,</v>
       </c>
     </row>
@@ -13617,14 +13658,14 @@
         <v>282</v>
       </c>
       <c r="C329" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="44"/>
         <v>ResultsFirstSubmitDate = []</v>
       </c>
       <c r="E329" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F329" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="45"/>
         <v xml:space="preserve">    if len(study_content['ResultsFirstSubmitDate']) ==0 :
         ResultsFirstSubmitDate.append(0)
     if len(study_content['ResultsFirstSubmitDate']) ==1 :
@@ -13639,7 +13680,7 @@
         <v>15</v>
       </c>
       <c r="I329" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H329&amp;"]:"&amp;B329&amp;","</f>
+        <f t="shared" si="43"/>
         <v>part1[15]:ResultsFirstSubmitDate,</v>
       </c>
     </row>
@@ -13648,14 +13689,14 @@
         <v>283</v>
       </c>
       <c r="C330" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="44"/>
         <v>ResultsFirstSubmitQCDate = []</v>
       </c>
       <c r="E330" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F330" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="45"/>
         <v xml:space="preserve">    if len(study_content['ResultsFirstSubmitQCDate']) ==0 :
         ResultsFirstSubmitQCDate.append(0)
     if len(study_content['ResultsFirstSubmitQCDate']) ==1 :
@@ -13670,7 +13711,7 @@
         <v>16</v>
       </c>
       <c r="I330" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H330&amp;"]:"&amp;B330&amp;","</f>
+        <f t="shared" si="43"/>
         <v>part1[16]:ResultsFirstSubmitQCDate,</v>
       </c>
     </row>
@@ -13679,14 +13720,14 @@
         <v>284</v>
       </c>
       <c r="C331" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="44"/>
         <v>RetractionPMID = []</v>
       </c>
       <c r="E331" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F331" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="45"/>
         <v xml:space="preserve">    if len(study_content['RetractionPMID']) ==0 :
         RetractionPMID.append(0)
     if len(study_content['RetractionPMID']) ==1 :
@@ -13701,7 +13742,7 @@
         <v>17</v>
       </c>
       <c r="I331" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H331&amp;"]:"&amp;B331&amp;","</f>
+        <f t="shared" si="43"/>
         <v>part1[17]:RetractionPMID,</v>
       </c>
     </row>
@@ -13710,14 +13751,14 @@
         <v>285</v>
       </c>
       <c r="C332" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="44"/>
         <v>RetractionSource = []</v>
       </c>
       <c r="E332" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F332" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="45"/>
         <v xml:space="preserve">    if len(study_content['RetractionSource']) ==0 :
         RetractionSource.append(0)
     if len(study_content['RetractionSource']) ==1 :
@@ -13732,7 +13773,7 @@
         <v>18</v>
       </c>
       <c r="I332" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H332&amp;"]:"&amp;B332&amp;","</f>
+        <f t="shared" si="43"/>
         <v>part1[18]:RetractionSource,</v>
       </c>
     </row>
@@ -13741,14 +13782,14 @@
         <v>286</v>
       </c>
       <c r="C333" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="44"/>
         <v>SamplingMethod = []</v>
       </c>
       <c r="E333" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F333" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="45"/>
         <v xml:space="preserve">    if len(study_content['SamplingMethod']) ==0 :
         SamplingMethod.append(0)
     if len(study_content['SamplingMethod']) ==1 :
@@ -13838,7 +13879,7 @@
         <v>1</v>
       </c>
       <c r="I337" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H337&amp;"]:"&amp;B337&amp;","</f>
+        <f t="shared" ref="I337:I354" si="46">"part" &amp;$A$5&amp; "["&amp;H337&amp;"]:"&amp;B337&amp;","</f>
         <v>part1[1]:SecondaryId,</v>
       </c>
     </row>
@@ -13847,14 +13888,14 @@
         <v>288</v>
       </c>
       <c r="C338" t="str">
-        <f t="shared" ref="C338:C355" si="31">B338&amp;" = []"</f>
+        <f t="shared" ref="C338:C355" si="47">B338&amp;" = []"</f>
         <v>StdAge = []</v>
       </c>
       <c r="E338" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F338" t="str">
-        <f t="shared" ref="F338:F355" si="32">SUBSTITUTE(E338,"AgreementOtherDetails",B338)</f>
+        <f t="shared" ref="F338:F355" si="48">SUBSTITUTE(E338,"AgreementOtherDetails",B338)</f>
         <v xml:space="preserve">    if len(study_content['StdAge']) ==0 :
         StdAge.append(0)
     if len(study_content['StdAge']) ==1 :
@@ -13869,7 +13910,7 @@
         <v>2</v>
       </c>
       <c r="I338" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H338&amp;"]:"&amp;B338&amp;","</f>
+        <f t="shared" si="46"/>
         <v>part1[2]:StdAge,</v>
       </c>
     </row>
@@ -13878,14 +13919,14 @@
         <v>289</v>
       </c>
       <c r="C339" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="47"/>
         <v>SecondaryIdLink = []</v>
       </c>
       <c r="E339" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F339" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="48"/>
         <v xml:space="preserve">    if len(study_content['SecondaryIdLink']) ==0 :
         SecondaryIdLink.append(0)
     if len(study_content['SecondaryIdLink']) ==1 :
@@ -13900,7 +13941,7 @@
         <v>3</v>
       </c>
       <c r="I339" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H339&amp;"]:"&amp;B339&amp;","</f>
+        <f t="shared" si="46"/>
         <v>part1[3]:SecondaryIdLink,</v>
       </c>
     </row>
@@ -13909,14 +13950,14 @@
         <v>290</v>
       </c>
       <c r="C340" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="47"/>
         <v>SecondaryIdType = []</v>
       </c>
       <c r="E340" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F340" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="48"/>
         <v xml:space="preserve">    if len(study_content['SecondaryIdType']) ==0 :
         SecondaryIdType.append(0)
     if len(study_content['SecondaryIdType']) ==1 :
@@ -13931,7 +13972,7 @@
         <v>4</v>
       </c>
       <c r="I340" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H340&amp;"]:"&amp;B340&amp;","</f>
+        <f t="shared" si="46"/>
         <v>part1[4]:SecondaryIdType,</v>
       </c>
     </row>
@@ -13940,14 +13981,14 @@
         <v>291</v>
       </c>
       <c r="C341" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="47"/>
         <v>SecondaryOutcomeDescription = []</v>
       </c>
       <c r="E341" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F341" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="48"/>
         <v xml:space="preserve">    if len(study_content['SecondaryOutcomeDescription']) ==0 :
         SecondaryOutcomeDescription.append(0)
     if len(study_content['SecondaryOutcomeDescription']) ==1 :
@@ -13962,7 +14003,7 @@
         <v>5</v>
       </c>
       <c r="I341" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H341&amp;"]:"&amp;B341&amp;","</f>
+        <f t="shared" si="46"/>
         <v>part1[5]:SecondaryOutcomeDescription,</v>
       </c>
     </row>
@@ -13971,14 +14012,14 @@
         <v>292</v>
       </c>
       <c r="C342" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="47"/>
         <v>SecondaryOutcomeMeasure = []</v>
       </c>
       <c r="E342" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F342" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="48"/>
         <v xml:space="preserve">    if len(study_content['SecondaryOutcomeMeasure']) ==0 :
         SecondaryOutcomeMeasure.append(0)
     if len(study_content['SecondaryOutcomeMeasure']) ==1 :
@@ -13993,7 +14034,7 @@
         <v>6</v>
       </c>
       <c r="I342" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H342&amp;"]:"&amp;B342&amp;","</f>
+        <f t="shared" si="46"/>
         <v>part1[6]:SecondaryOutcomeMeasure,</v>
       </c>
     </row>
@@ -14002,14 +14043,14 @@
         <v>293</v>
       </c>
       <c r="C343" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="47"/>
         <v>SecondaryOutcomeTimeFrame = []</v>
       </c>
       <c r="E343" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F343" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="48"/>
         <v xml:space="preserve">    if len(study_content['SecondaryOutcomeTimeFrame']) ==0 :
         SecondaryOutcomeTimeFrame.append(0)
     if len(study_content['SecondaryOutcomeTimeFrame']) ==1 :
@@ -14024,7 +14065,7 @@
         <v>7</v>
       </c>
       <c r="I343" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H343&amp;"]:"&amp;B343&amp;","</f>
+        <f t="shared" si="46"/>
         <v>part1[7]:SecondaryOutcomeTimeFrame,</v>
       </c>
     </row>
@@ -14033,14 +14074,14 @@
         <v>294</v>
       </c>
       <c r="C344" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="47"/>
         <v>SeeAlsoLinkLabel = []</v>
       </c>
       <c r="E344" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F344" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="48"/>
         <v xml:space="preserve">    if len(study_content['SeeAlsoLinkLabel']) ==0 :
         SeeAlsoLinkLabel.append(0)
     if len(study_content['SeeAlsoLinkLabel']) ==1 :
@@ -14055,7 +14096,7 @@
         <v>8</v>
       </c>
       <c r="I344" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H344&amp;"]:"&amp;B344&amp;","</f>
+        <f t="shared" si="46"/>
         <v>part1[8]:SeeAlsoLinkLabel,</v>
       </c>
     </row>
@@ -14064,14 +14105,14 @@
         <v>295</v>
       </c>
       <c r="C345" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="47"/>
         <v>SeeAlsoLinkURL = []</v>
       </c>
       <c r="E345" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F345" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="48"/>
         <v xml:space="preserve">    if len(study_content['SeeAlsoLinkURL']) ==0 :
         SeeAlsoLinkURL.append(0)
     if len(study_content['SeeAlsoLinkURL']) ==1 :
@@ -14086,7 +14127,7 @@
         <v>9</v>
       </c>
       <c r="I345" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H345&amp;"]:"&amp;B345&amp;","</f>
+        <f t="shared" si="46"/>
         <v>part1[9]:SeeAlsoLinkURL,</v>
       </c>
     </row>
@@ -14095,14 +14136,14 @@
         <v>296</v>
       </c>
       <c r="C346" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="47"/>
         <v>SeriousEventAssessmentType = []</v>
       </c>
       <c r="E346" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F346" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="48"/>
         <v xml:space="preserve">    if len(study_content['SeriousEventAssessmentType']) ==0 :
         SeriousEventAssessmentType.append(0)
     if len(study_content['SeriousEventAssessmentType']) ==1 :
@@ -14117,7 +14158,7 @@
         <v>10</v>
       </c>
       <c r="I346" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H346&amp;"]:"&amp;B346&amp;","</f>
+        <f t="shared" si="46"/>
         <v>part1[10]:SeriousEventAssessmentType,</v>
       </c>
     </row>
@@ -14126,14 +14167,14 @@
         <v>297</v>
       </c>
       <c r="C347" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="47"/>
         <v>SeriousEventNotes = []</v>
       </c>
       <c r="E347" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F347" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="48"/>
         <v xml:space="preserve">    if len(study_content['SeriousEventNotes']) ==0 :
         SeriousEventNotes.append(0)
     if len(study_content['SeriousEventNotes']) ==1 :
@@ -14148,7 +14189,7 @@
         <v>11</v>
       </c>
       <c r="I347" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H347&amp;"]:"&amp;B347&amp;","</f>
+        <f t="shared" si="46"/>
         <v>part1[11]:SeriousEventNotes,</v>
       </c>
     </row>
@@ -14157,14 +14198,14 @@
         <v>298</v>
       </c>
       <c r="C348" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="47"/>
         <v>SeriousEventOrganSystem = []</v>
       </c>
       <c r="E348" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F348" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="48"/>
         <v xml:space="preserve">    if len(study_content['SeriousEventOrganSystem']) ==0 :
         SeriousEventOrganSystem.append(0)
     if len(study_content['SeriousEventOrganSystem']) ==1 :
@@ -14179,7 +14220,7 @@
         <v>12</v>
       </c>
       <c r="I348" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H348&amp;"]:"&amp;B348&amp;","</f>
+        <f t="shared" si="46"/>
         <v>part1[12]:SeriousEventOrganSystem,</v>
       </c>
     </row>
@@ -14188,14 +14229,14 @@
         <v>299</v>
       </c>
       <c r="C349" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="47"/>
         <v>SeriousEventSourceVocabulary = []</v>
       </c>
       <c r="E349" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F349" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="48"/>
         <v xml:space="preserve">    if len(study_content['SeriousEventSourceVocabulary']) ==0 :
         SeriousEventSourceVocabulary.append(0)
     if len(study_content['SeriousEventSourceVocabulary']) ==1 :
@@ -14210,7 +14251,7 @@
         <v>13</v>
       </c>
       <c r="I349" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H349&amp;"]:"&amp;B349&amp;","</f>
+        <f t="shared" si="46"/>
         <v>part1[13]:SeriousEventSourceVocabulary,</v>
       </c>
     </row>
@@ -14219,14 +14260,14 @@
         <v>300</v>
       </c>
       <c r="C350" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="47"/>
         <v>SeriousEventStatsGroupId = []</v>
       </c>
       <c r="E350" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F350" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="48"/>
         <v xml:space="preserve">    if len(study_content['SeriousEventStatsGroupId']) ==0 :
         SeriousEventStatsGroupId.append(0)
     if len(study_content['SeriousEventStatsGroupId']) ==1 :
@@ -14241,7 +14282,7 @@
         <v>14</v>
       </c>
       <c r="I350" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H350&amp;"]:"&amp;B350&amp;","</f>
+        <f t="shared" si="46"/>
         <v>part1[14]:SeriousEventStatsGroupId,</v>
       </c>
     </row>
@@ -14250,14 +14291,14 @@
         <v>301</v>
       </c>
       <c r="C351" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="47"/>
         <v>SeriousEventStatsNumAffected = []</v>
       </c>
       <c r="E351" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F351" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="48"/>
         <v xml:space="preserve">    if len(study_content['SeriousEventStatsNumAffected']) ==0 :
         SeriousEventStatsNumAffected.append(0)
     if len(study_content['SeriousEventStatsNumAffected']) ==1 :
@@ -14272,7 +14313,7 @@
         <v>15</v>
       </c>
       <c r="I351" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H351&amp;"]:"&amp;B351&amp;","</f>
+        <f t="shared" si="46"/>
         <v>part1[15]:SeriousEventStatsNumAffected,</v>
       </c>
     </row>
@@ -14281,14 +14322,14 @@
         <v>302</v>
       </c>
       <c r="C352" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="47"/>
         <v>SeriousEventStatsNumAtRisk = []</v>
       </c>
       <c r="E352" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F352" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="48"/>
         <v xml:space="preserve">    if len(study_content['SeriousEventStatsNumAtRisk']) ==0 :
         SeriousEventStatsNumAtRisk.append(0)
     if len(study_content['SeriousEventStatsNumAtRisk']) ==1 :
@@ -14303,7 +14344,7 @@
         <v>16</v>
       </c>
       <c r="I352" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H352&amp;"]:"&amp;B352&amp;","</f>
+        <f t="shared" si="46"/>
         <v>part1[16]:SeriousEventStatsNumAtRisk,</v>
       </c>
     </row>
@@ -14312,14 +14353,14 @@
         <v>303</v>
       </c>
       <c r="C353" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="47"/>
         <v>SeriousEventStatsNumEvents = []</v>
       </c>
       <c r="E353" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F353" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="48"/>
         <v xml:space="preserve">    if len(study_content['SeriousEventStatsNumEvents']) ==0 :
         SeriousEventStatsNumEvents.append(0)
     if len(study_content['SeriousEventStatsNumEvents']) ==1 :
@@ -14334,7 +14375,7 @@
         <v>17</v>
       </c>
       <c r="I353" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H353&amp;"]:"&amp;B353&amp;","</f>
+        <f t="shared" si="46"/>
         <v>part1[17]:SeriousEventStatsNumEvents,</v>
       </c>
     </row>
@@ -14343,14 +14384,14 @@
         <v>304</v>
       </c>
       <c r="C354" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="47"/>
         <v>SeriousEventTerm = []</v>
       </c>
       <c r="E354" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F354" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="48"/>
         <v xml:space="preserve">    if len(study_content['SeriousEventTerm']) ==0 :
         SeriousEventTerm.append(0)
     if len(study_content['SeriousEventTerm']) ==1 :
@@ -14365,7 +14406,7 @@
         <v>18</v>
       </c>
       <c r="I354" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H354&amp;"]:"&amp;B354&amp;","</f>
+        <f t="shared" si="46"/>
         <v>part1[18]:SeriousEventTerm,</v>
       </c>
     </row>
@@ -14374,14 +14415,14 @@
         <v>305</v>
       </c>
       <c r="C355" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="47"/>
         <v>StartDate = []</v>
       </c>
       <c r="E355" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F355" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="48"/>
         <v xml:space="preserve">    if len(study_content['StartDate']) ==0 :
         StartDate.append(0)
     if len(study_content['StartDate']) ==1 :
@@ -14471,7 +14512,7 @@
         <v>1</v>
       </c>
       <c r="I359" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H359&amp;"]:"&amp;B359&amp;","</f>
+        <f t="shared" ref="I359:I371" si="49">"part" &amp;$A$5&amp; "["&amp;H359&amp;"]:"&amp;B359&amp;","</f>
         <v>part1[1]:StartDateType,</v>
       </c>
     </row>
@@ -14480,14 +14521,14 @@
         <v>307</v>
       </c>
       <c r="C360" t="str">
-        <f t="shared" ref="C360:C372" si="33">B360&amp;" = []"</f>
+        <f t="shared" ref="C360:C372" si="50">B360&amp;" = []"</f>
         <v>StatusVerifiedDate = []</v>
       </c>
       <c r="E360" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F360" t="str">
-        <f t="shared" ref="F360:F372" si="34">SUBSTITUTE(E360,"AgreementOtherDetails",B360)</f>
+        <f t="shared" ref="F360:F372" si="51">SUBSTITUTE(E360,"AgreementOtherDetails",B360)</f>
         <v xml:space="preserve">    if len(study_content['StatusVerifiedDate']) ==0 :
         StatusVerifiedDate.append(0)
     if len(study_content['StatusVerifiedDate']) ==1 :
@@ -14502,7 +14543,7 @@
         <v>2</v>
       </c>
       <c r="I360" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H360&amp;"]:"&amp;B360&amp;","</f>
+        <f t="shared" si="49"/>
         <v>part1[2]:StatusVerifiedDate,</v>
       </c>
     </row>
@@ -14511,14 +14552,14 @@
         <v>308</v>
       </c>
       <c r="C361" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="50"/>
         <v>StudyFirstPostDate = []</v>
       </c>
       <c r="E361" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F361" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="51"/>
         <v xml:space="preserve">    if len(study_content['StudyFirstPostDate']) ==0 :
         StudyFirstPostDate.append(0)
     if len(study_content['StudyFirstPostDate']) ==1 :
@@ -14533,7 +14574,7 @@
         <v>3</v>
       </c>
       <c r="I361" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H361&amp;"]:"&amp;B361&amp;","</f>
+        <f t="shared" si="49"/>
         <v>part1[3]:StudyFirstPostDate,</v>
       </c>
     </row>
@@ -14542,14 +14583,14 @@
         <v>309</v>
       </c>
       <c r="C362" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="50"/>
         <v>StudyFirstPostDateType = []</v>
       </c>
       <c r="E362" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F362" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="51"/>
         <v xml:space="preserve">    if len(study_content['StudyFirstPostDateType']) ==0 :
         StudyFirstPostDateType.append(0)
     if len(study_content['StudyFirstPostDateType']) ==1 :
@@ -14564,7 +14605,7 @@
         <v>4</v>
       </c>
       <c r="I362" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H362&amp;"]:"&amp;B362&amp;","</f>
+        <f t="shared" si="49"/>
         <v>part1[4]:StudyFirstPostDateType,</v>
       </c>
     </row>
@@ -14573,14 +14614,14 @@
         <v>310</v>
       </c>
       <c r="C363" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="50"/>
         <v>StudyFirstSubmitDate = []</v>
       </c>
       <c r="E363" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F363" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="51"/>
         <v xml:space="preserve">    if len(study_content['StudyFirstSubmitDate']) ==0 :
         StudyFirstSubmitDate.append(0)
     if len(study_content['StudyFirstSubmitDate']) ==1 :
@@ -14595,7 +14636,7 @@
         <v>5</v>
       </c>
       <c r="I363" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H363&amp;"]:"&amp;B363&amp;","</f>
+        <f t="shared" si="49"/>
         <v>part1[5]:StudyFirstSubmitDate,</v>
       </c>
     </row>
@@ -14604,14 +14645,14 @@
         <v>311</v>
       </c>
       <c r="C364" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="50"/>
         <v>StudyFirstSubmitQCDate = []</v>
       </c>
       <c r="E364" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F364" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="51"/>
         <v xml:space="preserve">    if len(study_content['StudyFirstSubmitQCDate']) ==0 :
         StudyFirstSubmitQCDate.append(0)
     if len(study_content['StudyFirstSubmitQCDate']) ==1 :
@@ -14626,7 +14667,7 @@
         <v>6</v>
       </c>
       <c r="I364" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H364&amp;"]:"&amp;B364&amp;","</f>
+        <f t="shared" si="49"/>
         <v>part1[6]:StudyFirstSubmitQCDate,</v>
       </c>
     </row>
@@ -14635,14 +14676,14 @@
         <v>312</v>
       </c>
       <c r="C365" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="50"/>
         <v>StudyPopulation = []</v>
       </c>
       <c r="E365" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F365" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="51"/>
         <v xml:space="preserve">    if len(study_content['StudyPopulation']) ==0 :
         StudyPopulation.append(0)
     if len(study_content['StudyPopulation']) ==1 :
@@ -14657,7 +14698,7 @@
         <v>7</v>
       </c>
       <c r="I365" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H365&amp;"]:"&amp;B365&amp;","</f>
+        <f t="shared" si="49"/>
         <v>part1[7]:StudyPopulation,</v>
       </c>
     </row>
@@ -14666,14 +14707,14 @@
         <v>313</v>
       </c>
       <c r="C366" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="50"/>
         <v>StudyType = []</v>
       </c>
       <c r="E366" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F366" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="51"/>
         <v xml:space="preserve">    if len(study_content['StudyType']) ==0 :
         StudyType.append(0)
     if len(study_content['StudyType']) ==1 :
@@ -14688,7 +14729,7 @@
         <v>8</v>
       </c>
       <c r="I366" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H366&amp;"]:"&amp;B366&amp;","</f>
+        <f t="shared" si="49"/>
         <v>part1[8]:StudyType,</v>
       </c>
     </row>
@@ -14697,14 +14738,14 @@
         <v>314</v>
       </c>
       <c r="C367" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="50"/>
         <v>TargetDuration = []</v>
       </c>
       <c r="E367" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F367" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="51"/>
         <v xml:space="preserve">    if len(study_content['TargetDuration']) ==0 :
         TargetDuration.append(0)
     if len(study_content['TargetDuration']) ==1 :
@@ -14719,7 +14760,7 @@
         <v>9</v>
       </c>
       <c r="I367" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H367&amp;"]:"&amp;B367&amp;","</f>
+        <f t="shared" si="49"/>
         <v>part1[9]:TargetDuration,</v>
       </c>
     </row>
@@ -14728,14 +14769,14 @@
         <v>315</v>
       </c>
       <c r="C368" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="50"/>
         <v>UnpostedEventDate = []</v>
       </c>
       <c r="E368" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F368" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="51"/>
         <v xml:space="preserve">    if len(study_content['UnpostedEventDate']) ==0 :
         UnpostedEventDate.append(0)
     if len(study_content['UnpostedEventDate']) ==1 :
@@ -14750,23 +14791,23 @@
         <v>10</v>
       </c>
       <c r="I368" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H368&amp;"]:"&amp;B368&amp;","</f>
+        <f t="shared" si="49"/>
         <v>part1[10]:UnpostedEventDate,</v>
       </c>
     </row>
-    <row r="369" spans="2:9">
+    <row r="369" spans="1:9">
       <c r="B369" s="3" t="s">
         <v>316</v>
       </c>
       <c r="C369" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="50"/>
         <v>UnpostedEventType = []</v>
       </c>
       <c r="E369" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F369" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="51"/>
         <v xml:space="preserve">    if len(study_content['UnpostedEventType']) ==0 :
         UnpostedEventType.append(0)
     if len(study_content['UnpostedEventType']) ==1 :
@@ -14781,23 +14822,23 @@
         <v>11</v>
       </c>
       <c r="I369" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H369&amp;"]:"&amp;B369&amp;","</f>
+        <f t="shared" si="49"/>
         <v>part1[11]:UnpostedEventType,</v>
       </c>
     </row>
-    <row r="370" spans="2:9">
+    <row r="370" spans="1:9">
       <c r="B370" s="3" t="s">
         <v>317</v>
       </c>
       <c r="C370" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="50"/>
         <v>UnpostedResponsibleParty = []</v>
       </c>
       <c r="E370" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F370" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="51"/>
         <v xml:space="preserve">    if len(study_content['UnpostedResponsibleParty']) ==0 :
         UnpostedResponsibleParty.append(0)
     if len(study_content['UnpostedResponsibleParty']) ==1 :
@@ -14812,23 +14853,23 @@
         <v>12</v>
       </c>
       <c r="I370" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H370&amp;"]:"&amp;B370&amp;","</f>
+        <f t="shared" si="49"/>
         <v>part1[12]:UnpostedResponsibleParty,</v>
       </c>
     </row>
-    <row r="371" spans="2:9">
+    <row r="371" spans="1:9">
       <c r="B371" s="3" t="s">
         <v>318</v>
       </c>
       <c r="C371" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="50"/>
         <v>VersionHolder = []</v>
       </c>
       <c r="E371" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F371" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="51"/>
         <v xml:space="preserve">    if len(study_content['VersionHolder']) ==0 :
         VersionHolder.append(0)
     if len(study_content['VersionHolder']) ==1 :
@@ -14843,23 +14884,23 @@
         <v>13</v>
       </c>
       <c r="I371" t="str">
-        <f>"part" &amp;$A$5&amp; "["&amp;H371&amp;"]:"&amp;B371&amp;","</f>
+        <f t="shared" si="49"/>
         <v>part1[13]:VersionHolder,</v>
       </c>
     </row>
-    <row r="372" spans="2:9">
+    <row r="372" spans="1:9">
       <c r="B372" s="3" t="s">
         <v>319</v>
       </c>
       <c r="C372" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="50"/>
         <v>WhyStopped = []</v>
       </c>
       <c r="E372" s="4" t="s">
         <v>339</v>
       </c>
       <c r="F372" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="51"/>
         <v xml:space="preserve">    if len(study_content['WhyStopped']) ==0 :
         WhyStopped.append(0)
     if len(study_content['WhyStopped']) ==1 :
@@ -14878,67 +14919,357 @@
         <v>part1[14]:WhyStopped}</v>
       </c>
     </row>
-    <row r="373" spans="2:9">
+    <row r="373" spans="1:9">
       <c r="B373" s="3"/>
       <c r="E373" s="4"/>
       <c r="G373" s="4"/>
     </row>
-    <row r="374" spans="2:9">
-      <c r="B374" s="3"/>
-      <c r="E374" s="4"/>
-      <c r="G374" s="4"/>
-    </row>
-    <row r="375" spans="2:9">
-      <c r="B375" s="3"/>
-      <c r="E375" s="4"/>
-      <c r="G375" s="4"/>
-    </row>
-    <row r="376" spans="2:9">
-      <c r="B376" s="3"/>
-      <c r="E376" s="4"/>
-      <c r="G376" s="4"/>
-    </row>
-    <row r="377" spans="2:9">
-      <c r="B377" s="3"/>
-      <c r="E377" s="4"/>
-      <c r="G377" s="4"/>
-    </row>
-    <row r="378" spans="2:9">
-      <c r="B378" s="3"/>
-    </row>
-    <row r="379" spans="2:9" ht="23.5">
-      <c r="B379" s="3"/>
-      <c r="C379" s="6"/>
-      <c r="E379" s="4"/>
-      <c r="G379" s="4"/>
-    </row>
-    <row r="380" spans="2:9">
-      <c r="B380" s="3"/>
-      <c r="E380" s="4"/>
-      <c r="G380" s="4"/>
-    </row>
-    <row r="381" spans="2:9">
-      <c r="B381" s="3"/>
-      <c r="E381" s="4"/>
-      <c r="G381" s="4"/>
-    </row>
-    <row r="382" spans="2:9">
-      <c r="B382" s="3"/>
-      <c r="E382" s="4"/>
-      <c r="G382" s="4"/>
-    </row>
-    <row r="383" spans="2:9">
-      <c r="B383" s="3"/>
-      <c r="E383" s="4"/>
-      <c r="G383" s="4"/>
-    </row>
-    <row r="384" spans="2:9">
-      <c r="B384" s="3"/>
-      <c r="E384" s="4"/>
-      <c r="G384" s="4"/>
+    <row r="374" spans="1:9" ht="23.5">
+      <c r="A374" s="7"/>
+      <c r="B374" t="s">
+        <v>657</v>
+      </c>
+      <c r="C374" t="str">
+        <f>"#part"&amp;A375</f>
+        <v>#part18</v>
+      </c>
+      <c r="E374" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="F374" t="str">
+        <f>SUBSTITUTE(E374,"AgreementOtherDetails",B374)</f>
+        <v xml:space="preserve">    if len(study_content['NCTId']) ==0 :
+        NCTId.append(0)
+    if len(study_content['NCTId']) ==1 :
+        NCTId.append(study_content['NCTId'][0]) 
+    elif len(study_content['NCTId']) &gt; 1:
+        NCTId.append(study_content['NCTId'])  </v>
+      </c>
+      <c r="G374" s="4" t="s">
+        <v>658</v>
+      </c>
+      <c r="H374">
+        <v>0</v>
+      </c>
+      <c r="I374" t="str">
+        <f>"dict"&amp;A374&amp;" = { part" &amp;$A$375&amp; "["&amp;H374&amp;"]:"&amp;B374&amp;","</f>
+        <v>dict = { part18[0]:NCTId,</v>
+      </c>
+    </row>
+    <row r="375" spans="1:9" ht="23.5">
+      <c r="A375" s="7">
+        <v>18</v>
+      </c>
+      <c r="B375" t="s">
+        <v>58</v>
+      </c>
+      <c r="C375" t="str">
+        <f>B375&amp;" = []"</f>
+        <v>ConditionAncestorId = []</v>
+      </c>
+      <c r="E375" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="F375" t="str">
+        <f>SUBSTITUTE(E375,"AgreementOtherDetails",B375)</f>
+        <v xml:space="preserve">    if len(study_content['ConditionAncestorId']) ==0 :
+        ConditionAncestorId.append(0)
+    if len(study_content['ConditionAncestorId']) ==1 :
+        ConditionAncestorId.append(study_content['ConditionAncestorId'][0]) 
+    elif len(study_content['ConditionAncestorId']) &gt; 1:
+        ConditionAncestorId.append(study_content['ConditionAncestorId'])  </v>
+      </c>
+      <c r="G375" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="H375">
+        <v>1</v>
+      </c>
+      <c r="I375" t="str">
+        <f>"part" &amp;$A$375&amp; "["&amp;H375&amp;"]:"&amp;B375&amp;","</f>
+        <v>part18[1]:ConditionAncestorId,</v>
+      </c>
+    </row>
+    <row r="376" spans="1:9">
+      <c r="B376" t="s">
+        <v>59</v>
+      </c>
+      <c r="C376" t="str">
+        <f>B376&amp;" = []"</f>
+        <v>ConditionAncestorTerm = []</v>
+      </c>
+      <c r="E376" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="F376" t="str">
+        <f t="shared" ref="F376:F388" si="52">SUBSTITUTE(E376,"AgreementOtherDetails",B376)</f>
+        <v xml:space="preserve">    if len(study_content['ConditionAncestorTerm']) ==0 :
+        ConditionAncestorTerm.append(0)
+    if len(study_content['ConditionAncestorTerm']) ==1 :
+        ConditionAncestorTerm.append(study_content['ConditionAncestorTerm'][0]) 
+    elif len(study_content['ConditionAncestorTerm']) &gt; 1:
+        ConditionAncestorTerm.append(study_content['ConditionAncestorTerm'])  </v>
+      </c>
+      <c r="G376" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="H376">
+        <v>2</v>
+      </c>
+      <c r="I376" t="str">
+        <f>"part" &amp;$A$375&amp; "["&amp;H376&amp;"]:"&amp;B376&amp;","</f>
+        <v>part18[2]:ConditionAncestorTerm,</v>
+      </c>
+    </row>
+    <row r="377" spans="1:9">
+      <c r="B377" t="s">
+        <v>60</v>
+      </c>
+      <c r="C377" t="str">
+        <f t="shared" ref="C377:C389" si="53">B377&amp;" = []"</f>
+        <v>ConditionBrowseBranchAbbrev = []</v>
+      </c>
+      <c r="E377" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="F377" t="str">
+        <f t="shared" si="52"/>
+        <v xml:space="preserve">    if len(study_content['ConditionBrowseBranchAbbrev']) ==0 :
+        ConditionBrowseBranchAbbrev.append(0)
+    if len(study_content['ConditionBrowseBranchAbbrev']) ==1 :
+        ConditionBrowseBranchAbbrev.append(study_content['ConditionBrowseBranchAbbrev'][0]) 
+    elif len(study_content['ConditionBrowseBranchAbbrev']) &gt; 1:
+        ConditionBrowseBranchAbbrev.append(study_content['ConditionBrowseBranchAbbrev'])  </v>
+      </c>
+      <c r="G377" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="H377">
+        <v>3</v>
+      </c>
+      <c r="I377" t="str">
+        <f>"part" &amp;$A$375&amp; "["&amp;H377&amp;"]:"&amp;B377&amp;","</f>
+        <v>part18[3]:ConditionBrowseBranchAbbrev,</v>
+      </c>
+    </row>
+    <row r="378" spans="1:9">
+      <c r="B378" t="s">
+        <v>61</v>
+      </c>
+      <c r="C378" t="str">
+        <f t="shared" si="53"/>
+        <v>ConditionBrowseBranchName = []</v>
+      </c>
+      <c r="E378" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="F378" t="str">
+        <f t="shared" si="52"/>
+        <v xml:space="preserve">    if len(study_content['ConditionBrowseBranchName']) ==0 :
+        ConditionBrowseBranchName.append(0)
+    if len(study_content['ConditionBrowseBranchName']) ==1 :
+        ConditionBrowseBranchName.append(study_content['ConditionBrowseBranchName'][0]) 
+    elif len(study_content['ConditionBrowseBranchName']) &gt; 1:
+        ConditionBrowseBranchName.append(study_content['ConditionBrowseBranchName'])  </v>
+      </c>
+      <c r="G378" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="H378">
+        <v>4</v>
+      </c>
+      <c r="I378" t="str">
+        <f>"part" &amp;$A$375&amp; "["&amp;H378&amp;"]:"&amp;B378&amp;","</f>
+        <v>part18[4]:ConditionBrowseBranchName,</v>
+      </c>
+    </row>
+    <row r="379" spans="1:9">
+      <c r="B379" t="s">
+        <v>62</v>
+      </c>
+      <c r="C379" t="str">
+        <f t="shared" si="53"/>
+        <v>ConditionBrowseLeafAsFound = []</v>
+      </c>
+      <c r="E379" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="F379" t="str">
+        <f t="shared" si="52"/>
+        <v xml:space="preserve">    if len(study_content['ConditionBrowseLeafAsFound']) ==0 :
+        ConditionBrowseLeafAsFound.append(0)
+    if len(study_content['ConditionBrowseLeafAsFound']) ==1 :
+        ConditionBrowseLeafAsFound.append(study_content['ConditionBrowseLeafAsFound'][0]) 
+    elif len(study_content['ConditionBrowseLeafAsFound']) &gt; 1:
+        ConditionBrowseLeafAsFound.append(study_content['ConditionBrowseLeafAsFound'])  </v>
+      </c>
+      <c r="G379" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="H379">
+        <v>5</v>
+      </c>
+      <c r="I379" t="str">
+        <f>"part" &amp;$A$375&amp; "["&amp;H379&amp;"]:"&amp;B379&amp;","</f>
+        <v>part18[5]:ConditionBrowseLeafAsFound,</v>
+      </c>
+    </row>
+    <row r="380" spans="1:9">
+      <c r="B380" t="s">
+        <v>63</v>
+      </c>
+      <c r="C380" t="str">
+        <f t="shared" si="53"/>
+        <v>ConditionBrowseLeafId = []</v>
+      </c>
+      <c r="E380" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="F380" t="str">
+        <f t="shared" si="52"/>
+        <v xml:space="preserve">    if len(study_content['ConditionBrowseLeafId']) ==0 :
+        ConditionBrowseLeafId.append(0)
+    if len(study_content['ConditionBrowseLeafId']) ==1 :
+        ConditionBrowseLeafId.append(study_content['ConditionBrowseLeafId'][0]) 
+    elif len(study_content['ConditionBrowseLeafId']) &gt; 1:
+        ConditionBrowseLeafId.append(study_content['ConditionBrowseLeafId'])  </v>
+      </c>
+      <c r="G380" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="H380">
+        <v>6</v>
+      </c>
+      <c r="I380" t="str">
+        <f>"part" &amp;$A$375&amp; "["&amp;H380&amp;"]:"&amp;B380&amp;","</f>
+        <v>part18[6]:ConditionBrowseLeafId,</v>
+      </c>
+    </row>
+    <row r="381" spans="1:9">
+      <c r="B381" t="s">
+        <v>64</v>
+      </c>
+      <c r="C381" t="str">
+        <f t="shared" si="53"/>
+        <v>ConditionBrowseLeafName = []</v>
+      </c>
+      <c r="E381" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="F381" t="str">
+        <f t="shared" si="52"/>
+        <v xml:space="preserve">    if len(study_content['ConditionBrowseLeafName']) ==0 :
+        ConditionBrowseLeafName.append(0)
+    if len(study_content['ConditionBrowseLeafName']) ==1 :
+        ConditionBrowseLeafName.append(study_content['ConditionBrowseLeafName'][0]) 
+    elif len(study_content['ConditionBrowseLeafName']) &gt; 1:
+        ConditionBrowseLeafName.append(study_content['ConditionBrowseLeafName'])  </v>
+      </c>
+      <c r="G381" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="H381">
+        <v>7</v>
+      </c>
+      <c r="I381" t="str">
+        <f>"part" &amp;$A$375&amp; "["&amp;H381&amp;"]:"&amp;B381&amp;","</f>
+        <v>part18[7]:ConditionBrowseLeafName,</v>
+      </c>
+    </row>
+    <row r="382" spans="1:9">
+      <c r="B382" t="s">
+        <v>65</v>
+      </c>
+      <c r="C382" t="str">
+        <f t="shared" si="53"/>
+        <v>ConditionBrowseLeafRelevance = []</v>
+      </c>
+      <c r="E382" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="F382" t="str">
+        <f t="shared" si="52"/>
+        <v xml:space="preserve">    if len(study_content['ConditionBrowseLeafRelevance']) ==0 :
+        ConditionBrowseLeafRelevance.append(0)
+    if len(study_content['ConditionBrowseLeafRelevance']) ==1 :
+        ConditionBrowseLeafRelevance.append(study_content['ConditionBrowseLeafRelevance'][0]) 
+    elif len(study_content['ConditionBrowseLeafRelevance']) &gt; 1:
+        ConditionBrowseLeafRelevance.append(study_content['ConditionBrowseLeafRelevance'])  </v>
+      </c>
+      <c r="G382" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="H382">
+        <v>8</v>
+      </c>
+      <c r="I382" t="str">
+        <f>"part" &amp;$A$375&amp; "["&amp;H382&amp;"]:"&amp;B382&amp;","</f>
+        <v>part18[8]:ConditionBrowseLeafRelevance,</v>
+      </c>
+    </row>
+    <row r="383" spans="1:9">
+      <c r="B383" t="s">
+        <v>66</v>
+      </c>
+      <c r="C383" t="str">
+        <f t="shared" si="53"/>
+        <v>ConditionMeshId = []</v>
+      </c>
+      <c r="E383" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="F383" t="str">
+        <f t="shared" si="52"/>
+        <v xml:space="preserve">    if len(study_content['ConditionMeshId']) ==0 :
+        ConditionMeshId.append(0)
+    if len(study_content['ConditionMeshId']) ==1 :
+        ConditionMeshId.append(study_content['ConditionMeshId'][0]) 
+    elif len(study_content['ConditionMeshId']) &gt; 1:
+        ConditionMeshId.append(study_content['ConditionMeshId'])  </v>
+      </c>
+      <c r="G383" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="H383">
+        <v>9</v>
+      </c>
+      <c r="I383" t="str">
+        <f>"part" &amp;$A$375&amp; "["&amp;H383&amp;"]:"&amp;B383&amp;","</f>
+        <v>part18[9]:ConditionMeshId,</v>
+      </c>
+    </row>
+    <row r="384" spans="1:9">
+      <c r="B384" t="s">
+        <v>67</v>
+      </c>
+      <c r="C384" t="str">
+        <f t="shared" si="53"/>
+        <v>ConditionMeshTerm = []</v>
+      </c>
+      <c r="E384" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="F384" t="str">
+        <f t="shared" si="52"/>
+        <v xml:space="preserve">    if len(study_content['ConditionMeshTerm']) ==0 :
+        ConditionMeshTerm.append(0)
+    if len(study_content['ConditionMeshTerm']) ==1 :
+        ConditionMeshTerm.append(study_content['ConditionMeshTerm'][0]) 
+    elif len(study_content['ConditionMeshTerm']) &gt; 1:
+        ConditionMeshTerm.append(study_content['ConditionMeshTerm'])  </v>
+      </c>
+      <c r="G384" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="H384">
+        <v>10</v>
+      </c>
+      <c r="I384" t="str">
+        <f>"part" &amp;$A$375&amp; "["&amp;H384&amp;"]:"&amp;B384&amp;"}"</f>
+        <v>part18[10]:ConditionMeshTerm}</v>
+      </c>
     </row>
     <row r="385" spans="2:7">
-      <c r="B385" s="3"/>
       <c r="E385" s="4"/>
       <c r="G385" s="4"/>
     </row>
@@ -15129,32 +15460,32 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B71 B399:B1048576 B268:B269 B136:B137">
-    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="NCTID">
+    <cfRule type="containsText" dxfId="8" priority="7" operator="containsText" text="NCTID">
       <formula>NOT(ISERROR(SEARCH("NCTID",B1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B270:B335">
-    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="NCTID">
+    <cfRule type="containsText" dxfId="7" priority="2" operator="containsText" text="NCTID">
       <formula>NOT(ISERROR(SEARCH("NCTID",B270)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B72:B135">
-    <cfRule type="containsText" dxfId="3" priority="5" operator="containsText" text="NCTID">
+    <cfRule type="containsText" dxfId="6" priority="5" operator="containsText" text="NCTID">
       <formula>NOT(ISERROR(SEARCH("NCTID",B72)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B138:B203">
-    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="NCTID">
+    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="NCTID">
       <formula>NOT(ISERROR(SEARCH("NCTID",B138)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B204:B267">
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="NCTID">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="NCTID">
       <formula>NOT(ISERROR(SEARCH("NCTID",B204)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B336:B398">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="NCTID">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="NCTID">
       <formula>NOT(ISERROR(SEARCH("NCTID",B336)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15165,15 +15496,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{207DC0CD-F7E1-49FD-8D26-942575A35794}">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="2" width="0" hidden="1" customWidth="1"/>
+    <col min="1" max="2" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -15388,8 +15719,73 @@
         <v>part17=[ 'NCTId' , 'StartDateType' , 'StatusVerifiedDate' , 'StudyFirstPostDate' , 'StudyFirstPostDateType' , 'StudyFirstSubmitDate' , 'StudyFirstSubmitQCDate' , 'StudyPopulation' , 'StudyType' , 'TargetDuration' , 'UnpostedEventDate' , 'UnpostedEventType' , 'UnpostedResponsibleParty' , 'VersionHolder' , 'WhyStopped ' ]</v>
       </c>
     </row>
+    <row r="19" spans="1:3">
+      <c r="C19" t="s">
+        <v>698</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFFB0B9B-7736-452D-9F00-050D1FCD1B35}">
+  <dimension ref="A1:K3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" t="s">
+        <v>657</v>
+      </c>
+      <c r="B1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="409.5">
+      <c r="C3" s="8" t="s">
+        <v>697</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1:K1">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="NCTID">
+      <formula>NOT(ISERROR(SEARCH("NCTID",A1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>